--- a/20180126_SmartCut/20181025_Meeting/3pionts.xlsx
+++ b/20180126_SmartCut/20181025_Meeting/3pionts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="34">
   <si>
     <t>樓層</t>
   </si>
@@ -61,2335 +61,61 @@
     <t>右</t>
   </si>
   <si>
-    <t>#4@25.0</t>
+    <t>#4@30</t>
   </si>
   <si>
-    <t>#4@17.227236315086785</t>
+    <t>#4@15</t>
   </si>
   <si>
-    <t>#4@23.894814814814815</t>
+    <t>#4@25</t>
   </si>
   <si>
-    <t>#4@16.271374527112233</t>
+    <t>#4@20</t>
   </si>
   <si>
-    <t>#4@15.630769230769232</t>
+    <t>#4@18</t>
   </si>
   <si>
-    <t>#4@18.754651162790697</t>
+    <t>#4@12</t>
   </si>
   <si>
-    <t>#4@19.30172026925954</t>
+    <t>2#4@12</t>
   </si>
   <si>
-    <t>#4@12.282912898619704</t>
+    <t>2#4@15</t>
   </si>
   <si>
-    <t>2#4@14.082619372442021</t>
+    <t>2#5@30</t>
   </si>
   <si>
-    <t>#4@13.889343379978472</t>
+    <t>#4@10</t>
   </si>
   <si>
-    <t>#4@15.39761336515513</t>
+    <t>2#4@25</t>
   </si>
   <si>
-    <t>2#4@15.306287069988139</t>
+    <t>2#4@18</t>
   </si>
   <si>
-    <t>#4@17.68773132282385</t>
+    <t>2#4@30</t>
   </si>
   <si>
-    <t>2#5@25.0</t>
+    <t>2#4@20</t>
   </si>
   <si>
-    <t>#4@18.79563000728332</t>
+    <t>2#4@10</t>
   </si>
   <si>
-    <t>#4@12.826242544731612</t>
+    <t>2#5@15</t>
   </si>
   <si>
-    <t>#4@11.505305394560859</t>
+    <t>2#5@12</t>
   </si>
   <si>
-    <t>#4@11.279020979020979</t>
+    <t>2#5@18</t>
   </si>
   <si>
-    <t>#4@16.4897124600639</t>
-  </si>
-  <si>
-    <t>#4@15.851597051597052</t>
-  </si>
-  <si>
-    <t>#4@17.567324710687544</t>
-  </si>
-  <si>
-    <t>#4@15.270059171597635</t>
-  </si>
-  <si>
-    <t>#4@16.14918648310388</t>
-  </si>
-  <si>
-    <t>2#4@25.0</t>
-  </si>
-  <si>
-    <t>#4@11.875931891394387</t>
-  </si>
-  <si>
-    <t>2#4@19.483880709701776</t>
-  </si>
-  <si>
-    <t>#4@11.772992700729926</t>
-  </si>
-  <si>
-    <t>#4@15.508653846153846</t>
-  </si>
-  <si>
-    <t>#4@16.7031715210356</t>
-  </si>
-  <si>
-    <t>#4@22.939022222222224</t>
-  </si>
-  <si>
-    <t>#4@13.704938927243763</t>
-  </si>
-  <si>
-    <t>#4@11.677104072398189</t>
-  </si>
-  <si>
-    <t>2#4@17.01147000659196</t>
-  </si>
-  <si>
-    <t>2#4@20.7697384305835</t>
-  </si>
-  <si>
-    <t>#4@15.243000590667455</t>
-  </si>
-  <si>
-    <t>#4@15.10913348946136</t>
-  </si>
-  <si>
-    <t>#4@12.929058116232467</t>
-  </si>
-  <si>
-    <t>#4@11.997396559739656</t>
-  </si>
-  <si>
-    <t>2#4@24.718773946360155</t>
-  </si>
-  <si>
-    <t>2#4@20.786467982279504</t>
-  </si>
-  <si>
-    <t>2#4@18.103402314977203</t>
-  </si>
-  <si>
-    <t>2#4@20.703088648215004</t>
-  </si>
-  <si>
-    <t>#4@14.117286652078773</t>
-  </si>
-  <si>
-    <t>2#4@24.92168034765814</t>
-  </si>
-  <si>
-    <t>#4@20.35205047318612</t>
-  </si>
-  <si>
-    <t>#4@11.25933682373473</t>
-  </si>
-  <si>
-    <t>2#4@20.912803889789302</t>
-  </si>
-  <si>
-    <t>2#4@14.152125034274746</t>
-  </si>
-  <si>
-    <t>2#4@19.101702442635084</t>
-  </si>
-  <si>
-    <t>#4@13.83721179624665</t>
-  </si>
-  <si>
-    <t>#4@13.778109983982914</t>
-  </si>
-  <si>
-    <t>#4@12.300476644423261</t>
-  </si>
-  <si>
-    <t>#4@11.1426597582038</t>
-  </si>
-  <si>
-    <t>2#4@19.236973537085355</t>
-  </si>
-  <si>
-    <t>2#4@21.550229645093946</t>
-  </si>
-  <si>
-    <t>2#4@17.773002754820936</t>
-  </si>
-  <si>
-    <t>2#4@16.27650583412173</t>
-  </si>
-  <si>
-    <t>2#4@17.579291553133515</t>
-  </si>
-  <si>
-    <t>#4@12.606936980947731</t>
-  </si>
-  <si>
-    <t>2#4@20.200704500978475</t>
-  </si>
-  <si>
-    <t>2#4@21.222368421052632</t>
-  </si>
-  <si>
-    <t>#4@17.627322404371583</t>
-  </si>
-  <si>
-    <t>2#4@17.89625520110957</t>
-  </si>
-  <si>
-    <t>2#4@18.321902733404333</t>
-  </si>
-  <si>
-    <t>2#4@11.955709983785034</t>
-  </si>
-  <si>
-    <t>2#4@17.30231310760979</t>
-  </si>
-  <si>
-    <t>#4@12.582350073135053</t>
-  </si>
-  <si>
-    <t>2#4@20.794842868654314</t>
-  </si>
-  <si>
-    <t>2#4@19.828198232808298</t>
-  </si>
-  <si>
-    <t>2#4@16.302210991787746</t>
-  </si>
-  <si>
-    <t>2#4@19.403308270676693</t>
-  </si>
-  <si>
-    <t>2#4@15.87597662257767</t>
-  </si>
-  <si>
-    <t>2#4@15.117984768599884</t>
-  </si>
-  <si>
-    <t>2#4@15.578871113794143</t>
-  </si>
-  <si>
-    <t>#4@11.587965873372251</t>
-  </si>
-  <si>
-    <t>#4@24.957833655706</t>
-  </si>
-  <si>
-    <t>2#4@17.005864909390446</t>
-  </si>
-  <si>
-    <t>2#4@18.59250720461095</t>
-  </si>
-  <si>
-    <t>#4@16.19987445072191</t>
-  </si>
-  <si>
-    <t>2#4@15.247503692762187</t>
-  </si>
-  <si>
-    <t>2#4@16.606435006435007</t>
-  </si>
-  <si>
-    <t>2#4@10.561244117045222</t>
-  </si>
-  <si>
-    <t>2#4@16.240654499685338</t>
-  </si>
-  <si>
-    <t>2#4@23.481710646041858</t>
-  </si>
-  <si>
-    <t>2#4@23.50309653916211</t>
-  </si>
-  <si>
-    <t>2#4@18.347955918947743</t>
-  </si>
-  <si>
-    <t>2#4@17.908674531575297</t>
-  </si>
-  <si>
-    <t>2#4@14.26950511473597</t>
-  </si>
-  <si>
-    <t>2#4@17.74245445170162</t>
-  </si>
-  <si>
-    <t>2#4@14.481705948372618</t>
-  </si>
-  <si>
-    <t>2#4@14.336888888888891</t>
-  </si>
-  <si>
-    <t>2#4@14.16377607025247</t>
-  </si>
-  <si>
-    <t>#4@23.354208144796377</t>
-  </si>
-  <si>
-    <t>2#4@14.904071614207334</t>
-  </si>
-  <si>
-    <t>2#4@16.85591116917048</t>
-  </si>
-  <si>
-    <t>#4@15.073831775700933</t>
-  </si>
-  <si>
-    <t>2#4@13.490015682174597</t>
-  </si>
-  <si>
-    <t>2#4@15.104711735440443</t>
-  </si>
-  <si>
-    <t>2#4@10.990800681431006</t>
-  </si>
-  <si>
-    <t>2#4@15.324465558194774</t>
-  </si>
-  <si>
-    <t>2#4@22.179974215728407</t>
-  </si>
-  <si>
-    <t>2#4@22.227734711455643</t>
-  </si>
-  <si>
-    <t>2#4@16.235545769109784</t>
-  </si>
-  <si>
-    <t>2#4@16.61177985194722</t>
-  </si>
-  <si>
-    <t>2#4@12.832620586772753</t>
-  </si>
-  <si>
-    <t>2#4@16.638555770470663</t>
-  </si>
-  <si>
-    <t>2#4@13.628941114338527</t>
-  </si>
-  <si>
-    <t>2#4@13.752411404209965</t>
-  </si>
-  <si>
-    <t>2#4@13.223879067384065</t>
-  </si>
-  <si>
-    <t>2#4@20.240313725490196</t>
-  </si>
-  <si>
-    <t>#4@22.151416309012877</t>
-  </si>
-  <si>
-    <t>2#4@13.668644067796611</t>
-  </si>
-  <si>
-    <t>2#4@15.592990936555893</t>
-  </si>
-  <si>
-    <t>#4@14.101857923497269</t>
-  </si>
-  <si>
-    <t>2#4@12.224727617243012</t>
-  </si>
-  <si>
-    <t>2#4@14.109568069983599</t>
-  </si>
-  <si>
-    <t>2#4@11.52843421934331</t>
-  </si>
-  <si>
-    <t>2#4@14.36881959910913</t>
-  </si>
-  <si>
-    <t>2#4@21.318793886823627</t>
-  </si>
-  <si>
-    <t>2#4@14.797247706422018</t>
-  </si>
-  <si>
-    <t>2#4@15.841866175567834</t>
-  </si>
-  <si>
-    <t>2#4@11.966798052399723</t>
-  </si>
-  <si>
-    <t>2#4@16.03379931655794</t>
-  </si>
-  <si>
-    <t>2#4@13.17997957099081</t>
-  </si>
-  <si>
-    <t>2#4@11.574971966808702</t>
-  </si>
-  <si>
-    <t>2#4@12.585418190685202</t>
-  </si>
-  <si>
-    <t>2#4@16.972311739559355</t>
-  </si>
-  <si>
-    <t>#4@21.81437024513948</t>
-  </si>
-  <si>
-    <t>2#4@13.040121273370392</t>
-  </si>
-  <si>
-    <t>2#4@13.14306086070792</t>
-  </si>
-  <si>
-    <t>#4@13.741427050053248</t>
-  </si>
-  <si>
-    <t>2#4@11.363452223690004</t>
-  </si>
-  <si>
-    <t>2#4@13.690397877984084</t>
-  </si>
-  <si>
-    <t>2#4@11.286420293024275</t>
-  </si>
-  <si>
-    <t>2#4@11.296301159991245</t>
-  </si>
-  <si>
-    <t>2#4@20.938255578093308</t>
-  </si>
-  <si>
-    <t>2#4@20.836818732337505</t>
-  </si>
-  <si>
-    <t>2#4@14.009989142236698</t>
-  </si>
-  <si>
-    <t>2#4@12.78493931136983</t>
-  </si>
-  <si>
-    <t>2#4@15.162397179788487</t>
-  </si>
-  <si>
-    <t>2#4@12.756500247157687</t>
-  </si>
-  <si>
-    <t>2#4@11.306199342825849</t>
-  </si>
-  <si>
-    <t>2#4@12.044994165694284</t>
-  </si>
-  <si>
-    <t>2#4@16.34350854971501</t>
-  </si>
-  <si>
-    <t>#4@20.92976480129765</t>
-  </si>
-  <si>
-    <t>2#4@12.374202829057781</t>
-  </si>
-  <si>
-    <t>2#4@12.466859903381645</t>
-  </si>
-  <si>
-    <t>#4@13.336640826873387</t>
-  </si>
-  <si>
-    <t>2#4@10.788628762541807</t>
-  </si>
-  <si>
-    <t>2#4@13.206960081883318</t>
-  </si>
-  <si>
-    <t>2#4@10.578561180569789</t>
-  </si>
-  <si>
-    <t>2#4@12.087306791569086</t>
-  </si>
-  <si>
-    <t>2#4@20.4326207442597</t>
-  </si>
-  <si>
-    <t>2#4@20.408382759984185</t>
-  </si>
-  <si>
-    <t>2#4@13.21034041464039</t>
-  </si>
-  <si>
-    <t>2#4@14.348846260772868</t>
-  </si>
-  <si>
-    <t>2#4@12.121371535932363</t>
-  </si>
-  <si>
-    <t>2#4@14.708691935024223</t>
-  </si>
-  <si>
-    <t>2#4@12.389054248679791</t>
-  </si>
-  <si>
-    <t>2#4@11.283952776563185</t>
-  </si>
-  <si>
-    <t>2#4@11.428875110717449</t>
-  </si>
-  <si>
-    <t>2#4@16.058742999377724</t>
-  </si>
-  <si>
-    <t>#4@20.384202211690365</t>
-  </si>
-  <si>
-    <t>2#4@11.746199362767412</t>
-  </si>
-  <si>
-    <t>2#4@12.073169590643275</t>
-  </si>
-  <si>
-    <t>#4@13.086409736308319</t>
-  </si>
-  <si>
-    <t>2#4@11.525859758820904</t>
-  </si>
-  <si>
-    <t>2#4@12.883874188716927</t>
-  </si>
-  <si>
-    <t>2#4@11.895091034800647</t>
-  </si>
-  <si>
-    <t>2#4@20.208613938919346</t>
-  </si>
-  <si>
-    <t>2#4@19.981726674409604</t>
-  </si>
-  <si>
-    <t>2#4@12.613098729227762</t>
-  </si>
-  <si>
-    <t>2#4@13.116340533672174</t>
-  </si>
-  <si>
-    <t>2#5@17.252499460858314</t>
-  </si>
-  <si>
-    <t>2#4@13.715865001328728</t>
-  </si>
-  <si>
-    <t>2#4@11.585364758698095</t>
-  </si>
-  <si>
-    <t>2#4@10.518198491950276</t>
-  </si>
-  <si>
-    <t>2#4@10.813492562329774</t>
-  </si>
-  <si>
-    <t>2#4@14.754945683247572</t>
-  </si>
-  <si>
-    <t>#4@18.947430249632895</t>
-  </si>
-  <si>
-    <t>2#4@10.893372731110173</t>
-  </si>
-  <si>
-    <t>2#5@17.1563028093502</t>
-  </si>
-  <si>
-    <t>#4@12.253751187084521</t>
-  </si>
-  <si>
-    <t>2#5@14.749233038348084</t>
-  </si>
-  <si>
-    <t>2#4@12.056248540060734</t>
-  </si>
-  <si>
-    <t>2#5@14.754673552194763</t>
-  </si>
-  <si>
-    <t>2#4@11.111474703982777</t>
-  </si>
-  <si>
-    <t>2#4@18.940477064220186</t>
-  </si>
-  <si>
-    <t>2#4@19.04531365313653</t>
-  </si>
-  <si>
-    <t>2#4@11.546487695749441</t>
-  </si>
-  <si>
-    <t>2#4@13.086409736308319</t>
-  </si>
-  <si>
-    <t>2#5@16.363231744733074</t>
-  </si>
-  <si>
-    <t>2#4@13.564467805519056</t>
-  </si>
-  <si>
-    <t>2#4@11.724852339845523</t>
-  </si>
-  <si>
-    <t>2#5@14.532214350590374</t>
-  </si>
-  <si>
-    <t>2#4@10.962786745964317</t>
-  </si>
-  <si>
-    <t>2#4@14.895468975468978</t>
-  </si>
-  <si>
-    <t>#4@19.201190476190476</t>
-  </si>
-  <si>
-    <t>2#4@10.8544269190326</t>
-  </si>
-  <si>
-    <t>2#5@17.402619099412664</t>
-  </si>
-  <si>
-    <t>#4@12.323973256924548</t>
-  </si>
-  <si>
-    <t>2#5@14.711261493196028</t>
-  </si>
-  <si>
-    <t>2#4@12.27706945765937</t>
-  </si>
-  <si>
-    <t>2#5@14.730222795065364</t>
-  </si>
-  <si>
-    <t>2#4@11.123448275862069</t>
-  </si>
-  <si>
-    <t>2#4@19.20833643468552</t>
-  </si>
-  <si>
-    <t>2#4@19.366904315197</t>
-  </si>
-  <si>
-    <t>2#4@11.40866489832007</t>
-  </si>
-  <si>
-    <t>2#5@16.106269377894105</t>
-  </si>
-  <si>
-    <t>2#4@13.844635193133048</t>
-  </si>
-  <si>
-    <t>2#4@12.207379375591296</t>
-  </si>
-  <si>
-    <t>2#5@15.43504534053637</t>
-  </si>
-  <si>
-    <t>2#4@11.598382022471911</t>
-  </si>
-  <si>
-    <t>2#4@15.425224148236701</t>
-  </si>
-  <si>
-    <t>#4@19.88166409861325</t>
-  </si>
-  <si>
-    <t>2#4@11.140254694582346</t>
-  </si>
-  <si>
-    <t>2#5@18.314981684981685</t>
-  </si>
-  <si>
-    <t>#4@12.706253077301824</t>
-  </si>
-  <si>
-    <t>2#5@15.618867629832097</t>
-  </si>
-  <si>
-    <t>2#4@13.017099621689788</t>
-  </si>
-  <si>
-    <t>2#5@15.766621994481673</t>
-  </si>
-  <si>
-    <t>2#5@15.987178257394085</t>
-  </si>
-  <si>
-    <t>2#4@19.714591291061883</t>
-  </si>
-  <si>
-    <t>2#4@20.21652957305131</t>
-  </si>
-  <si>
-    <t>2#4@11.266710325256495</t>
-  </si>
-  <si>
-    <t>2#4@12.053432975245212</t>
-  </si>
-  <si>
-    <t>2#5@17.41398345668263</t>
-  </si>
-  <si>
-    <t>2#4@13.991000271076173</t>
-  </si>
-  <si>
-    <t>2#4@12.518263400436577</t>
-  </si>
-  <si>
-    <t>2#4@11.983468771766892</t>
-  </si>
-  <si>
-    <t>2#4@11.700929494445704</t>
-  </si>
-  <si>
-    <t>2#4@15.490036014405764</t>
-  </si>
-  <si>
-    <t>#4@19.31616766467066</t>
-  </si>
-  <si>
-    <t>2#4@11.104302925989677</t>
-  </si>
-  <si>
-    <t>2#5@18.185914980677424</t>
-  </si>
-  <si>
-    <t>#4@11.73018181818182</t>
-  </si>
-  <si>
-    <t>2#5@15.029088859665604</t>
-  </si>
-  <si>
-    <t>2#4@11.051991434689507</t>
-  </si>
-  <si>
-    <t>2#5@14.801080481036077</t>
-  </si>
-  <si>
-    <t>2#4@13.701300769843375</t>
-  </si>
-  <si>
-    <t>2#4@19.41060549078601</t>
-  </si>
-  <si>
-    <t>2#4@20.587475069804547</t>
-  </si>
-  <si>
-    <t>2#4@14.951564310544613</t>
-  </si>
-  <si>
-    <t>#4@14.281350304371887</t>
-  </si>
-  <si>
-    <t>2#4@14.210572687224671</t>
-  </si>
-  <si>
-    <t>2#4@15.730813776287716</t>
-  </si>
-  <si>
-    <t>2#4@16.746528228423102</t>
-  </si>
-  <si>
-    <t>#4@20.530151153540174</t>
-  </si>
-  <si>
-    <t>2#4@13.281729284611426</t>
-  </si>
-  <si>
-    <t>2#4@13.472409292612895</t>
-  </si>
-  <si>
-    <t>#4@22.42085143353606</t>
-  </si>
-  <si>
-    <t>2#4@12.929058116232467</t>
-  </si>
-  <si>
-    <t>2#4@16.955584756898816</t>
-  </si>
-  <si>
-    <t>#4@15.745210494203784</t>
-  </si>
-  <si>
-    <t>#4@15.261028976936725</t>
-  </si>
-  <si>
-    <t>2#4@19.587400379506644</t>
-  </si>
-  <si>
-    <t>#4@17.238744154976622</t>
-  </si>
-  <si>
-    <t>#4@10.85214465937763</t>
-  </si>
-  <si>
-    <t>#4@18.008653175157015</t>
-  </si>
-  <si>
-    <t>2#4@24.322714420358157</t>
-  </si>
-  <si>
-    <t>#4@22.77705207413945</t>
-  </si>
-  <si>
-    <t>#4@19.565125094768767</t>
-  </si>
-  <si>
-    <t>2#4@19.359639909977496</t>
-  </si>
-  <si>
-    <t>#4@18.147960618846696</t>
-  </si>
-  <si>
-    <t>#4@10.83847123057539</t>
-  </si>
-  <si>
-    <t>#4@19.229806259314454</t>
-  </si>
-  <si>
-    <t>#4@22.51867364746946</t>
-  </si>
-  <si>
-    <t>#4@20.694787489975944</t>
-  </si>
-  <si>
-    <t>#4@14.055773420479303</t>
-  </si>
-  <si>
-    <t>#4@12.389054248679791</t>
-  </si>
-  <si>
-    <t>#4@21.722558922558925</t>
-  </si>
-  <si>
-    <t>#4@21.398341625207298</t>
-  </si>
-  <si>
-    <t>#4@17.92111111111111</t>
-  </si>
-  <si>
-    <t>#4@23.041428571428575</t>
-  </si>
-  <si>
-    <t>#4@16.058742999377724</t>
-  </si>
-  <si>
-    <t>#4@19.53550340651022</t>
-  </si>
-  <si>
-    <t>#4@22.65706760316067</t>
-  </si>
-  <si>
-    <t>#4@24.20863039399625</t>
-  </si>
-  <si>
-    <t>#4@15.880861538461541</t>
-  </si>
-  <si>
-    <t>#4@23.186343216531895</t>
-  </si>
-  <si>
-    <t>#4@24.073134328358208</t>
-  </si>
-  <si>
-    <t>2#4@24.484250474383305</t>
-  </si>
-  <si>
-    <t>2#5@13.429551787812658</t>
-  </si>
-  <si>
-    <t>2#4@17.478090077886893</t>
-  </si>
-  <si>
-    <t>2#4@16.36942594354583</t>
-  </si>
-  <si>
-    <t>2#4@15.379261025029797</t>
-  </si>
-  <si>
-    <t>2#5@12.732745503740253</t>
-  </si>
-  <si>
-    <t>2#4@19.632103461392166</t>
-  </si>
-  <si>
-    <t>2#4@18.734228675136116</t>
-  </si>
-  <si>
-    <t>2#5@23.703656296296298</t>
-  </si>
-  <si>
-    <t>#4@12.178574799433694</t>
-  </si>
-  <si>
-    <t>2#4@17.366352624495292</t>
-  </si>
-  <si>
-    <t>#4@24.981994191674733</t>
-  </si>
-  <si>
-    <t>#4@21.740859309182817</t>
-  </si>
-  <si>
-    <t>#4@15.252009456264776</t>
-  </si>
-  <si>
-    <t>#4@23.916960148285455</t>
-  </si>
-  <si>
-    <t>#4@22.499040976460332</t>
-  </si>
-  <si>
-    <t>#4@20.8789644012945</t>
-  </si>
-  <si>
-    <t>#4@17.748555708390647</t>
-  </si>
-  <si>
-    <t>2#4@24.837728585178056</t>
-  </si>
-  <si>
-    <t>#4@21.888379983036472</t>
-  </si>
-  <si>
-    <t>#4@24.05069897483691</t>
-  </si>
-  <si>
-    <t>#4@22.189509888220122</t>
-  </si>
-  <si>
-    <t>#4@19.92772200772201</t>
-  </si>
-  <si>
-    <t>#4@14.865437788018435</t>
-  </si>
-  <si>
-    <t>#4@19.579969650986346</t>
-  </si>
-  <si>
-    <t>#4@21.487427144046627</t>
-  </si>
-  <si>
-    <t>#4@20.49753772835584</t>
-  </si>
-  <si>
-    <t>#4@18.263552724699224</t>
-  </si>
-  <si>
-    <t>#4@17.158510638297876</t>
-  </si>
-  <si>
-    <t>#4@19.144213649851633</t>
-  </si>
-  <si>
-    <t>#4@15.425224148236701</t>
-  </si>
-  <si>
-    <t>2#4@21.68605042016807</t>
-  </si>
-  <si>
-    <t>#4@20.004961240310077</t>
-  </si>
-  <si>
-    <t>#4@16.23044025157233</t>
-  </si>
-  <si>
-    <t>#4@13.099695431472083</t>
-  </si>
-  <si>
-    <t>#4@21.187520525451564</t>
-  </si>
-  <si>
-    <t>#4@13.1130081300813</t>
-  </si>
-  <si>
-    <t>2#4@17.169926813040586</t>
-  </si>
-  <si>
-    <t>#4@17.192804796802132</t>
-  </si>
-  <si>
-    <t>#4@18.122471910112363</t>
-  </si>
-  <si>
-    <t>#4@16.322833649588866</t>
-  </si>
-  <si>
-    <t>#4@13.504133961276821</t>
-  </si>
-  <si>
-    <t>2#4@20.546496815286627</t>
-  </si>
-  <si>
-    <t>2#4@22.528502837189002</t>
-  </si>
-  <si>
-    <t>2#4@22.009722814498936</t>
-  </si>
-  <si>
-    <t>2#4@22.667018006148442</t>
-  </si>
-  <si>
-    <t>2#4@21.55923141186299</t>
-  </si>
-  <si>
-    <t>2#4@21.66784214945424</t>
-  </si>
-  <si>
-    <t>2#4@21.81437024513948</t>
-  </si>
-  <si>
-    <t>2#4@20.184904184591318</t>
-  </si>
-  <si>
-    <t>2#4@22.61735319894829</t>
-  </si>
-  <si>
-    <t>2#4@14.098006009287081</t>
-  </si>
-  <si>
-    <t>2#4@22.94922187638951</t>
-  </si>
-  <si>
-    <t>#4@16.179561128526647</t>
-  </si>
-  <si>
-    <t>2#4@23.43905540417802</t>
-  </si>
-  <si>
-    <t>2#4@20.192801251956187</t>
-  </si>
-  <si>
-    <t>2#4@19.06642039157739</t>
-  </si>
-  <si>
-    <t>2#4@18.50584438866977</t>
-  </si>
-  <si>
-    <t>#4@15.735609756097563</t>
-  </si>
-  <si>
-    <t>2#4@18.128837372672994</t>
-  </si>
-  <si>
-    <t>#4@21.86983050847458</t>
-  </si>
-  <si>
-    <t>2#4@16.822946544980443</t>
-  </si>
-  <si>
-    <t>2#4@19.874008471313058</t>
-  </si>
-  <si>
-    <t>2#4@12.195841209829869</t>
-  </si>
-  <si>
-    <t>2#4@21.30999174236169</t>
-  </si>
-  <si>
-    <t>2#4@22.706907171139466</t>
-  </si>
-  <si>
-    <t>2#4@20.828410008071025</t>
-  </si>
-  <si>
-    <t>2#4@14.74230219937161</t>
-  </si>
-  <si>
-    <t>2#4@18.40028520499109</t>
-  </si>
-  <si>
-    <t>2#4@17.045178335535006</t>
-  </si>
-  <si>
-    <t>2#4@18.781950509461428</t>
-  </si>
-  <si>
-    <t>2#4@16.4371974522293</t>
-  </si>
-  <si>
-    <t>2#4@15.80790199081164</t>
-  </si>
-  <si>
-    <t>2#4@17.407352445193933</t>
-  </si>
-  <si>
-    <t>#4@20.25620094191523</t>
-  </si>
-  <si>
-    <t>2#4@14.666894003978406</t>
-  </si>
-  <si>
-    <t>2#4@17.639371155160628</t>
-  </si>
-  <si>
-    <t>2#4@12.687512291052116</t>
-  </si>
-  <si>
-    <t>2#4@20.004961240310077</t>
-  </si>
-  <si>
-    <t>2#4@19.654531607006852</t>
-  </si>
-  <si>
-    <t>2#4@19.130022238695332</t>
-  </si>
-  <si>
-    <t>2#4@13.173251659009702</t>
-  </si>
-  <si>
-    <t>2#4@17.21574382921948</t>
-  </si>
-  <si>
-    <t>2#4@15.846730119742094</t>
-  </si>
-  <si>
-    <t>2#4@17.78525155065472</t>
-  </si>
-  <si>
-    <t>2#4@15.149046081596715</t>
-  </si>
-  <si>
-    <t>#4@23.806642066420668</t>
-  </si>
-  <si>
-    <t>2#4@14.425041922861933</t>
-  </si>
-  <si>
-    <t>2#4@16.139086929330833</t>
-  </si>
-  <si>
-    <t>#4@18.919648093841644</t>
-  </si>
-  <si>
-    <t>2#4@13.139714867617108</t>
-  </si>
-  <si>
-    <t>2#4@16.19987445072191</t>
-  </si>
-  <si>
-    <t>2#4@13.37119170984456</t>
-  </si>
-  <si>
-    <t>2#4@18.76829090909091</t>
-  </si>
-  <si>
-    <t>2#4@17.712010981468772</t>
-  </si>
-  <si>
-    <t>2#4@18.15434400281393</t>
-  </si>
-  <si>
-    <t>2#4@12.107154585972319</t>
-  </si>
-  <si>
-    <t>2#4@16.563799743260592</t>
-  </si>
-  <si>
-    <t>2#4@15.225014749262538</t>
-  </si>
-  <si>
-    <t>2#4@14.029029627616202</t>
-  </si>
-  <si>
-    <t>2#4@14.289258028792915</t>
-  </si>
-  <si>
-    <t>2#4@21.006430606430605</t>
-  </si>
-  <si>
-    <t>#4@23.1447533632287</t>
-  </si>
-  <si>
-    <t>2#4@12.94527213443692</t>
-  </si>
-  <si>
-    <t>#4@18.199153737658673</t>
-  </si>
-  <si>
-    <t>2#4@12.104315196998124</t>
-  </si>
-  <si>
-    <t>2#4@13.059919028340081</t>
-  </si>
-  <si>
-    <t>2#4@12.66882670594011</t>
-  </si>
-  <si>
-    <t>2#4@24.600953288846522</t>
-  </si>
-  <si>
-    <t>2#4@16.69236739974127</t>
-  </si>
-  <si>
-    <t>2#4@16.92777959986881</t>
-  </si>
-  <si>
-    <t>2#4@12.92582018532432</t>
-  </si>
-  <si>
-    <t>2#4@15.640242424242427</t>
-  </si>
-  <si>
-    <t>2#4@14.61704899461909</t>
-  </si>
-  <si>
-    <t>2#4@13.636142668428006</t>
-  </si>
-  <si>
-    <t>2#4@13.600210803689064</t>
-  </si>
-  <si>
-    <t>#4@22.13241852487136</t>
-  </si>
-  <si>
-    <t>2#4@13.136370577755155</t>
-  </si>
-  <si>
-    <t>2#4@12.323973256924548</t>
-  </si>
-  <si>
-    <t>#4@17.495864406779663</t>
-  </si>
-  <si>
-    <t>2#4@11.436472413029026</t>
-  </si>
-  <si>
-    <t>2#4@14.95589684149522</t>
-  </si>
-  <si>
-    <t>2#4@12.059065420560747</t>
-  </si>
-  <si>
-    <t>2#4@13.956949702541916</t>
-  </si>
-  <si>
-    <t>2#4@23.90588235294118</t>
-  </si>
-  <si>
-    <t>2#4@24.849687048627832</t>
-  </si>
-  <si>
-    <t>2#4@15.61658093797277</t>
-  </si>
-  <si>
-    <t>2#4@16.281640378548897</t>
-  </si>
-  <si>
-    <t>2#4@12.109995307367432</t>
-  </si>
-  <si>
-    <t>2#4@15.443686415320169</t>
-  </si>
-  <si>
-    <t>2#4@14.105711943153867</t>
-  </si>
-  <si>
-    <t>2#4@13.500601621763014</t>
-  </si>
-  <si>
-    <t>2#4@12.819870839542972</t>
-  </si>
-  <si>
-    <t>2#4@19.39601653513717</t>
-  </si>
-  <si>
-    <t>#4@21.613400335008375</t>
-  </si>
-  <si>
-    <t>2#4@12.43082851637765</t>
-  </si>
-  <si>
-    <t>2#4@12.008562121917173</t>
-  </si>
-  <si>
-    <t>#4@17.06772486772487</t>
-  </si>
-  <si>
-    <t>2#4@12.236320531057371</t>
-  </si>
-  <si>
-    <t>2#4@14.429074643556053</t>
-  </si>
-  <si>
-    <t>2#4@11.497616395633772</t>
-  </si>
-  <si>
-    <t>2#4@13.811292480599413</t>
-  </si>
-  <si>
-    <t>2#4@23.589031078610606</t>
-  </si>
-  <si>
-    <t>2#4@24.219990614734865</t>
-  </si>
-  <si>
-    <t>2#4@14.822745548535327</t>
-  </si>
-  <si>
-    <t>2#4@14.899769053117783</t>
-  </si>
-  <si>
-    <t>2#5@17.064812286689417</t>
-  </si>
-  <si>
-    <t>2#4@14.571654432523998</t>
-  </si>
-  <si>
-    <t>2#4@13.106348400203146</t>
-  </si>
-  <si>
-    <t>2#4@12.43382317513852</t>
-  </si>
-  <si>
-    <t>2#4@12.04780578898226</t>
-  </si>
-  <si>
-    <t>2#4@17.65143638850889</t>
-  </si>
-  <si>
-    <t>#4@19.669512195121953</t>
-  </si>
-  <si>
-    <t>2#4@11.482269187986653</t>
-  </si>
-  <si>
-    <t>2#5@16.941939855993226</t>
-  </si>
-  <si>
-    <t>#4@15.668731026108079</t>
-  </si>
-  <si>
-    <t>2#5@15.524905880069861</t>
-  </si>
-  <si>
-    <t>2#4@13.329752066115702</t>
-  </si>
-  <si>
-    <t>2#5@16.63890183028286</t>
-  </si>
-  <si>
-    <t>2#4@12.681277641277639</t>
-  </si>
-  <si>
-    <t>2#4@21.888379983036472</t>
-  </si>
-  <si>
-    <t>2#4@22.857750221434898</t>
-  </si>
-  <si>
-    <t>2#4@13.353893919793014</t>
-  </si>
-  <si>
-    <t>2#4@14.861157500719841</t>
-  </si>
-  <si>
-    <t>2#5@16.191022060311678</t>
-  </si>
-  <si>
-    <t>2#4@14.827003734559035</t>
-  </si>
-  <si>
-    <t>2#5@16.963494486853268</t>
-  </si>
-  <si>
-    <t>2#4@12.175701816466148</t>
-  </si>
-  <si>
-    <t>2#4@17.663518138261466</t>
-  </si>
-  <si>
-    <t>#4@19.835818601076095</t>
-  </si>
-  <si>
-    <t>2#4@11.439007092198583</t>
-  </si>
-  <si>
-    <t>2#5@17.230204609088954</t>
-  </si>
-  <si>
-    <t>#4@15.783730886850153</t>
-  </si>
-  <si>
-    <t>2#5@15.482841107025353</t>
-  </si>
-  <si>
-    <t>2#5@16.545985522233714</t>
-  </si>
-  <si>
-    <t>2#4@12.80079365079365</t>
-  </si>
-  <si>
-    <t>2#4@22.246896551724138</t>
-  </si>
-  <si>
-    <t>2#4@23.333092224231468</t>
-  </si>
-  <si>
-    <t>2#4@13.213722478238607</t>
-  </si>
-  <si>
-    <t>2#4@15.012449098312974</t>
-  </si>
-  <si>
-    <t>2#5@15.844690037631212</t>
-  </si>
-  <si>
-    <t>2#4@15.466826490860056</t>
-  </si>
-  <si>
-    <t>2#4@13.756076759061834</t>
-  </si>
-  <si>
-    <t>2#5@18.038295377677564</t>
-  </si>
-  <si>
-    <t>2#4@12.887091136079901</t>
-  </si>
-  <si>
-    <t>2#4@18.282961388593698</t>
-  </si>
-  <si>
-    <t>#4@20.5792663476874</t>
-  </si>
-  <si>
-    <t>2#4@11.754224550216353</t>
-  </si>
-  <si>
-    <t>2#5@18.01392479171358</t>
-  </si>
-  <si>
-    <t>#4@16.4371974522293</t>
-  </si>
-  <si>
-    <t>2#5@16.49141207998351</t>
-  </si>
-  <si>
-    <t>2#5@17.734391487475058</t>
-  </si>
-  <si>
-    <t>2#5@18.177650533969555</t>
-  </si>
-  <si>
-    <t>2#4@22.918650088809947</t>
-  </si>
-  <si>
-    <t>2#4@24.56582579723941</t>
-  </si>
-  <si>
-    <t>2#4@13.063224500126552</t>
-  </si>
-  <si>
-    <t>2#4@14.559322990126939</t>
-  </si>
-  <si>
-    <t>2#5@16.24692120227457</t>
-  </si>
-  <si>
-    <t>2#4@13.85578523489933</t>
-  </si>
-  <si>
-    <t>2#4@13.723158734379155</t>
-  </si>
-  <si>
-    <t>#4@20.304012588512983</t>
-  </si>
-  <si>
-    <t>2#4@11.658640162638354</t>
-  </si>
-  <si>
-    <t>2#5@17.671711950519107</t>
-  </si>
-  <si>
-    <t>#4@18.48595988538682</t>
-  </si>
-  <si>
-    <t>2#5@15.70163689892051</t>
-  </si>
-  <si>
-    <t>2#4@11.69827742520399</t>
-  </si>
-  <si>
-    <t>2#5@16.369928381420095</t>
-  </si>
-  <si>
-    <t>2#4@13.708579017264277</t>
-  </si>
-  <si>
-    <t>2#4@16.048756218905474</t>
-  </si>
-  <si>
-    <t>2#4@17.147109634551498</t>
-  </si>
-  <si>
-    <t>2#4@18.315400993612492</t>
-  </si>
-  <si>
-    <t>2#4@18.192738808600634</t>
-  </si>
-  <si>
-    <t>#4@23.589031078610606</t>
-  </si>
-  <si>
-    <t>2#4@15.429835575485798</t>
-  </si>
-  <si>
-    <t>2#4@13.589468141126911</t>
-  </si>
-  <si>
-    <t>2#4@13.39548403841163</t>
-  </si>
-  <si>
-    <t>2#4@16.81198697068404</t>
-  </si>
-  <si>
-    <t>#4@19.866358737490376</t>
-  </si>
-  <si>
-    <t>#4@20.416455696202533</t>
-  </si>
-  <si>
-    <t>2#4@19.95083107846927</t>
-  </si>
-  <si>
-    <t>2#4@22.548186981214503</t>
-  </si>
-  <si>
-    <t>#4@23.545985401459852</t>
-  </si>
-  <si>
-    <t>#4@23.43905540417802</t>
-  </si>
-  <si>
-    <t>#4@14.094156198798471</t>
-  </si>
-  <si>
-    <t>#4@13.582315789473684</t>
-  </si>
-  <si>
-    <t>#4@nan</t>
-  </si>
-  <si>
-    <t>#4@24.484250474383305</t>
-  </si>
-  <si>
-    <t>#4@21.083660130718954</t>
-  </si>
-  <si>
-    <t>#4@18.60591204037491</t>
-  </si>
-  <si>
-    <t>#4@19.28729446935725</t>
-  </si>
-  <si>
-    <t>#4@21.204930156121613</t>
-  </si>
-  <si>
-    <t>#4@21.595313807531383</t>
-  </si>
-  <si>
-    <t>#4@22.857750221434898</t>
-  </si>
-  <si>
-    <t>2#4@23.610612991765784</t>
-  </si>
-  <si>
-    <t>2#5@13.630914976997785</t>
-  </si>
-  <si>
-    <t>2#4@18.459513590844065</t>
-  </si>
-  <si>
-    <t>2#4@15.783730886850153</t>
-  </si>
-  <si>
-    <t>2#4@23.343645409317055</t>
-  </si>
-  <si>
-    <t>2#5@22.434054963544593</t>
-  </si>
-  <si>
-    <t>2#4@23.51380410022779</t>
-  </si>
-  <si>
-    <t>2#5@23.557078916372205</t>
-  </si>
-  <si>
-    <t>#4@12.436819277108434</t>
-  </si>
-  <si>
-    <t>#4@17.615290102389082</t>
-  </si>
-  <si>
-    <t>#4@13.093049213597158</t>
-  </si>
-  <si>
-    <t>#4@20.946753246753246</t>
-  </si>
-  <si>
-    <t>#4@19.21548771407297</t>
-  </si>
-  <si>
-    <t>#4@16.801041666666666</t>
-  </si>
-  <si>
-    <t>#4@13.964502164502166</t>
-  </si>
-  <si>
-    <t>#4@14.497977528089887</t>
-  </si>
-  <si>
-    <t>2#4@23.46036363636364</t>
-  </si>
-  <si>
-    <t>#4@19.403308270676693</t>
-  </si>
-  <si>
-    <t>#4@18.289440113394758</t>
-  </si>
-  <si>
-    <t>2#4@19.6770110560427</t>
-  </si>
-  <si>
-    <t>#4@15.54602409638554</t>
-  </si>
-  <si>
-    <t>#4@21.577257525083613</t>
-  </si>
-  <si>
-    <t>#4@16.866928104575162</t>
-  </si>
-  <si>
-    <t>#4@15.471462829736213</t>
-  </si>
-  <si>
-    <t>#4@16.542564102564103</t>
-  </si>
-  <si>
-    <t>#4@16.67080103359173</t>
-  </si>
-  <si>
-    <t>#4@14.72127780946948</t>
-  </si>
-  <si>
-    <t>#4@14.771837435603894</t>
-  </si>
-  <si>
-    <t>#4@15.939715873996294</t>
-  </si>
-  <si>
-    <t>#4@23.56748858447489</t>
-  </si>
-  <si>
-    <t>#4@13.133027989821885</t>
-  </si>
-  <si>
-    <t>2#4@20.23237945903567</t>
-  </si>
-  <si>
-    <t>#4@16.35386565272497</t>
-  </si>
-  <si>
-    <t>#4@15.379261025029797</t>
-  </si>
-  <si>
-    <t>2#4@22.42085143353606</t>
-  </si>
-  <si>
-    <t>2#4@21.231098313451255</t>
-  </si>
-  <si>
-    <t>#4@13.89682283252558</t>
-  </si>
-  <si>
-    <t>#4@15.351814396192745</t>
-  </si>
-  <si>
-    <t>#4@14.234087148372865</t>
-  </si>
-  <si>
-    <t>#4@11.137850668968493</t>
-  </si>
-  <si>
-    <t>2#4@18.933528980190754</t>
-  </si>
-  <si>
-    <t>2#4@23.643060009161704</t>
-  </si>
-  <si>
-    <t>#4@19.476528301886795</t>
-  </si>
-  <si>
-    <t>#4@20.27211311861744</t>
-  </si>
-  <si>
-    <t>2#4@20.52198807157058</t>
-  </si>
-  <si>
-    <t>#4@20.208613938919346</t>
-  </si>
-  <si>
-    <t>#4@12.070346117867167</t>
-  </si>
-  <si>
-    <t>2#4@17.62130419938546</t>
-  </si>
-  <si>
-    <t>2#4@19.63957382039574</t>
-  </si>
-  <si>
-    <t>#4@12.002976744186048</t>
-  </si>
-  <si>
-    <t>#4@13.770757737459983</t>
-  </si>
-  <si>
-    <t>#4@11.724852339845523</t>
-  </si>
-  <si>
-    <t>#4@12.961526870919135</t>
-  </si>
-  <si>
-    <t>2#4@17.828255613126082</t>
-  </si>
-  <si>
-    <t>2#4@17.313921502851397</t>
-  </si>
-  <si>
-    <t>2#4@19.767445423209498</t>
-  </si>
-  <si>
-    <t>2#4@21.916263269639067</t>
-  </si>
-  <si>
-    <t>#4@16.649290322580647</t>
-  </si>
-  <si>
-    <t>#4@18.18632840028189</t>
-  </si>
-  <si>
-    <t>2#4@17.152808241940846</t>
-  </si>
-  <si>
-    <t>2#4@15.71165905631659</t>
-  </si>
-  <si>
-    <t>#4@17.41322537112011</t>
-  </si>
-  <si>
-    <t>2#4@18.905787545787543</t>
-  </si>
-  <si>
-    <t>2#4@21.953551680136112</t>
-  </si>
-  <si>
-    <t>2#4@14.404912084845103</t>
-  </si>
-  <si>
-    <t>2#4@17.98982223771349</t>
-  </si>
-  <si>
-    <t>2#4@22.01911262798635</t>
-  </si>
-  <si>
-    <t>#4@12.55175097276265</t>
-  </si>
-  <si>
-    <t>2#4@20.036024844720497</t>
-  </si>
-  <si>
-    <t>2#4@22.627268741779922</t>
-  </si>
-  <si>
-    <t>2#4@15.095875987130741</t>
-  </si>
-  <si>
-    <t>2#4@16.144135126681267</t>
-  </si>
-  <si>
-    <t>2#4@17.36051126807938</t>
-  </si>
-  <si>
-    <t>2#4@19.594836750189828</t>
-  </si>
-  <si>
-    <t>2#4@17.939798401112274</t>
-  </si>
-  <si>
-    <t>#4@14.738092518560823</t>
-  </si>
-  <si>
-    <t>#4@16.911140235910878</t>
-  </si>
-  <si>
-    <t>2#4@14.852604316546763</t>
-  </si>
-  <si>
-    <t>2#4@14.297174515235458</t>
-  </si>
-  <si>
-    <t>#4@15.99900805951643</t>
-  </si>
-  <si>
-    <t>2#4@15.9249614316569</t>
-  </si>
-  <si>
-    <t>2#4@19.33063670411985</t>
-  </si>
-  <si>
-    <t>2#4@12.424843524313916</t>
-  </si>
-  <si>
-    <t>2#4@20.803224506247485</t>
-  </si>
-  <si>
-    <t>2#4@17.803656433252847</t>
-  </si>
-  <si>
-    <t>2#4@20.17701329163409</t>
-  </si>
-  <si>
-    <t>2#4@13.19682945538226</t>
-  </si>
-  <si>
-    <t>2#4@15.243000590667455</t>
-  </si>
-  <si>
-    <t>2#4@15.673489219556636</t>
-  </si>
-  <si>
-    <t>2#4@18.07170868347339</t>
-  </si>
-  <si>
-    <t>2#4@15.98909541511772</t>
-  </si>
-  <si>
-    <t>2#4@13.309128416709646</t>
-  </si>
-  <si>
-    <t>#4@14.882583621683967</t>
-  </si>
-  <si>
-    <t>2#4@13.979631635969664</t>
-  </si>
-  <si>
-    <t>2#4@17.192804796802132</t>
-  </si>
-  <si>
-    <t>2#4@12.693753074274476</t>
-  </si>
-  <si>
-    <t>2#4@16.128999999999998</t>
-  </si>
-  <si>
-    <t>2#4@19.851076923076924</t>
-  </si>
-  <si>
-    <t>2#4@22.208605851979353</t>
-  </si>
-  <si>
-    <t>2#4@18.585812027367666</t>
-  </si>
-  <si>
-    <t>2#4@11.816117216117215</t>
-  </si>
-  <si>
-    <t>2#4@14.691944207230287</t>
-  </si>
-  <si>
-    <t>2#4@14.654400908574674</t>
-  </si>
-  <si>
-    <t>2#4@16.95001642036125</t>
-  </si>
-  <si>
-    <t>2#4@14.700313301053832</t>
-  </si>
-  <si>
-    <t>#4@15.306287069988139</t>
-  </si>
-  <si>
-    <t>2#4@12.409906227458524</t>
-  </si>
-  <si>
-    <t>#4@13.911805929919138</t>
-  </si>
-  <si>
-    <t>2#4@15.817591173766472</t>
-  </si>
-  <si>
-    <t>2#4@15.315370919881305</t>
-  </si>
-  <si>
-    <t>2#4@21.33642000826788</t>
-  </si>
-  <si>
-    <t>2#4@14.57988700564972</t>
-  </si>
-  <si>
-    <t>2#4@17.669565217391305</t>
-  </si>
-  <si>
-    <t>2#4@10.93491525423729</t>
-  </si>
-  <si>
-    <t>2#4@14.473583847448124</t>
-  </si>
-  <si>
-    <t>2#4@14.125013683634375</t>
-  </si>
-  <si>
-    <t>2#4@20.4003162055336</t>
-  </si>
-  <si>
-    <t>#4@14.538816901408449</t>
-  </si>
-  <si>
-    <t>2#4@12.002976744186048</t>
-  </si>
-  <si>
-    <t>2#4@10.766124322069254</t>
-  </si>
-  <si>
-    <t>#4@13.568033648790747</t>
-  </si>
-  <si>
-    <t>2#4@11.6376099210823</t>
-  </si>
-  <si>
-    <t>2#4@15.153493834409865</t>
-  </si>
-  <si>
-    <t>2#4@12.848593477719694</t>
-  </si>
-  <si>
-    <t>2#4@11.133045729076791</t>
-  </si>
-  <si>
-    <t>2#4@19.003240058910162</t>
-  </si>
-  <si>
-    <t>2#4@20.862085691188366</t>
-  </si>
-  <si>
-    <t>2#4@13.893082099596231</t>
-  </si>
-  <si>
-    <t>2#4@16.505532459226096</t>
-  </si>
-  <si>
-    <t>2#4@11.577568416330193</t>
-  </si>
-  <si>
-    <t>2#4@14.017599130907115</t>
-  </si>
-  <si>
-    <t>2#4@13.511204188481674</t>
-  </si>
-  <si>
-    <t>2#4@13.073150962512663</t>
-  </si>
-  <si>
-    <t>2#4@19.272890216579537</t>
-  </si>
-  <si>
-    <t>#4@14.194939493949397</t>
-  </si>
-  <si>
-    <t>2#4@11.541323792486583</t>
-  </si>
-  <si>
-    <t>2#4@10.334961954345214</t>
-  </si>
-  <si>
-    <t>#4@13.1665306122449</t>
-  </si>
-  <si>
-    <t>2#4@11.000170502983803</t>
-  </si>
-  <si>
-    <t>2#4@14.384838350055743</t>
-  </si>
-  <si>
-    <t>2#4@11.85138920780712</t>
-  </si>
-  <si>
-    <t>2#4@12.181449138541423</t>
-  </si>
-  <si>
-    <t>2#4@18.686748732802315</t>
-  </si>
-  <si>
-    <t>2#4@20.49753772835584</t>
-  </si>
-  <si>
-    <t>2#4@15.88574946137273</t>
-  </si>
-  <si>
-    <t>2#4@10.858994319377235</t>
-  </si>
-  <si>
-    <t>2#4@13.889343379978472</t>
-  </si>
-  <si>
-    <t>2#4@13.156461891409638</t>
-  </si>
-  <si>
-    <t>2#4@13.26125385405961</t>
-  </si>
-  <si>
-    <t>2#4@12.29754586609483</t>
-  </si>
-  <si>
-    <t>2#4@18.71385061638869</t>
-  </si>
-  <si>
-    <t>#4@13.690397877984084</t>
-  </si>
-  <si>
-    <t>2#4@11.08046371833405</t>
-  </si>
-  <si>
-    <t>2#4@11.73018181818182</t>
-  </si>
-  <si>
-    <t>2#4@11.311154941924173</t>
-  </si>
-  <si>
-    <t>2#4@12.070346117867167</t>
-  </si>
-  <si>
-    <t>2#4@18.572436128103636</t>
-  </si>
-  <si>
-    <t>2#4@20.121949317738792</t>
-  </si>
-  <si>
-    <t>2#4@12.573154689403168</t>
-  </si>
-  <si>
-    <t>2#4@14.612910532276333</t>
-  </si>
-  <si>
-    <t>2#5@15.44696659586793</t>
-  </si>
-  <si>
-    <t>2#4@13.183346104725416</t>
-  </si>
-  <si>
-    <t>2#4@12.285836705546298</t>
-  </si>
-  <si>
-    <t>2#4@11.587965873372251</t>
-  </si>
-  <si>
-    <t>2#4@17.101656726308814</t>
-  </si>
-  <si>
-    <t>#4@12.737611056268511</t>
-  </si>
-  <si>
-    <t>2#4@10.368179991964647</t>
-  </si>
-  <si>
-    <t>2#5@14.469133658889492</t>
-  </si>
-  <si>
-    <t>#4@12.053432975245212</t>
-  </si>
-  <si>
-    <t>2#5@14.989664605583663</t>
-  </si>
-  <si>
-    <t>2#4@12.823055900621119</t>
-  </si>
-  <si>
-    <t>2#5@16.3900512190125</t>
-  </si>
-  <si>
-    <t>2#4@11.198264265567367</t>
-  </si>
-  <si>
-    <t>2#4@17.430867950016886</t>
-  </si>
-  <si>
-    <t>2#4@19.17978446674099</t>
-  </si>
-  <si>
-    <t>2#4@11.500178253119428</t>
-  </si>
-  <si>
-    <t>2#4@13.392008303061756</t>
-  </si>
-  <si>
-    <t>2#4@12.386081113510917</t>
-  </si>
-  <si>
-    <t>2#5@16.7223745819398</t>
-  </si>
-  <si>
-    <t>2#4@11.663909604519775</t>
-  </si>
-  <si>
-    <t>2#4@17.0959920503478</t>
-  </si>
-  <si>
-    <t>#4@12.9032</t>
-  </si>
-  <si>
-    <t>2#4@10.443707001214083</t>
-  </si>
-  <si>
-    <t>2#5@14.681563589649476</t>
-  </si>
-  <si>
-    <t>#4@12.230521327014216</t>
-  </si>
-  <si>
-    <t>2#5@14.900324082696967</t>
-  </si>
-  <si>
-    <t>2#4@12.896751624187905</t>
-  </si>
-  <si>
-    <t>2#5@16.293246435845212</t>
-  </si>
-  <si>
-    <t>2#4@11.291358564865456</t>
-  </si>
-  <si>
-    <t>2#4@17.766884681583477</t>
-  </si>
-  <si>
-    <t>2#4@11.396069772576729</t>
-  </si>
-  <si>
-    <t>2#4@14.938581765557165</t>
-  </si>
-  <si>
-    <t>2#5@14.443011373894207</t>
-  </si>
-  <si>
-    <t>2#4@13.911805929919138</t>
-  </si>
-  <si>
-    <t>2#4@12.85179282868526</t>
-  </si>
-  <si>
-    <t>2#5@17.559227392449518</t>
-  </si>
-  <si>
-    <t>2#4@12.318090692124105</t>
-  </si>
-  <si>
-    <t>2#4@17.67561643835617</t>
-  </si>
-  <si>
-    <t>#4@13.315995872033026</t>
-  </si>
-  <si>
-    <t>2#4@10.884183888654576</t>
-  </si>
-  <si>
-    <t>2#5@15.40828967642527</t>
-  </si>
-  <si>
-    <t>#4@13.026956082786475</t>
-  </si>
-  <si>
-    <t>2#5@15.769729942834617</t>
-  </si>
-  <si>
-    <t>2#4@13.521823421535236</t>
-  </si>
-  <si>
-    <t>2#5@17.44436109899695</t>
-  </si>
-  <si>
-    <t>2#5@16.125748840959485</t>
-  </si>
-  <si>
-    <t>2#4@18.090711531720995</t>
-  </si>
-  <si>
-    <t>2#4@20.530151153540174</t>
-  </si>
-  <si>
-    <t>2#4@14.309065705572499</t>
-  </si>
-  <si>
-    <t>2#5@14.964429479985036</t>
-  </si>
-  <si>
-    <t>2#4@13.848349879259459</t>
-  </si>
-  <si>
-    <t>2#4@13.625343189017952</t>
-  </si>
-  <si>
-    <t>2#4@13.770757737459983</t>
-  </si>
-  <si>
-    <t>2#4@12.53042000485555</t>
-  </si>
-  <si>
-    <t>2#4@17.927335880514068</t>
-  </si>
-  <si>
-    <t>#4@14.687763232783151</t>
-  </si>
-  <si>
-    <t>2#4@11.1426597582038</t>
-  </si>
-  <si>
-    <t>2#5@15.15148484848485</t>
-  </si>
-  <si>
-    <t>#4@14.977597214161346</t>
-  </si>
-  <si>
-    <t>2#5@15.23516282612836</t>
-  </si>
-  <si>
-    <t>2#4@11.181282495667247</t>
-  </si>
-  <si>
-    <t>2#5@16.273360455655006</t>
-  </si>
-  <si>
-    <t>2#4@18.109754385964912</t>
-  </si>
-  <si>
-    <t>2#4@20.137651190011706</t>
-  </si>
-  <si>
-    <t>2#4@14.344858254585882</t>
-  </si>
-  <si>
-    <t>#4@13.763413333333336</t>
-  </si>
-  <si>
-    <t>2#4@15.880861538461541</t>
-  </si>
-  <si>
-    <t>2#4@17.331363331094696</t>
-  </si>
-  <si>
-    <t>#4@21.66784214945424</t>
-  </si>
-  <si>
-    <t>2#4@14.62118980169972</t>
-  </si>
-  <si>
-    <t>2#4@11.865011494252876</t>
-  </si>
-  <si>
-    <t>#4@20.320000000000004</t>
-  </si>
-  <si>
-    <t>2#4@13.19008433427038</t>
-  </si>
-  <si>
-    <t>2#4@14.763386727688788</t>
-  </si>
-  <si>
-    <t>2#4@20.336012608353034</t>
-  </si>
-  <si>
-    <t>#4@20.020480993017845</t>
-  </si>
-  <si>
-    <t>#4@17.31973154362416</t>
-  </si>
-  <si>
-    <t>#4@22.343203463203466</t>
-  </si>
-  <si>
-    <t>2#4@14.947234289024038</t>
-  </si>
-  <si>
-    <t>#4@14.132749178532311</t>
-  </si>
-  <si>
-    <t>#4@22.57777777777778</t>
-  </si>
-  <si>
-    <t>2#4@15.754822954822956</t>
-  </si>
-  <si>
-    <t>#4@15.871094710947109</t>
-  </si>
-  <si>
-    <t>#4@16.531966688020503</t>
-  </si>
-  <si>
-    <t>#4@19.244146159582403</t>
-  </si>
-  <si>
-    <t>#4@12.775445544554456</t>
-  </si>
-  <si>
-    <t>#4@12.400961076405576</t>
-  </si>
-  <si>
-    <t>#4@24.005953488372096</t>
-  </si>
-  <si>
-    <t>#4@18.989256806475353</t>
-  </si>
-  <si>
-    <t>#4@19.059379615952736</t>
-  </si>
-  <si>
-    <t>#4@14.814236509758896</t>
-  </si>
-  <si>
-    <t>#4@24.76621880998081</t>
-  </si>
-  <si>
-    <t>2#4@18.393727726300785</t>
-  </si>
-  <si>
-    <t>2#5@13.76696609877818</t>
-  </si>
-  <si>
-    <t>2#4@19.087573964497043</t>
-  </si>
-  <si>
-    <t>2#4@13.426847034339232</t>
-  </si>
-  <si>
-    <t>2#4@24.519144893111637</t>
-  </si>
-  <si>
-    <t>2#5@21.86983050847458</t>
-  </si>
-  <si>
-    <t>#4@24.647946513849096</t>
-  </si>
-  <si>
-    <t>2#4@24.17461358313817</t>
-  </si>
-  <si>
-    <t>#4@20.862085691188366</t>
-  </si>
-  <si>
-    <t>2#5@13.5915460414543</t>
-  </si>
-  <si>
-    <t>#4@12.613098729227762</t>
+    <t>2#5@20</t>
   </si>
 </sst>
 </file>
@@ -2905,10 +631,10 @@
         <v>16</v>
       </c>
       <c r="O12" t="s">
-        <v>307</v>
+        <v>18</v>
       </c>
       <c r="P12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -2931,7 +657,7 @@
         <v>12</v>
       </c>
       <c r="N16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O16" t="s">
         <v>15</v>
@@ -2989,13 +715,13 @@
         <v>20</v>
       </c>
       <c r="N24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O24" t="s">
-        <v>308</v>
+        <v>18</v>
       </c>
       <c r="P24" t="s">
-        <v>538</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -3018,13 +744,13 @@
         <v>24</v>
       </c>
       <c r="N28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O28" t="s">
-        <v>309</v>
+        <v>16</v>
       </c>
       <c r="P28" t="s">
-        <v>539</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -3430,7 +1156,7 @@
         <v>15</v>
       </c>
       <c r="P84" t="s">
-        <v>540</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -3453,13 +1179,13 @@
         <v>84</v>
       </c>
       <c r="N88" t="s">
+        <v>16</v>
+      </c>
+      <c r="O88" t="s">
+        <v>18</v>
+      </c>
+      <c r="P88" t="s">
         <v>19</v>
-      </c>
-      <c r="O88" t="s">
-        <v>310</v>
-      </c>
-      <c r="P88" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -3482,13 +1208,13 @@
         <v>88</v>
       </c>
       <c r="N92" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O92" t="s">
-        <v>311</v>
+        <v>18</v>
       </c>
       <c r="P92" t="s">
-        <v>542</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -3511,13 +1237,13 @@
         <v>92</v>
       </c>
       <c r="N96" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O96" t="s">
-        <v>312</v>
+        <v>18</v>
       </c>
       <c r="P96" t="s">
-        <v>543</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -3540,13 +1266,13 @@
         <v>96</v>
       </c>
       <c r="N100" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O100" t="s">
-        <v>313</v>
+        <v>16</v>
       </c>
       <c r="P100" t="s">
-        <v>544</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -3569,13 +1295,13 @@
         <v>100</v>
       </c>
       <c r="N104" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O104" t="s">
-        <v>314</v>
+        <v>25</v>
       </c>
       <c r="P104" t="s">
-        <v>545</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -3598,13 +1324,13 @@
         <v>104</v>
       </c>
       <c r="N108" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="O108" t="s">
-        <v>315</v>
+        <v>18</v>
       </c>
       <c r="P108" t="s">
-        <v>546</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -3627,13 +1353,13 @@
         <v>108</v>
       </c>
       <c r="N112" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="O112" t="s">
-        <v>316</v>
+        <v>17</v>
       </c>
       <c r="P112" t="s">
-        <v>547</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -3685,13 +1411,13 @@
         <v>116</v>
       </c>
       <c r="N120" t="s">
+        <v>22</v>
+      </c>
+      <c r="O120" t="s">
         <v>26</v>
       </c>
-      <c r="O120" t="s">
-        <v>70</v>
-      </c>
       <c r="P120" t="s">
-        <v>548</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -3714,13 +1440,13 @@
         <v>120</v>
       </c>
       <c r="N124" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="O124" t="s">
-        <v>317</v>
+        <v>18</v>
       </c>
       <c r="P124" t="s">
-        <v>549</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -3743,13 +1469,13 @@
         <v>124</v>
       </c>
       <c r="N128" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="O128" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="P128" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -3772,13 +1498,13 @@
         <v>128</v>
       </c>
       <c r="N132" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="O132" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P132" t="s">
-        <v>550</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -3801,13 +1527,13 @@
         <v>132</v>
       </c>
       <c r="N136" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O136" t="s">
-        <v>318</v>
+        <v>19</v>
       </c>
       <c r="P136" t="s">
-        <v>551</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -3830,13 +1556,13 @@
         <v>136</v>
       </c>
       <c r="N140" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="O140" t="s">
-        <v>309</v>
+        <v>16</v>
       </c>
       <c r="P140" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -3859,13 +1585,13 @@
         <v>140</v>
       </c>
       <c r="N144" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="O144" t="s">
-        <v>319</v>
+        <v>20</v>
       </c>
       <c r="P144" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -3888,13 +1614,13 @@
         <v>144</v>
       </c>
       <c r="N148" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="O148" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="P148" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -3917,13 +1643,13 @@
         <v>148</v>
       </c>
       <c r="N152" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="O152" t="s">
-        <v>320</v>
+        <v>19</v>
       </c>
       <c r="P152" t="s">
-        <v>552</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -3946,13 +1672,13 @@
         <v>152</v>
       </c>
       <c r="N156" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="O156" t="s">
-        <v>321</v>
+        <v>18</v>
       </c>
       <c r="P156" t="s">
-        <v>553</v>
+        <v>16</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -3975,13 +1701,13 @@
         <v>156</v>
       </c>
       <c r="N160" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="O160" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P160" t="s">
-        <v>554</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -4004,13 +1730,13 @@
         <v>160</v>
       </c>
       <c r="N164" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="O164" t="s">
-        <v>322</v>
+        <v>18</v>
       </c>
       <c r="P164" t="s">
-        <v>247</v>
+        <v>19</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -4033,13 +1759,13 @@
         <v>164</v>
       </c>
       <c r="N168" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="O168" t="s">
-        <v>323</v>
+        <v>19</v>
       </c>
       <c r="P168" t="s">
-        <v>555</v>
+        <v>20</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -4062,13 +1788,13 @@
         <v>168</v>
       </c>
       <c r="N172" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="O172" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P172" t="s">
-        <v>362</v>
+        <v>28</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -4091,13 +1817,13 @@
         <v>172</v>
       </c>
       <c r="N176" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="O176" t="s">
-        <v>324</v>
+        <v>16</v>
       </c>
       <c r="P176" t="s">
-        <v>556</v>
+        <v>16</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -4120,13 +1846,13 @@
         <v>176</v>
       </c>
       <c r="N180" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="O180" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P180" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -4149,13 +1875,13 @@
         <v>180</v>
       </c>
       <c r="N184" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="O184" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="P184" t="s">
-        <v>557</v>
+        <v>16</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -4178,13 +1904,13 @@
         <v>184</v>
       </c>
       <c r="N188" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="O188" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P188" t="s">
-        <v>558</v>
+        <v>18</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -4236,13 +1962,13 @@
         <v>192</v>
       </c>
       <c r="N196" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="O196" t="s">
-        <v>325</v>
+        <v>19</v>
       </c>
       <c r="P196" t="s">
-        <v>559</v>
+        <v>20</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -4265,13 +1991,13 @@
         <v>196</v>
       </c>
       <c r="N200" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="O200" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P200" t="s">
-        <v>560</v>
+        <v>28</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -4294,13 +2020,13 @@
         <v>200</v>
       </c>
       <c r="N204" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="O204" t="s">
         <v>15</v>
       </c>
       <c r="P204" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -4323,13 +2049,13 @@
         <v>204</v>
       </c>
       <c r="N208" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="O208" t="s">
         <v>16</v>
       </c>
       <c r="P208" t="s">
-        <v>561</v>
+        <v>16</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -4352,13 +2078,13 @@
         <v>208</v>
       </c>
       <c r="N212" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="O212" t="s">
-        <v>326</v>
+        <v>16</v>
       </c>
       <c r="P212" t="s">
-        <v>562</v>
+        <v>16</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -4381,13 +2107,13 @@
         <v>212</v>
       </c>
       <c r="N216" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="O216" t="s">
-        <v>327</v>
+        <v>28</v>
       </c>
       <c r="P216" t="s">
-        <v>563</v>
+        <v>28</v>
       </c>
     </row>
     <row r="217" spans="1:16">
@@ -4410,13 +2136,13 @@
         <v>216</v>
       </c>
       <c r="N220" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="O220" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="P220" t="s">
-        <v>564</v>
+        <v>28</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -4439,13 +2165,13 @@
         <v>220</v>
       </c>
       <c r="N224" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="O224" t="s">
-        <v>318</v>
+        <v>19</v>
       </c>
       <c r="P224" t="s">
-        <v>565</v>
+        <v>20</v>
       </c>
     </row>
     <row r="225" spans="1:16">
@@ -4468,13 +2194,13 @@
         <v>224</v>
       </c>
       <c r="N228" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="O228" t="s">
-        <v>328</v>
+        <v>18</v>
       </c>
       <c r="P228" t="s">
-        <v>566</v>
+        <v>16</v>
       </c>
     </row>
     <row r="229" spans="1:16">
@@ -4497,13 +2223,13 @@
         <v>228</v>
       </c>
       <c r="N232" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="O232" t="s">
-        <v>285</v>
+        <v>18</v>
       </c>
       <c r="P232" t="s">
-        <v>567</v>
+        <v>20</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -4526,13 +2252,13 @@
         <v>232</v>
       </c>
       <c r="N236" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="O236" t="s">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="P236" t="s">
-        <v>552</v>
+        <v>16</v>
       </c>
     </row>
     <row r="237" spans="1:16">
@@ -4555,13 +2281,13 @@
         <v>236</v>
       </c>
       <c r="N240" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="O240" t="s">
-        <v>330</v>
+        <v>20</v>
       </c>
       <c r="P240" t="s">
-        <v>568</v>
+        <v>24</v>
       </c>
     </row>
     <row r="241" spans="1:16">
@@ -4584,13 +2310,13 @@
         <v>240</v>
       </c>
       <c r="N244" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="O244" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="P244" t="s">
-        <v>569</v>
+        <v>26</v>
       </c>
     </row>
     <row r="245" spans="1:16">
@@ -4613,13 +2339,13 @@
         <v>244</v>
       </c>
       <c r="N248" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="O248" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="P248" t="s">
-        <v>570</v>
+        <v>28</v>
       </c>
     </row>
     <row r="249" spans="1:16">
@@ -4642,13 +2368,13 @@
         <v>248</v>
       </c>
       <c r="N252" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="O252" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="P252" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="253" spans="1:16">
@@ -4671,13 +2397,13 @@
         <v>252</v>
       </c>
       <c r="N256" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="O256" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="P256" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="257" spans="1:16">
@@ -4700,13 +2426,13 @@
         <v>256</v>
       </c>
       <c r="N260" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="O260" t="s">
-        <v>331</v>
+        <v>18</v>
       </c>
       <c r="P260" t="s">
-        <v>571</v>
+        <v>19</v>
       </c>
     </row>
     <row r="261" spans="1:16">
@@ -4735,7 +2461,7 @@
         <v>15</v>
       </c>
       <c r="P264" t="s">
-        <v>572</v>
+        <v>18</v>
       </c>
     </row>
     <row r="265" spans="1:16">
@@ -4758,13 +2484,13 @@
         <v>264</v>
       </c>
       <c r="N268" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="O268" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="P268" t="s">
-        <v>573</v>
+        <v>28</v>
       </c>
     </row>
     <row r="269" spans="1:16">
@@ -4787,13 +2513,13 @@
         <v>268</v>
       </c>
       <c r="N272" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="O272" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="P272" t="s">
-        <v>355</v>
+        <v>26</v>
       </c>
     </row>
     <row r="273" spans="1:16">
@@ -4816,13 +2542,13 @@
         <v>272</v>
       </c>
       <c r="N276" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O276" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P276" t="s">
-        <v>574</v>
+        <v>18</v>
       </c>
     </row>
     <row r="277" spans="1:16">
@@ -4845,13 +2571,13 @@
         <v>276</v>
       </c>
       <c r="N280" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="O280" t="s">
-        <v>332</v>
+        <v>20</v>
       </c>
       <c r="P280" t="s">
-        <v>575</v>
+        <v>20</v>
       </c>
     </row>
     <row r="281" spans="1:16">
@@ -4874,13 +2600,13 @@
         <v>280</v>
       </c>
       <c r="N284" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="O284" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="P284" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="285" spans="1:16">
@@ -4903,13 +2629,13 @@
         <v>284</v>
       </c>
       <c r="N288" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="O288" t="s">
-        <v>333</v>
+        <v>22</v>
       </c>
       <c r="P288" t="s">
-        <v>576</v>
+        <v>22</v>
       </c>
     </row>
     <row r="289" spans="1:16">
@@ -4932,13 +2658,13 @@
         <v>288</v>
       </c>
       <c r="N292" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="O292" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="P292" t="s">
-        <v>577</v>
+        <v>26</v>
       </c>
     </row>
     <row r="293" spans="1:16">
@@ -4961,13 +2687,13 @@
         <v>292</v>
       </c>
       <c r="N296" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="O296" t="s">
-        <v>334</v>
+        <v>16</v>
       </c>
       <c r="P296" t="s">
-        <v>578</v>
+        <v>20</v>
       </c>
     </row>
     <row r="297" spans="1:16">
@@ -4990,13 +2716,13 @@
         <v>296</v>
       </c>
       <c r="N300" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="O300" t="s">
-        <v>335</v>
+        <v>19</v>
       </c>
       <c r="P300" t="s">
-        <v>579</v>
+        <v>20</v>
       </c>
     </row>
     <row r="301" spans="1:16">
@@ -5019,13 +2745,13 @@
         <v>300</v>
       </c>
       <c r="N304" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="O304" t="s">
-        <v>336</v>
+        <v>16</v>
       </c>
       <c r="P304" t="s">
-        <v>580</v>
+        <v>24</v>
       </c>
     </row>
     <row r="305" spans="1:16">
@@ -5048,13 +2774,13 @@
         <v>304</v>
       </c>
       <c r="N308" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="O308" t="s">
-        <v>337</v>
+        <v>20</v>
       </c>
       <c r="P308" t="s">
-        <v>581</v>
+        <v>20</v>
       </c>
     </row>
     <row r="309" spans="1:16">
@@ -5077,13 +2803,13 @@
         <v>308</v>
       </c>
       <c r="N312" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="O312" t="s">
-        <v>338</v>
+        <v>28</v>
       </c>
       <c r="P312" t="s">
-        <v>582</v>
+        <v>22</v>
       </c>
     </row>
     <row r="313" spans="1:16">
@@ -5106,13 +2832,13 @@
         <v>312</v>
       </c>
       <c r="N316" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="O316" t="s">
-        <v>339</v>
+        <v>28</v>
       </c>
       <c r="P316" t="s">
-        <v>583</v>
+        <v>22</v>
       </c>
     </row>
     <row r="317" spans="1:16">
@@ -5135,13 +2861,13 @@
         <v>316</v>
       </c>
       <c r="N320" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="O320" t="s">
-        <v>340</v>
+        <v>28</v>
       </c>
       <c r="P320" t="s">
-        <v>584</v>
+        <v>28</v>
       </c>
     </row>
     <row r="321" spans="1:16">
@@ -5164,13 +2890,13 @@
         <v>320</v>
       </c>
       <c r="N324" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="O324" t="s">
-        <v>341</v>
+        <v>28</v>
       </c>
       <c r="P324" t="s">
-        <v>585</v>
+        <v>28</v>
       </c>
     </row>
     <row r="325" spans="1:16">
@@ -5193,13 +2919,13 @@
         <v>324</v>
       </c>
       <c r="N328" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="O328" t="s">
-        <v>342</v>
+        <v>28</v>
       </c>
       <c r="P328" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
     </row>
     <row r="329" spans="1:16">
@@ -5222,13 +2948,13 @@
         <v>328</v>
       </c>
       <c r="N332" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="O332" t="s">
-        <v>287</v>
+        <v>19</v>
       </c>
       <c r="P332" t="s">
-        <v>586</v>
+        <v>16</v>
       </c>
     </row>
     <row r="333" spans="1:16">
@@ -5251,13 +2977,13 @@
         <v>332</v>
       </c>
       <c r="N336" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O336" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P336" t="s">
-        <v>587</v>
+        <v>19</v>
       </c>
     </row>
     <row r="337" spans="1:16">
@@ -5280,13 +3006,13 @@
         <v>336</v>
       </c>
       <c r="N340" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="O340" t="s">
-        <v>343</v>
+        <v>28</v>
       </c>
       <c r="P340" t="s">
-        <v>588</v>
+        <v>22</v>
       </c>
     </row>
     <row r="341" spans="1:16">
@@ -5309,13 +3035,13 @@
         <v>340</v>
       </c>
       <c r="N344" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="O344" t="s">
-        <v>344</v>
+        <v>28</v>
       </c>
       <c r="P344" t="s">
-        <v>589</v>
+        <v>22</v>
       </c>
     </row>
     <row r="345" spans="1:16">
@@ -5338,13 +3064,13 @@
         <v>344</v>
       </c>
       <c r="N348" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="O348" t="s">
-        <v>310</v>
+        <v>18</v>
       </c>
       <c r="P348" t="s">
-        <v>590</v>
+        <v>16</v>
       </c>
     </row>
     <row r="349" spans="1:16">
@@ -5367,13 +3093,13 @@
         <v>348</v>
       </c>
       <c r="N352" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="O352" t="s">
-        <v>345</v>
+        <v>28</v>
       </c>
       <c r="P352" t="s">
-        <v>591</v>
+        <v>26</v>
       </c>
     </row>
     <row r="353" spans="1:16">
@@ -5396,13 +3122,13 @@
         <v>352</v>
       </c>
       <c r="N356" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="O356" t="s">
-        <v>346</v>
+        <v>28</v>
       </c>
       <c r="P356" t="s">
-        <v>592</v>
+        <v>28</v>
       </c>
     </row>
     <row r="357" spans="1:16">
@@ -5425,13 +3151,13 @@
         <v>356</v>
       </c>
       <c r="N360" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="O360" t="s">
-        <v>347</v>
+        <v>21</v>
       </c>
       <c r="P360" t="s">
-        <v>593</v>
+        <v>21</v>
       </c>
     </row>
     <row r="361" spans="1:16">
@@ -5454,13 +3180,13 @@
         <v>360</v>
       </c>
       <c r="N364" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="O364" t="s">
-        <v>348</v>
+        <v>28</v>
       </c>
       <c r="P364" t="s">
-        <v>594</v>
+        <v>26</v>
       </c>
     </row>
     <row r="365" spans="1:16">
@@ -5483,13 +3209,13 @@
         <v>364</v>
       </c>
       <c r="N368" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="O368" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P368" t="s">
-        <v>595</v>
+        <v>28</v>
       </c>
     </row>
     <row r="369" spans="1:16">
@@ -5512,13 +3238,13 @@
         <v>368</v>
       </c>
       <c r="N372" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="O372" t="s">
-        <v>349</v>
+        <v>16</v>
       </c>
       <c r="P372" t="s">
-        <v>596</v>
+        <v>20</v>
       </c>
     </row>
     <row r="373" spans="1:16">
@@ -5541,13 +3267,13 @@
         <v>372</v>
       </c>
       <c r="N376" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="O376" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="P376" t="s">
-        <v>597</v>
+        <v>28</v>
       </c>
     </row>
     <row r="377" spans="1:16">
@@ -5570,13 +3296,13 @@
         <v>376</v>
       </c>
       <c r="N380" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="O380" t="s">
-        <v>350</v>
+        <v>28</v>
       </c>
       <c r="P380" t="s">
-        <v>598</v>
+        <v>28</v>
       </c>
     </row>
     <row r="381" spans="1:16">
@@ -5599,13 +3325,13 @@
         <v>380</v>
       </c>
       <c r="N384" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="O384" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P384" t="s">
-        <v>599</v>
+        <v>22</v>
       </c>
     </row>
     <row r="385" spans="1:16">
@@ -5628,13 +3354,13 @@
         <v>384</v>
       </c>
       <c r="N388" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="O388" t="s">
-        <v>351</v>
+        <v>28</v>
       </c>
       <c r="P388" t="s">
-        <v>600</v>
+        <v>22</v>
       </c>
     </row>
     <row r="389" spans="1:16">
@@ -5657,13 +3383,13 @@
         <v>388</v>
       </c>
       <c r="N392" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="O392" t="s">
-        <v>352</v>
+        <v>26</v>
       </c>
       <c r="P392" t="s">
-        <v>601</v>
+        <v>22</v>
       </c>
     </row>
     <row r="393" spans="1:16">
@@ -5686,13 +3412,13 @@
         <v>392</v>
       </c>
       <c r="N396" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="O396" t="s">
-        <v>345</v>
+        <v>28</v>
       </c>
       <c r="P396" t="s">
-        <v>602</v>
+        <v>26</v>
       </c>
     </row>
     <row r="397" spans="1:16">
@@ -5715,13 +3441,13 @@
         <v>396</v>
       </c>
       <c r="N400" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="O400" t="s">
-        <v>353</v>
+        <v>26</v>
       </c>
       <c r="P400" t="s">
-        <v>603</v>
+        <v>26</v>
       </c>
     </row>
     <row r="401" spans="1:16">
@@ -5744,13 +3470,13 @@
         <v>400</v>
       </c>
       <c r="N404" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="O404" t="s">
-        <v>354</v>
+        <v>16</v>
       </c>
       <c r="P404" t="s">
-        <v>604</v>
+        <v>20</v>
       </c>
     </row>
     <row r="405" spans="1:16">
@@ -5773,13 +3499,13 @@
         <v>404</v>
       </c>
       <c r="N408" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="O408" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P408" t="s">
-        <v>605</v>
+        <v>16</v>
       </c>
     </row>
     <row r="409" spans="1:16">
@@ -5802,13 +3528,13 @@
         <v>408</v>
       </c>
       <c r="N412" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="O412" t="s">
-        <v>355</v>
+        <v>26</v>
       </c>
       <c r="P412" t="s">
-        <v>606</v>
+        <v>21</v>
       </c>
     </row>
     <row r="413" spans="1:16">
@@ -5831,13 +3557,13 @@
         <v>412</v>
       </c>
       <c r="N416" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="O416" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="P416" t="s">
-        <v>607</v>
+        <v>21</v>
       </c>
     </row>
     <row r="417" spans="1:16">
@@ -5860,13 +3586,13 @@
         <v>416</v>
       </c>
       <c r="N420" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="O420" t="s">
-        <v>356</v>
+        <v>18</v>
       </c>
       <c r="P420" t="s">
-        <v>608</v>
+        <v>16</v>
       </c>
     </row>
     <row r="421" spans="1:16">
@@ -5889,13 +3615,13 @@
         <v>420</v>
       </c>
       <c r="N424" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="O424" t="s">
-        <v>357</v>
+        <v>22</v>
       </c>
       <c r="P424" t="s">
-        <v>609</v>
+        <v>22</v>
       </c>
     </row>
     <row r="425" spans="1:16">
@@ -5918,13 +3644,13 @@
         <v>424</v>
       </c>
       <c r="N428" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="O428" t="s">
-        <v>358</v>
+        <v>26</v>
       </c>
       <c r="P428" t="s">
-        <v>610</v>
+        <v>26</v>
       </c>
     </row>
     <row r="429" spans="1:16">
@@ -5947,13 +3673,13 @@
         <v>428</v>
       </c>
       <c r="N432" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="O432" t="s">
-        <v>359</v>
+        <v>21</v>
       </c>
       <c r="P432" t="s">
-        <v>611</v>
+        <v>21</v>
       </c>
     </row>
     <row r="433" spans="1:16">
@@ -5976,13 +3702,13 @@
         <v>432</v>
       </c>
       <c r="N436" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="O436" t="s">
-        <v>360</v>
+        <v>28</v>
       </c>
       <c r="P436" t="s">
-        <v>141</v>
+        <v>22</v>
       </c>
     </row>
     <row r="437" spans="1:16">
@@ -6005,13 +3731,13 @@
         <v>436</v>
       </c>
       <c r="N440" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="O440" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="P440" t="s">
-        <v>612</v>
+        <v>28</v>
       </c>
     </row>
     <row r="441" spans="1:16">
@@ -6034,13 +3760,13 @@
         <v>440</v>
       </c>
       <c r="N444" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="O444" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="P444" t="s">
-        <v>545</v>
+        <v>28</v>
       </c>
     </row>
     <row r="445" spans="1:16">
@@ -6063,13 +3789,13 @@
         <v>444</v>
       </c>
       <c r="N448" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="O448" t="s">
-        <v>361</v>
+        <v>28</v>
       </c>
       <c r="P448" t="s">
-        <v>613</v>
+        <v>22</v>
       </c>
     </row>
     <row r="449" spans="1:16">
@@ -6092,13 +3818,13 @@
         <v>448</v>
       </c>
       <c r="N452" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="O452" t="s">
-        <v>362</v>
+        <v>28</v>
       </c>
       <c r="P452" t="s">
-        <v>614</v>
+        <v>28</v>
       </c>
     </row>
     <row r="453" spans="1:16">
@@ -6121,13 +3847,13 @@
         <v>452</v>
       </c>
       <c r="N456" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="O456" t="s">
-        <v>363</v>
+        <v>21</v>
       </c>
       <c r="P456" t="s">
-        <v>615</v>
+        <v>21</v>
       </c>
     </row>
     <row r="457" spans="1:16">
@@ -6150,13 +3876,13 @@
         <v>456</v>
       </c>
       <c r="N460" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="O460" t="s">
-        <v>364</v>
+        <v>26</v>
       </c>
       <c r="P460" t="s">
-        <v>616</v>
+        <v>22</v>
       </c>
     </row>
     <row r="461" spans="1:16">
@@ -6179,13 +3905,13 @@
         <v>460</v>
       </c>
       <c r="N464" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="O464" t="s">
-        <v>365</v>
+        <v>22</v>
       </c>
       <c r="P464" t="s">
-        <v>617</v>
+        <v>22</v>
       </c>
     </row>
     <row r="465" spans="1:16">
@@ -6208,13 +3934,13 @@
         <v>464</v>
       </c>
       <c r="N468" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="O468" t="s">
-        <v>366</v>
+        <v>26</v>
       </c>
       <c r="P468" t="s">
-        <v>618</v>
+        <v>26</v>
       </c>
     </row>
     <row r="469" spans="1:16">
@@ -6237,13 +3963,13 @@
         <v>468</v>
       </c>
       <c r="N472" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="O472" t="s">
-        <v>367</v>
+        <v>22</v>
       </c>
       <c r="P472" t="s">
-        <v>619</v>
+        <v>22</v>
       </c>
     </row>
     <row r="473" spans="1:16">
@@ -6266,13 +3992,13 @@
         <v>472</v>
       </c>
       <c r="N476" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="O476" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="P476" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="477" spans="1:16">
@@ -6295,13 +4021,13 @@
         <v>476</v>
       </c>
       <c r="N480" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="O480" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P480" t="s">
-        <v>468</v>
+        <v>16</v>
       </c>
     </row>
     <row r="481" spans="1:16">
@@ -6324,13 +4050,13 @@
         <v>480</v>
       </c>
       <c r="N484" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="O484" t="s">
-        <v>368</v>
+        <v>22</v>
       </c>
       <c r="P484" t="s">
-        <v>620</v>
+        <v>21</v>
       </c>
     </row>
     <row r="485" spans="1:16">
@@ -6353,13 +4079,13 @@
         <v>484</v>
       </c>
       <c r="N488" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="O488" t="s">
-        <v>369</v>
+        <v>22</v>
       </c>
       <c r="P488" t="s">
-        <v>453</v>
+        <v>21</v>
       </c>
     </row>
     <row r="489" spans="1:16">
@@ -6382,13 +4108,13 @@
         <v>488</v>
       </c>
       <c r="N492" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="O492" t="s">
-        <v>370</v>
+        <v>18</v>
       </c>
       <c r="P492" t="s">
-        <v>621</v>
+        <v>16</v>
       </c>
     </row>
     <row r="493" spans="1:16">
@@ -6411,13 +4137,13 @@
         <v>492</v>
       </c>
       <c r="N496" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="O496" t="s">
-        <v>371</v>
+        <v>21</v>
       </c>
       <c r="P496" t="s">
-        <v>622</v>
+        <v>21</v>
       </c>
     </row>
     <row r="497" spans="1:16">
@@ -6440,13 +4166,13 @@
         <v>496</v>
       </c>
       <c r="N500" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="O500" t="s">
-        <v>372</v>
+        <v>22</v>
       </c>
       <c r="P500" t="s">
-        <v>623</v>
+        <v>22</v>
       </c>
     </row>
     <row r="501" spans="1:16">
@@ -6469,13 +4195,13 @@
         <v>500</v>
       </c>
       <c r="N504" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="O504" t="s">
-        <v>373</v>
+        <v>21</v>
       </c>
       <c r="P504" t="s">
-        <v>624</v>
+        <v>21</v>
       </c>
     </row>
     <row r="505" spans="1:16">
@@ -6498,13 +4224,13 @@
         <v>504</v>
       </c>
       <c r="N508" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="O508" t="s">
-        <v>374</v>
+        <v>28</v>
       </c>
       <c r="P508" t="s">
-        <v>625</v>
+        <v>22</v>
       </c>
     </row>
     <row r="509" spans="1:16">
@@ -6527,13 +4253,13 @@
         <v>508</v>
       </c>
       <c r="N512" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="O512" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="P512" t="s">
-        <v>626</v>
+        <v>28</v>
       </c>
     </row>
     <row r="513" spans="1:16">
@@ -6556,13 +4282,13 @@
         <v>512</v>
       </c>
       <c r="N516" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="O516" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="P516" t="s">
-        <v>627</v>
+        <v>28</v>
       </c>
     </row>
     <row r="517" spans="1:16">
@@ -6585,13 +4311,13 @@
         <v>516</v>
       </c>
       <c r="N520" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="O520" t="s">
-        <v>375</v>
+        <v>26</v>
       </c>
       <c r="P520" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
     </row>
     <row r="521" spans="1:16">
@@ -6614,13 +4340,13 @@
         <v>520</v>
       </c>
       <c r="N524" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="O524" t="s">
-        <v>376</v>
+        <v>26</v>
       </c>
       <c r="P524" t="s">
-        <v>628</v>
+        <v>26</v>
       </c>
     </row>
     <row r="525" spans="1:16">
@@ -6643,13 +4369,13 @@
         <v>524</v>
       </c>
       <c r="N528" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="O528" t="s">
-        <v>377</v>
+        <v>21</v>
       </c>
       <c r="P528" t="s">
-        <v>629</v>
+        <v>29</v>
       </c>
     </row>
     <row r="529" spans="1:16">
@@ -6672,13 +4398,13 @@
         <v>528</v>
       </c>
       <c r="N532" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="O532" t="s">
-        <v>378</v>
+        <v>22</v>
       </c>
       <c r="P532" t="s">
-        <v>630</v>
+        <v>21</v>
       </c>
     </row>
     <row r="533" spans="1:16">
@@ -6701,13 +4427,13 @@
         <v>532</v>
       </c>
       <c r="N536" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="O536" t="s">
-        <v>379</v>
+        <v>22</v>
       </c>
       <c r="P536" t="s">
-        <v>631</v>
+        <v>21</v>
       </c>
     </row>
     <row r="537" spans="1:16">
@@ -6730,13 +4456,13 @@
         <v>536</v>
       </c>
       <c r="N540" t="s">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="O540" t="s">
-        <v>380</v>
+        <v>22</v>
       </c>
       <c r="P540" t="s">
-        <v>632</v>
+        <v>22</v>
       </c>
     </row>
     <row r="541" spans="1:16">
@@ -6759,13 +4485,13 @@
         <v>540</v>
       </c>
       <c r="N544" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="O544" t="s">
-        <v>381</v>
+        <v>22</v>
       </c>
       <c r="P544" t="s">
-        <v>633</v>
+        <v>21</v>
       </c>
     </row>
     <row r="545" spans="1:16">
@@ -6788,13 +4514,13 @@
         <v>544</v>
       </c>
       <c r="N548" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="O548" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="P548" t="s">
-        <v>296</v>
+        <v>28</v>
       </c>
     </row>
     <row r="549" spans="1:16">
@@ -6817,13 +4543,13 @@
         <v>548</v>
       </c>
       <c r="N552" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="O552" t="s">
-        <v>382</v>
+        <v>18</v>
       </c>
       <c r="P552" t="s">
-        <v>634</v>
+        <v>16</v>
       </c>
     </row>
     <row r="553" spans="1:16">
@@ -6846,13 +4572,13 @@
         <v>552</v>
       </c>
       <c r="N556" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="O556" t="s">
-        <v>383</v>
+        <v>21</v>
       </c>
       <c r="P556" t="s">
-        <v>635</v>
+        <v>21</v>
       </c>
     </row>
     <row r="557" spans="1:16">
@@ -6875,13 +4601,13 @@
         <v>556</v>
       </c>
       <c r="N560" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="O560" t="s">
-        <v>384</v>
+        <v>22</v>
       </c>
       <c r="P560" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
     </row>
     <row r="561" spans="1:16">
@@ -6904,13 +4630,13 @@
         <v>560</v>
       </c>
       <c r="N564" t="s">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="O564" t="s">
-        <v>385</v>
+        <v>19</v>
       </c>
       <c r="P564" t="s">
-        <v>636</v>
+        <v>20</v>
       </c>
     </row>
     <row r="565" spans="1:16">
@@ -6933,13 +4659,13 @@
         <v>564</v>
       </c>
       <c r="N568" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="O568" t="s">
-        <v>386</v>
+        <v>21</v>
       </c>
       <c r="P568" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
     </row>
     <row r="569" spans="1:16">
@@ -6962,13 +4688,13 @@
         <v>568</v>
       </c>
       <c r="N572" t="s">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="O572" t="s">
-        <v>387</v>
+        <v>22</v>
       </c>
       <c r="P572" t="s">
-        <v>637</v>
+        <v>22</v>
       </c>
     </row>
     <row r="573" spans="1:16">
@@ -6991,13 +4717,13 @@
         <v>572</v>
       </c>
       <c r="N576" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="O576" t="s">
-        <v>388</v>
+        <v>21</v>
       </c>
       <c r="P576" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
     </row>
     <row r="577" spans="1:16">
@@ -7020,13 +4746,13 @@
         <v>576</v>
       </c>
       <c r="N580" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="O580" t="s">
-        <v>389</v>
+        <v>26</v>
       </c>
       <c r="P580" t="s">
-        <v>638</v>
+        <v>22</v>
       </c>
     </row>
     <row r="581" spans="1:16">
@@ -7049,13 +4775,13 @@
         <v>580</v>
       </c>
       <c r="N584" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="O584" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="P584" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="585" spans="1:16">
@@ -7078,13 +4804,13 @@
         <v>584</v>
       </c>
       <c r="N588" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="O588" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="P588" t="s">
-        <v>639</v>
+        <v>28</v>
       </c>
     </row>
     <row r="589" spans="1:16">
@@ -7107,13 +4833,13 @@
         <v>588</v>
       </c>
       <c r="N592" t="s">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="O592" t="s">
-        <v>390</v>
+        <v>22</v>
       </c>
       <c r="P592" t="s">
-        <v>640</v>
+        <v>21</v>
       </c>
     </row>
     <row r="593" spans="1:16">
@@ -7136,13 +4862,13 @@
         <v>592</v>
       </c>
       <c r="N596" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="O596" t="s">
-        <v>391</v>
+        <v>26</v>
       </c>
       <c r="P596" t="s">
-        <v>641</v>
+        <v>22</v>
       </c>
     </row>
     <row r="597" spans="1:16">
@@ -7165,13 +4891,13 @@
         <v>596</v>
       </c>
       <c r="N600" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="O600" t="s">
-        <v>392</v>
+        <v>21</v>
       </c>
       <c r="P600" t="s">
-        <v>642</v>
+        <v>29</v>
       </c>
     </row>
     <row r="601" spans="1:16">
@@ -7194,13 +4920,13 @@
         <v>600</v>
       </c>
       <c r="N604" t="s">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="O604" t="s">
-        <v>393</v>
+        <v>22</v>
       </c>
       <c r="P604" t="s">
-        <v>643</v>
+        <v>21</v>
       </c>
     </row>
     <row r="605" spans="1:16">
@@ -7223,13 +4949,13 @@
         <v>604</v>
       </c>
       <c r="N608" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="O608" t="s">
-        <v>394</v>
+        <v>22</v>
       </c>
       <c r="P608" t="s">
-        <v>644</v>
+        <v>21</v>
       </c>
     </row>
     <row r="609" spans="1:16">
@@ -7252,13 +4978,13 @@
         <v>608</v>
       </c>
       <c r="N612" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="O612" t="s">
-        <v>395</v>
+        <v>21</v>
       </c>
       <c r="P612" t="s">
-        <v>426</v>
+        <v>21</v>
       </c>
     </row>
     <row r="613" spans="1:16">
@@ -7281,13 +5007,13 @@
         <v>612</v>
       </c>
       <c r="N616" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="O616" t="s">
-        <v>396</v>
+        <v>21</v>
       </c>
       <c r="P616" t="s">
-        <v>437</v>
+        <v>21</v>
       </c>
     </row>
     <row r="617" spans="1:16">
@@ -7310,13 +5036,13 @@
         <v>616</v>
       </c>
       <c r="N620" t="s">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="O620" t="s">
-        <v>397</v>
+        <v>28</v>
       </c>
       <c r="P620" t="s">
-        <v>645</v>
+        <v>28</v>
       </c>
     </row>
     <row r="621" spans="1:16">
@@ -7339,13 +5065,13 @@
         <v>620</v>
       </c>
       <c r="N624" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="O624" t="s">
-        <v>398</v>
+        <v>18</v>
       </c>
       <c r="P624" t="s">
-        <v>646</v>
+        <v>16</v>
       </c>
     </row>
     <row r="625" spans="1:16">
@@ -7368,13 +5094,13 @@
         <v>624</v>
       </c>
       <c r="N628" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="O628" t="s">
-        <v>224</v>
+        <v>21</v>
       </c>
       <c r="P628" t="s">
-        <v>647</v>
+        <v>21</v>
       </c>
     </row>
     <row r="629" spans="1:16">
@@ -7397,13 +5123,13 @@
         <v>628</v>
       </c>
       <c r="N632" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="O632" t="s">
-        <v>399</v>
+        <v>21</v>
       </c>
       <c r="P632" t="s">
-        <v>648</v>
+        <v>29</v>
       </c>
     </row>
     <row r="633" spans="1:16">
@@ -7426,13 +5152,13 @@
         <v>632</v>
       </c>
       <c r="N636" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="O636" t="s">
-        <v>400</v>
+        <v>19</v>
       </c>
       <c r="P636" t="s">
-        <v>649</v>
+        <v>20</v>
       </c>
     </row>
     <row r="637" spans="1:16">
@@ -7455,13 +5181,13 @@
         <v>636</v>
       </c>
       <c r="N640" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="O640" t="s">
-        <v>401</v>
+        <v>21</v>
       </c>
       <c r="P640" t="s">
-        <v>650</v>
+        <v>29</v>
       </c>
     </row>
     <row r="641" spans="1:16">
@@ -7484,13 +5210,13 @@
         <v>640</v>
       </c>
       <c r="N644" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="O644" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="P644" t="s">
-        <v>651</v>
+        <v>22</v>
       </c>
     </row>
     <row r="645" spans="1:16">
@@ -7513,13 +5239,13 @@
         <v>644</v>
       </c>
       <c r="N648" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="O648" t="s">
-        <v>402</v>
+        <v>21</v>
       </c>
       <c r="P648" t="s">
-        <v>652</v>
+        <v>21</v>
       </c>
     </row>
     <row r="649" spans="1:16">
@@ -7542,13 +5268,13 @@
         <v>648</v>
       </c>
       <c r="N652" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="O652" t="s">
-        <v>403</v>
+        <v>21</v>
       </c>
       <c r="P652" t="s">
-        <v>653</v>
+        <v>29</v>
       </c>
     </row>
     <row r="653" spans="1:16">
@@ -7571,13 +5297,13 @@
         <v>652</v>
       </c>
       <c r="N656" t="s">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="O656" t="s">
-        <v>404</v>
+        <v>28</v>
       </c>
       <c r="P656" t="s">
-        <v>654</v>
+        <v>26</v>
       </c>
     </row>
     <row r="657" spans="1:16">
@@ -7600,13 +5326,13 @@
         <v>656</v>
       </c>
       <c r="N660" t="s">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="O660" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="P660" t="s">
-        <v>655</v>
+        <v>28</v>
       </c>
     </row>
     <row r="661" spans="1:16">
@@ -7629,13 +5355,13 @@
         <v>660</v>
       </c>
       <c r="N664" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="O664" t="s">
-        <v>405</v>
+        <v>22</v>
       </c>
       <c r="P664" t="s">
-        <v>656</v>
+        <v>21</v>
       </c>
     </row>
     <row r="665" spans="1:16">
@@ -7658,13 +5384,13 @@
         <v>664</v>
       </c>
       <c r="N668" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="O668" t="s">
-        <v>406</v>
+        <v>22</v>
       </c>
       <c r="P668" t="s">
-        <v>657</v>
+        <v>22</v>
       </c>
     </row>
     <row r="669" spans="1:16">
@@ -7687,13 +5413,13 @@
         <v>668</v>
       </c>
       <c r="N672" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="O672" t="s">
-        <v>407</v>
+        <v>21</v>
       </c>
       <c r="P672" t="s">
-        <v>658</v>
+        <v>29</v>
       </c>
     </row>
     <row r="673" spans="1:16">
@@ -7716,13 +5442,13 @@
         <v>672</v>
       </c>
       <c r="N676" t="s">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="O676" t="s">
-        <v>408</v>
+        <v>22</v>
       </c>
       <c r="P676" t="s">
-        <v>659</v>
+        <v>21</v>
       </c>
     </row>
     <row r="677" spans="1:16">
@@ -7745,13 +5471,13 @@
         <v>676</v>
       </c>
       <c r="N680" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="O680" t="s">
-        <v>409</v>
+        <v>21</v>
       </c>
       <c r="P680" t="s">
-        <v>411</v>
+        <v>21</v>
       </c>
     </row>
     <row r="681" spans="1:16">
@@ -7774,13 +5500,13 @@
         <v>680</v>
       </c>
       <c r="N684" t="s">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="O684" t="s">
-        <v>410</v>
+        <v>21</v>
       </c>
       <c r="P684" t="s">
-        <v>660</v>
+        <v>21</v>
       </c>
     </row>
     <row r="685" spans="1:16">
@@ -7803,13 +5529,13 @@
         <v>684</v>
       </c>
       <c r="N688" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="O688" t="s">
-        <v>411</v>
+        <v>21</v>
       </c>
       <c r="P688" t="s">
-        <v>661</v>
+        <v>21</v>
       </c>
     </row>
     <row r="689" spans="1:16">
@@ -7832,13 +5558,13 @@
         <v>688</v>
       </c>
       <c r="N692" t="s">
-        <v>158</v>
+        <v>22</v>
       </c>
       <c r="O692" t="s">
-        <v>185</v>
+        <v>28</v>
       </c>
       <c r="P692" t="s">
-        <v>662</v>
+        <v>26</v>
       </c>
     </row>
     <row r="693" spans="1:16">
@@ -7861,13 +5587,13 @@
         <v>692</v>
       </c>
       <c r="N696" t="s">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="O696" t="s">
-        <v>412</v>
+        <v>18</v>
       </c>
       <c r="P696" t="s">
-        <v>663</v>
+        <v>20</v>
       </c>
     </row>
     <row r="697" spans="1:16">
@@ -7890,13 +5616,13 @@
         <v>696</v>
       </c>
       <c r="N700" t="s">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="O700" t="s">
-        <v>413</v>
+        <v>21</v>
       </c>
       <c r="P700" t="s">
-        <v>664</v>
+        <v>29</v>
       </c>
     </row>
     <row r="701" spans="1:16">
@@ -7919,13 +5645,13 @@
         <v>700</v>
       </c>
       <c r="N704" t="s">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="O704" t="s">
-        <v>414</v>
+        <v>21</v>
       </c>
       <c r="P704" t="s">
-        <v>665</v>
+        <v>29</v>
       </c>
     </row>
     <row r="705" spans="1:16">
@@ -7948,13 +5674,13 @@
         <v>704</v>
       </c>
       <c r="N708" t="s">
-        <v>162</v>
+        <v>20</v>
       </c>
       <c r="O708" t="s">
-        <v>415</v>
+        <v>16</v>
       </c>
       <c r="P708" t="s">
-        <v>666</v>
+        <v>20</v>
       </c>
     </row>
     <row r="709" spans="1:16">
@@ -7977,13 +5703,13 @@
         <v>708</v>
       </c>
       <c r="N712" t="s">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="O712" t="s">
-        <v>416</v>
+        <v>29</v>
       </c>
       <c r="P712" t="s">
-        <v>667</v>
+        <v>29</v>
       </c>
     </row>
     <row r="713" spans="1:16">
@@ -8006,13 +5732,13 @@
         <v>712</v>
       </c>
       <c r="N716" t="s">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="O716" t="s">
-        <v>417</v>
+        <v>21</v>
       </c>
       <c r="P716" t="s">
-        <v>668</v>
+        <v>21</v>
       </c>
     </row>
     <row r="717" spans="1:16">
@@ -8035,13 +5761,13 @@
         <v>716</v>
       </c>
       <c r="N720" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="O720" t="s">
-        <v>418</v>
+        <v>21</v>
       </c>
       <c r="P720" t="s">
-        <v>669</v>
+        <v>29</v>
       </c>
     </row>
     <row r="721" spans="1:16">
@@ -8064,13 +5790,13 @@
         <v>720</v>
       </c>
       <c r="N724" t="s">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="O724" t="s">
-        <v>419</v>
+        <v>21</v>
       </c>
       <c r="P724" t="s">
-        <v>670</v>
+        <v>21</v>
       </c>
     </row>
     <row r="725" spans="1:16">
@@ -8093,13 +5819,13 @@
         <v>724</v>
       </c>
       <c r="N728" t="s">
-        <v>167</v>
+        <v>28</v>
       </c>
       <c r="O728" t="s">
-        <v>420</v>
+        <v>28</v>
       </c>
       <c r="P728" t="s">
-        <v>671</v>
+        <v>26</v>
       </c>
     </row>
     <row r="729" spans="1:16">
@@ -8122,13 +5848,13 @@
         <v>728</v>
       </c>
       <c r="N732" t="s">
-        <v>168</v>
+        <v>28</v>
       </c>
       <c r="O732" t="s">
-        <v>421</v>
+        <v>28</v>
       </c>
       <c r="P732" t="s">
-        <v>672</v>
+        <v>28</v>
       </c>
     </row>
     <row r="733" spans="1:16">
@@ -8151,13 +5877,13 @@
         <v>732</v>
       </c>
       <c r="N736" t="s">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="O736" t="s">
-        <v>422</v>
+        <v>22</v>
       </c>
       <c r="P736" t="s">
-        <v>386</v>
+        <v>21</v>
       </c>
     </row>
     <row r="737" spans="1:16">
@@ -8180,13 +5906,13 @@
         <v>736</v>
       </c>
       <c r="N740" t="s">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="O740" t="s">
-        <v>423</v>
+        <v>22</v>
       </c>
       <c r="P740" t="s">
-        <v>673</v>
+        <v>22</v>
       </c>
     </row>
     <row r="741" spans="1:16">
@@ -8209,13 +5935,13 @@
         <v>740</v>
       </c>
       <c r="N744" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="O744" t="s">
-        <v>424</v>
+        <v>21</v>
       </c>
       <c r="P744" t="s">
-        <v>674</v>
+        <v>29</v>
       </c>
     </row>
     <row r="745" spans="1:16">
@@ -8238,13 +5964,13 @@
         <v>744</v>
       </c>
       <c r="N748" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="O748" t="s">
-        <v>425</v>
+        <v>22</v>
       </c>
       <c r="P748" t="s">
-        <v>675</v>
+        <v>21</v>
       </c>
     </row>
     <row r="749" spans="1:16">
@@ -8267,13 +5993,13 @@
         <v>748</v>
       </c>
       <c r="N752" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="O752" t="s">
-        <v>426</v>
+        <v>21</v>
       </c>
       <c r="P752" t="s">
-        <v>676</v>
+        <v>21</v>
       </c>
     </row>
     <row r="753" spans="1:16">
@@ -8296,13 +6022,13 @@
         <v>752</v>
       </c>
       <c r="N756" t="s">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="O756" t="s">
-        <v>427</v>
+        <v>21</v>
       </c>
       <c r="P756" t="s">
-        <v>677</v>
+        <v>21</v>
       </c>
     </row>
     <row r="757" spans="1:16">
@@ -8325,13 +6051,13 @@
         <v>756</v>
       </c>
       <c r="N760" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="O760" t="s">
-        <v>428</v>
+        <v>21</v>
       </c>
       <c r="P760" t="s">
-        <v>678</v>
+        <v>21</v>
       </c>
     </row>
     <row r="761" spans="1:16">
@@ -8354,13 +6080,13 @@
         <v>760</v>
       </c>
       <c r="N764" t="s">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="O764" t="s">
-        <v>429</v>
+        <v>26</v>
       </c>
       <c r="P764" t="s">
-        <v>679</v>
+        <v>26</v>
       </c>
     </row>
     <row r="765" spans="1:16">
@@ -8383,13 +6109,13 @@
         <v>764</v>
       </c>
       <c r="N768" t="s">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="O768" t="s">
-        <v>430</v>
+        <v>18</v>
       </c>
       <c r="P768" t="s">
-        <v>680</v>
+        <v>20</v>
       </c>
     </row>
     <row r="769" spans="1:16">
@@ -8412,13 +6138,13 @@
         <v>768</v>
       </c>
       <c r="N772" t="s">
-        <v>178</v>
+        <v>29</v>
       </c>
       <c r="O772" t="s">
-        <v>431</v>
+        <v>21</v>
       </c>
       <c r="P772" t="s">
-        <v>681</v>
+        <v>29</v>
       </c>
     </row>
     <row r="773" spans="1:16">
@@ -8441,13 +6167,13 @@
         <v>772</v>
       </c>
       <c r="N776" t="s">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="O776" t="s">
-        <v>432</v>
+        <v>21</v>
       </c>
       <c r="P776" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="777" spans="1:16">
@@ -8470,13 +6196,13 @@
         <v>776</v>
       </c>
       <c r="N780" t="s">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="O780" t="s">
-        <v>433</v>
+        <v>16</v>
       </c>
       <c r="P780" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="781" spans="1:16">
@@ -8499,13 +6225,13 @@
         <v>780</v>
       </c>
       <c r="N784" t="s">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="O784" t="s">
-        <v>434</v>
+        <v>21</v>
       </c>
       <c r="P784" t="s">
-        <v>682</v>
+        <v>29</v>
       </c>
     </row>
     <row r="785" spans="1:16">
@@ -8528,13 +6254,13 @@
         <v>784</v>
       </c>
       <c r="N788" t="s">
-        <v>182</v>
+        <v>21</v>
       </c>
       <c r="O788" t="s">
-        <v>435</v>
+        <v>21</v>
       </c>
       <c r="P788" t="s">
-        <v>224</v>
+        <v>21</v>
       </c>
     </row>
     <row r="789" spans="1:16">
@@ -8557,13 +6283,13 @@
         <v>788</v>
       </c>
       <c r="N792" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="O792" t="s">
-        <v>436</v>
+        <v>29</v>
       </c>
       <c r="P792" t="s">
-        <v>683</v>
+        <v>29</v>
       </c>
     </row>
     <row r="793" spans="1:16">
@@ -8586,13 +6312,13 @@
         <v>792</v>
       </c>
       <c r="N796" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="O796" t="s">
-        <v>437</v>
+        <v>21</v>
       </c>
       <c r="P796" t="s">
-        <v>684</v>
+        <v>21</v>
       </c>
     </row>
     <row r="797" spans="1:16">
@@ -8615,13 +6341,13 @@
         <v>796</v>
       </c>
       <c r="N800" t="s">
-        <v>184</v>
+        <v>28</v>
       </c>
       <c r="O800" t="s">
-        <v>438</v>
+        <v>28</v>
       </c>
       <c r="P800" t="s">
-        <v>685</v>
+        <v>26</v>
       </c>
     </row>
     <row r="801" spans="1:16">
@@ -8644,13 +6370,13 @@
         <v>800</v>
       </c>
       <c r="N804" t="s">
-        <v>185</v>
+        <v>28</v>
       </c>
       <c r="O804" t="s">
-        <v>439</v>
+        <v>28</v>
       </c>
       <c r="P804" t="s">
-        <v>686</v>
+        <v>28</v>
       </c>
     </row>
     <row r="805" spans="1:16">
@@ -8673,13 +6399,13 @@
         <v>804</v>
       </c>
       <c r="N808" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="O808" t="s">
-        <v>440</v>
+        <v>21</v>
       </c>
       <c r="P808" t="s">
-        <v>687</v>
+        <v>21</v>
       </c>
     </row>
     <row r="809" spans="1:16">
@@ -8702,13 +6428,13 @@
         <v>808</v>
       </c>
       <c r="N812" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="O812" t="s">
-        <v>441</v>
+        <v>21</v>
       </c>
       <c r="P812" t="s">
-        <v>688</v>
+        <v>21</v>
       </c>
     </row>
     <row r="813" spans="1:16">
@@ -8731,13 +6457,13 @@
         <v>812</v>
       </c>
       <c r="N816" t="s">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="O816" t="s">
-        <v>442</v>
+        <v>30</v>
       </c>
       <c r="P816" t="s">
-        <v>689</v>
+        <v>30</v>
       </c>
     </row>
     <row r="817" spans="1:16">
@@ -8760,13 +6486,13 @@
         <v>816</v>
       </c>
       <c r="N820" t="s">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="O820" t="s">
-        <v>443</v>
+        <v>21</v>
       </c>
       <c r="P820" t="s">
-        <v>690</v>
+        <v>21</v>
       </c>
     </row>
     <row r="821" spans="1:16">
@@ -8789,13 +6515,13 @@
         <v>820</v>
       </c>
       <c r="N824" t="s">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="O824" t="s">
-        <v>444</v>
+        <v>21</v>
       </c>
       <c r="P824" t="s">
-        <v>691</v>
+        <v>21</v>
       </c>
     </row>
     <row r="825" spans="1:16">
@@ -8818,13 +6544,13 @@
         <v>824</v>
       </c>
       <c r="N828" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="O828" t="s">
-        <v>445</v>
+        <v>21</v>
       </c>
       <c r="P828" t="s">
-        <v>434</v>
+        <v>21</v>
       </c>
     </row>
     <row r="829" spans="1:16">
@@ -8847,13 +6573,13 @@
         <v>828</v>
       </c>
       <c r="N832" t="s">
-        <v>192</v>
+        <v>29</v>
       </c>
       <c r="O832" t="s">
-        <v>446</v>
+        <v>21</v>
       </c>
       <c r="P832" t="s">
-        <v>692</v>
+        <v>29</v>
       </c>
     </row>
     <row r="833" spans="1:16">
@@ -8876,13 +6602,13 @@
         <v>832</v>
       </c>
       <c r="N836" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="O836" t="s">
-        <v>447</v>
+        <v>22</v>
       </c>
       <c r="P836" t="s">
-        <v>693</v>
+        <v>22</v>
       </c>
     </row>
     <row r="837" spans="1:16">
@@ -8905,13 +6631,13 @@
         <v>836</v>
       </c>
       <c r="N840" t="s">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="O840" t="s">
-        <v>448</v>
+        <v>19</v>
       </c>
       <c r="P840" t="s">
-        <v>694</v>
+        <v>20</v>
       </c>
     </row>
     <row r="841" spans="1:16">
@@ -8934,13 +6660,13 @@
         <v>840</v>
       </c>
       <c r="N844" t="s">
-        <v>195</v>
+        <v>29</v>
       </c>
       <c r="O844" t="s">
-        <v>449</v>
+        <v>29</v>
       </c>
       <c r="P844" t="s">
-        <v>695</v>
+        <v>29</v>
       </c>
     </row>
     <row r="845" spans="1:16">
@@ -8963,13 +6689,13 @@
         <v>844</v>
       </c>
       <c r="N848" t="s">
-        <v>196</v>
+        <v>30</v>
       </c>
       <c r="O848" t="s">
-        <v>450</v>
+        <v>30</v>
       </c>
       <c r="P848" t="s">
-        <v>696</v>
+        <v>31</v>
       </c>
     </row>
     <row r="849" spans="1:16">
@@ -8992,13 +6718,13 @@
         <v>848</v>
       </c>
       <c r="N852" t="s">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c r="O852" t="s">
-        <v>451</v>
+        <v>16</v>
       </c>
       <c r="P852" t="s">
-        <v>697</v>
+        <v>20</v>
       </c>
     </row>
     <row r="853" spans="1:16">
@@ -9021,13 +6747,13 @@
         <v>852</v>
       </c>
       <c r="N856" t="s">
-        <v>198</v>
+        <v>31</v>
       </c>
       <c r="O856" t="s">
-        <v>452</v>
+        <v>30</v>
       </c>
       <c r="P856" t="s">
-        <v>698</v>
+        <v>30</v>
       </c>
     </row>
     <row r="857" spans="1:16">
@@ -9050,13 +6776,13 @@
         <v>856</v>
       </c>
       <c r="N860" t="s">
-        <v>199</v>
+        <v>21</v>
       </c>
       <c r="O860" t="s">
-        <v>453</v>
+        <v>21</v>
       </c>
       <c r="P860" t="s">
-        <v>699</v>
+        <v>21</v>
       </c>
     </row>
     <row r="861" spans="1:16">
@@ -9079,13 +6805,13 @@
         <v>860</v>
       </c>
       <c r="N864" t="s">
-        <v>200</v>
+        <v>31</v>
       </c>
       <c r="O864" t="s">
-        <v>454</v>
+        <v>30</v>
       </c>
       <c r="P864" t="s">
-        <v>700</v>
+        <v>30</v>
       </c>
     </row>
     <row r="865" spans="1:16">
@@ -9108,13 +6834,13 @@
         <v>864</v>
       </c>
       <c r="N868" t="s">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c r="O868" t="s">
-        <v>455</v>
+        <v>21</v>
       </c>
       <c r="P868" t="s">
-        <v>701</v>
+        <v>29</v>
       </c>
     </row>
     <row r="869" spans="1:16">
@@ -9137,13 +6863,13 @@
         <v>868</v>
       </c>
       <c r="N872" t="s">
-        <v>202</v>
+        <v>26</v>
       </c>
       <c r="O872" t="s">
-        <v>456</v>
+        <v>28</v>
       </c>
       <c r="P872" t="s">
-        <v>702</v>
+        <v>22</v>
       </c>
     </row>
     <row r="873" spans="1:16">
@@ -9166,13 +6892,13 @@
         <v>872</v>
       </c>
       <c r="N876" t="s">
-        <v>203</v>
+        <v>26</v>
       </c>
       <c r="O876" t="s">
-        <v>457</v>
+        <v>28</v>
       </c>
       <c r="P876" t="s">
-        <v>703</v>
+        <v>26</v>
       </c>
     </row>
     <row r="877" spans="1:16">
@@ -9195,13 +6921,13 @@
         <v>876</v>
       </c>
       <c r="N880" t="s">
-        <v>204</v>
+        <v>29</v>
       </c>
       <c r="O880" t="s">
-        <v>458</v>
+        <v>21</v>
       </c>
       <c r="P880" t="s">
-        <v>704</v>
+        <v>29</v>
       </c>
     </row>
     <row r="881" spans="1:16">
@@ -9224,13 +6950,13 @@
         <v>880</v>
       </c>
       <c r="N884" t="s">
-        <v>205</v>
+        <v>21</v>
       </c>
       <c r="O884" t="s">
-        <v>459</v>
+        <v>21</v>
       </c>
       <c r="P884" t="s">
-        <v>631</v>
+        <v>21</v>
       </c>
     </row>
     <row r="885" spans="1:16">
@@ -9253,13 +6979,13 @@
         <v>884</v>
       </c>
       <c r="N888" t="s">
-        <v>206</v>
+        <v>30</v>
       </c>
       <c r="O888" t="s">
-        <v>460</v>
+        <v>30</v>
       </c>
       <c r="P888" t="s">
-        <v>218</v>
+        <v>31</v>
       </c>
     </row>
     <row r="889" spans="1:16">
@@ -9282,13 +7008,13 @@
         <v>888</v>
       </c>
       <c r="N892" t="s">
-        <v>207</v>
+        <v>21</v>
       </c>
       <c r="O892" t="s">
-        <v>461</v>
+        <v>21</v>
       </c>
       <c r="P892" t="s">
-        <v>705</v>
+        <v>21</v>
       </c>
     </row>
     <row r="893" spans="1:16">
@@ -9311,13 +7037,13 @@
         <v>892</v>
       </c>
       <c r="N896" t="s">
-        <v>208</v>
+        <v>29</v>
       </c>
       <c r="O896" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="P896" t="s">
-        <v>706</v>
+        <v>21</v>
       </c>
     </row>
     <row r="897" spans="1:16">
@@ -9340,13 +7066,13 @@
         <v>896</v>
       </c>
       <c r="N900" t="s">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="O900" t="s">
-        <v>462</v>
+        <v>30</v>
       </c>
       <c r="P900" t="s">
-        <v>707</v>
+        <v>30</v>
       </c>
     </row>
     <row r="901" spans="1:16">
@@ -9369,13 +7095,13 @@
         <v>900</v>
       </c>
       <c r="N904" t="s">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="O904" t="s">
-        <v>463</v>
+        <v>21</v>
       </c>
       <c r="P904" t="s">
-        <v>708</v>
+        <v>29</v>
       </c>
     </row>
     <row r="905" spans="1:16">
@@ -9398,13 +7124,13 @@
         <v>904</v>
       </c>
       <c r="N908" t="s">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="O908" t="s">
-        <v>464</v>
+        <v>22</v>
       </c>
       <c r="P908" t="s">
-        <v>709</v>
+        <v>22</v>
       </c>
     </row>
     <row r="909" spans="1:16">
@@ -9427,13 +7153,13 @@
         <v>908</v>
       </c>
       <c r="N912" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="O912" t="s">
-        <v>465</v>
+        <v>18</v>
       </c>
       <c r="P912" t="s">
-        <v>710</v>
+        <v>20</v>
       </c>
     </row>
     <row r="913" spans="1:16">
@@ -9456,13 +7182,13 @@
         <v>912</v>
       </c>
       <c r="N916" t="s">
-        <v>213</v>
+        <v>29</v>
       </c>
       <c r="O916" t="s">
-        <v>466</v>
+        <v>29</v>
       </c>
       <c r="P916" t="s">
-        <v>711</v>
+        <v>29</v>
       </c>
     </row>
     <row r="917" spans="1:16">
@@ -9485,13 +7211,13 @@
         <v>916</v>
       </c>
       <c r="N920" t="s">
-        <v>214</v>
+        <v>30</v>
       </c>
       <c r="O920" t="s">
-        <v>467</v>
+        <v>30</v>
       </c>
       <c r="P920" t="s">
-        <v>712</v>
+        <v>31</v>
       </c>
     </row>
     <row r="921" spans="1:16">
@@ -9514,13 +7240,13 @@
         <v>920</v>
       </c>
       <c r="N924" t="s">
-        <v>215</v>
+        <v>20</v>
       </c>
       <c r="O924" t="s">
-        <v>468</v>
+        <v>16</v>
       </c>
       <c r="P924" t="s">
-        <v>713</v>
+        <v>20</v>
       </c>
     </row>
     <row r="925" spans="1:16">
@@ -9543,13 +7269,13 @@
         <v>924</v>
       </c>
       <c r="N928" t="s">
-        <v>216</v>
+        <v>31</v>
       </c>
       <c r="O928" t="s">
-        <v>469</v>
+        <v>30</v>
       </c>
       <c r="P928" t="s">
-        <v>714</v>
+        <v>31</v>
       </c>
     </row>
     <row r="929" spans="1:16">
@@ -9572,13 +7298,13 @@
         <v>928</v>
       </c>
       <c r="N932" t="s">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="O932" t="s">
-        <v>427</v>
+        <v>21</v>
       </c>
       <c r="P932" t="s">
-        <v>715</v>
+        <v>21</v>
       </c>
     </row>
     <row r="933" spans="1:16">
@@ -9601,13 +7327,13 @@
         <v>932</v>
       </c>
       <c r="N936" t="s">
-        <v>218</v>
+        <v>31</v>
       </c>
       <c r="O936" t="s">
-        <v>470</v>
+        <v>30</v>
       </c>
       <c r="P936" t="s">
-        <v>716</v>
+        <v>30</v>
       </c>
     </row>
     <row r="937" spans="1:16">
@@ -9630,13 +7356,13 @@
         <v>936</v>
       </c>
       <c r="N940" t="s">
-        <v>219</v>
+        <v>29</v>
       </c>
       <c r="O940" t="s">
-        <v>471</v>
+        <v>21</v>
       </c>
       <c r="P940" t="s">
-        <v>717</v>
+        <v>29</v>
       </c>
     </row>
     <row r="941" spans="1:16">
@@ -9659,13 +7385,13 @@
         <v>940</v>
       </c>
       <c r="N944" t="s">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="O944" t="s">
-        <v>472</v>
+        <v>28</v>
       </c>
       <c r="P944" t="s">
-        <v>718</v>
+        <v>22</v>
       </c>
     </row>
     <row r="945" spans="1:16">
@@ -9688,13 +7414,13 @@
         <v>944</v>
       </c>
       <c r="N948" t="s">
-        <v>221</v>
+        <v>28</v>
       </c>
       <c r="O948" t="s">
-        <v>473</v>
+        <v>28</v>
       </c>
       <c r="P948" t="s">
-        <v>602</v>
+        <v>26</v>
       </c>
     </row>
     <row r="949" spans="1:16">
@@ -9717,13 +7443,13 @@
         <v>948</v>
       </c>
       <c r="N952" t="s">
-        <v>222</v>
+        <v>29</v>
       </c>
       <c r="O952" t="s">
-        <v>474</v>
+        <v>21</v>
       </c>
       <c r="P952" t="s">
-        <v>719</v>
+        <v>29</v>
       </c>
     </row>
     <row r="953" spans="1:16">
@@ -9746,13 +7472,13 @@
         <v>952</v>
       </c>
       <c r="N956" t="s">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="O956" t="s">
-        <v>475</v>
+        <v>22</v>
       </c>
       <c r="P956" t="s">
-        <v>720</v>
+        <v>22</v>
       </c>
     </row>
     <row r="957" spans="1:16">
@@ -9775,13 +7501,13 @@
         <v>956</v>
       </c>
       <c r="N960" t="s">
-        <v>223</v>
+        <v>30</v>
       </c>
       <c r="O960" t="s">
-        <v>476</v>
+        <v>30</v>
       </c>
       <c r="P960" t="s">
-        <v>721</v>
+        <v>31</v>
       </c>
     </row>
     <row r="961" spans="1:16">
@@ -9804,13 +7530,13 @@
         <v>960</v>
       </c>
       <c r="N964" t="s">
-        <v>224</v>
+        <v>21</v>
       </c>
       <c r="O964" t="s">
-        <v>477</v>
+        <v>22</v>
       </c>
       <c r="P964" t="s">
-        <v>722</v>
+        <v>21</v>
       </c>
     </row>
     <row r="965" spans="1:16">
@@ -9833,13 +7559,13 @@
         <v>964</v>
       </c>
       <c r="N968" t="s">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="O968" t="s">
-        <v>478</v>
+        <v>21</v>
       </c>
       <c r="P968" t="s">
-        <v>723</v>
+        <v>21</v>
       </c>
     </row>
     <row r="969" spans="1:16">
@@ -9862,13 +7588,13 @@
         <v>968</v>
       </c>
       <c r="N972" t="s">
-        <v>226</v>
+        <v>30</v>
       </c>
       <c r="O972" t="s">
-        <v>479</v>
+        <v>32</v>
       </c>
       <c r="P972" t="s">
-        <v>724</v>
+        <v>30</v>
       </c>
     </row>
     <row r="973" spans="1:16">
@@ -9891,13 +7617,13 @@
         <v>972</v>
       </c>
       <c r="N976" t="s">
-        <v>227</v>
+        <v>29</v>
       </c>
       <c r="O976" t="s">
-        <v>480</v>
+        <v>21</v>
       </c>
       <c r="P976" t="s">
-        <v>725</v>
+        <v>21</v>
       </c>
     </row>
     <row r="977" spans="1:16">
@@ -9920,13 +7646,13 @@
         <v>976</v>
       </c>
       <c r="N980" t="s">
-        <v>228</v>
+        <v>22</v>
       </c>
       <c r="O980" t="s">
-        <v>481</v>
+        <v>26</v>
       </c>
       <c r="P980" t="s">
-        <v>726</v>
+        <v>22</v>
       </c>
     </row>
     <row r="981" spans="1:16">
@@ -9949,13 +7675,13 @@
         <v>980</v>
       </c>
       <c r="N984" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
       <c r="O984" t="s">
-        <v>482</v>
+        <v>18</v>
       </c>
       <c r="P984" t="s">
-        <v>727</v>
+        <v>20</v>
       </c>
     </row>
     <row r="985" spans="1:16">
@@ -9978,13 +7704,13 @@
         <v>984</v>
       </c>
       <c r="N988" t="s">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="O988" t="s">
-        <v>483</v>
+        <v>29</v>
       </c>
       <c r="P988" t="s">
-        <v>728</v>
+        <v>29</v>
       </c>
     </row>
     <row r="989" spans="1:16">
@@ -10007,13 +7733,13 @@
         <v>988</v>
       </c>
       <c r="N992" t="s">
-        <v>231</v>
+        <v>32</v>
       </c>
       <c r="O992" t="s">
-        <v>484</v>
+        <v>32</v>
       </c>
       <c r="P992" t="s">
-        <v>729</v>
+        <v>30</v>
       </c>
     </row>
     <row r="993" spans="1:16">
@@ -10036,13 +7762,13 @@
         <v>992</v>
       </c>
       <c r="N996" t="s">
-        <v>232</v>
+        <v>20</v>
       </c>
       <c r="O996" t="s">
-        <v>485</v>
+        <v>16</v>
       </c>
       <c r="P996" t="s">
-        <v>730</v>
+        <v>20</v>
       </c>
     </row>
     <row r="997" spans="1:16">
@@ -10065,13 +7791,13 @@
         <v>996</v>
       </c>
       <c r="N1000" t="s">
-        <v>233</v>
+        <v>30</v>
       </c>
       <c r="O1000" t="s">
-        <v>486</v>
+        <v>30</v>
       </c>
       <c r="P1000" t="s">
-        <v>731</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1001" spans="1:16">
@@ -10094,13 +7820,13 @@
         <v>1000</v>
       </c>
       <c r="N1004" t="s">
-        <v>234</v>
+        <v>21</v>
       </c>
       <c r="O1004" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="P1004" t="s">
-        <v>732</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1005" spans="1:16">
@@ -10123,13 +7849,13 @@
         <v>1004</v>
       </c>
       <c r="N1008" t="s">
-        <v>235</v>
+        <v>30</v>
       </c>
       <c r="O1008" t="s">
-        <v>487</v>
+        <v>30</v>
       </c>
       <c r="P1008" t="s">
-        <v>733</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1009" spans="1:16">
@@ -10152,13 +7878,13 @@
         <v>1008</v>
       </c>
       <c r="N1012" t="s">
-        <v>236</v>
+        <v>30</v>
       </c>
       <c r="O1012" t="s">
-        <v>488</v>
+        <v>32</v>
       </c>
       <c r="P1012" t="s">
-        <v>734</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1013" spans="1:16">
@@ -10181,13 +7907,13 @@
         <v>1012</v>
       </c>
       <c r="N1016" t="s">
-        <v>237</v>
+        <v>26</v>
       </c>
       <c r="O1016" t="s">
-        <v>489</v>
+        <v>28</v>
       </c>
       <c r="P1016" t="s">
-        <v>735</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1017" spans="1:16">
@@ -10210,13 +7936,13 @@
         <v>1016</v>
       </c>
       <c r="N1020" t="s">
-        <v>238</v>
+        <v>28</v>
       </c>
       <c r="O1020" t="s">
-        <v>490</v>
+        <v>28</v>
       </c>
       <c r="P1020" t="s">
-        <v>736</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1021" spans="1:16">
@@ -10239,13 +7965,13 @@
         <v>1020</v>
       </c>
       <c r="N1024" t="s">
-        <v>239</v>
+        <v>29</v>
       </c>
       <c r="O1024" t="s">
-        <v>491</v>
+        <v>21</v>
       </c>
       <c r="P1024" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1025" spans="1:16">
@@ -10268,13 +7994,13 @@
         <v>1024</v>
       </c>
       <c r="N1028" t="s">
-        <v>240</v>
+        <v>21</v>
       </c>
       <c r="O1028" t="s">
-        <v>492</v>
+        <v>21</v>
       </c>
       <c r="P1028" t="s">
-        <v>737</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1029" spans="1:16">
@@ -10297,13 +8023,13 @@
         <v>1028</v>
       </c>
       <c r="N1032" t="s">
-        <v>241</v>
+        <v>30</v>
       </c>
       <c r="O1032" t="s">
-        <v>493</v>
+        <v>30</v>
       </c>
       <c r="P1032" t="s">
-        <v>738</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1033" spans="1:16">
@@ -10326,13 +8052,13 @@
         <v>1032</v>
       </c>
       <c r="N1036" t="s">
-        <v>242</v>
+        <v>21</v>
       </c>
       <c r="O1036" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="P1036" t="s">
-        <v>739</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1037" spans="1:16">
@@ -10355,13 +8081,13 @@
         <v>1036</v>
       </c>
       <c r="N1040" t="s">
-        <v>243</v>
+        <v>21</v>
       </c>
       <c r="O1040" t="s">
-        <v>494</v>
+        <v>21</v>
       </c>
       <c r="P1040" t="s">
-        <v>740</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1041" spans="1:16">
@@ -10384,13 +8110,13 @@
         <v>1040</v>
       </c>
       <c r="N1044" t="s">
-        <v>244</v>
+        <v>21</v>
       </c>
       <c r="O1044" t="s">
-        <v>495</v>
+        <v>21</v>
       </c>
       <c r="P1044" t="s">
-        <v>741</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1045" spans="1:16">
@@ -10413,13 +8139,13 @@
         <v>1044</v>
       </c>
       <c r="N1048" t="s">
-        <v>245</v>
+        <v>29</v>
       </c>
       <c r="O1048" t="s">
-        <v>234</v>
+        <v>21</v>
       </c>
       <c r="P1048" t="s">
-        <v>742</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1049" spans="1:16">
@@ -10442,13 +8168,13 @@
         <v>1048</v>
       </c>
       <c r="N1052" t="s">
-        <v>246</v>
+        <v>22</v>
       </c>
       <c r="O1052" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="P1052" t="s">
-        <v>743</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1053" spans="1:16">
@@ -10471,13 +8197,13 @@
         <v>1052</v>
       </c>
       <c r="N1056" t="s">
-        <v>247</v>
+        <v>19</v>
       </c>
       <c r="O1056" t="s">
-        <v>496</v>
+        <v>18</v>
       </c>
       <c r="P1056" t="s">
-        <v>744</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1057" spans="1:16">
@@ -10500,13 +8226,13 @@
         <v>1056</v>
       </c>
       <c r="N1060" t="s">
-        <v>248</v>
+        <v>29</v>
       </c>
       <c r="O1060" t="s">
-        <v>497</v>
+        <v>29</v>
       </c>
       <c r="P1060" t="s">
-        <v>745</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1061" spans="1:16">
@@ -10529,13 +8255,13 @@
         <v>1060</v>
       </c>
       <c r="N1064" t="s">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="O1064" t="s">
-        <v>498</v>
+        <v>30</v>
       </c>
       <c r="P1064" t="s">
-        <v>746</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1065" spans="1:16">
@@ -10558,13 +8284,13 @@
         <v>1064</v>
       </c>
       <c r="N1068" t="s">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="O1068" t="s">
-        <v>499</v>
+        <v>19</v>
       </c>
       <c r="P1068" t="s">
-        <v>747</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1069" spans="1:16">
@@ -10587,13 +8313,13 @@
         <v>1068</v>
       </c>
       <c r="N1072" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="O1072" t="s">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="P1072" t="s">
-        <v>748</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1073" spans="1:16">
@@ -10616,13 +8342,13 @@
         <v>1072</v>
       </c>
       <c r="N1076" t="s">
-        <v>252</v>
+        <v>29</v>
       </c>
       <c r="O1076" t="s">
-        <v>501</v>
+        <v>29</v>
       </c>
       <c r="P1076" t="s">
-        <v>749</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1077" spans="1:16">
@@ -10645,13 +8371,13 @@
         <v>1076</v>
       </c>
       <c r="N1080" t="s">
-        <v>253</v>
+        <v>31</v>
       </c>
       <c r="O1080" t="s">
-        <v>502</v>
+        <v>30</v>
       </c>
       <c r="P1080" t="s">
-        <v>750</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1081" spans="1:16">
@@ -10674,13 +8400,13 @@
         <v>1080</v>
       </c>
       <c r="N1084" t="s">
-        <v>254</v>
+        <v>21</v>
       </c>
       <c r="O1084" t="s">
-        <v>503</v>
+        <v>21</v>
       </c>
       <c r="P1084" t="s">
-        <v>647</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1085" spans="1:16">
@@ -10703,13 +8429,13 @@
         <v>1084</v>
       </c>
       <c r="N1088" t="s">
-        <v>255</v>
+        <v>26</v>
       </c>
       <c r="O1088" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="P1088" t="s">
-        <v>751</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1089" spans="1:16">
@@ -10732,13 +8458,13 @@
         <v>1088</v>
       </c>
       <c r="N1092" t="s">
-        <v>256</v>
+        <v>28</v>
       </c>
       <c r="O1092" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="P1092" t="s">
-        <v>752</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1093" spans="1:16">
@@ -10761,13 +8487,13 @@
         <v>1092</v>
       </c>
       <c r="N1096" t="s">
-        <v>257</v>
+        <v>22</v>
       </c>
       <c r="O1096" t="s">
-        <v>504</v>
+        <v>22</v>
       </c>
       <c r="P1096" t="s">
-        <v>753</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1097" spans="1:16">
@@ -10848,13 +8574,13 @@
         <v>1104</v>
       </c>
       <c r="N1108" t="s">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="O1108" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1108" t="s">
         <v>20</v>
-      </c>
-      <c r="P1108" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="1109" spans="1:16">
@@ -10877,13 +8603,13 @@
         <v>1108</v>
       </c>
       <c r="N1112" t="s">
-        <v>259</v>
+        <v>21</v>
       </c>
       <c r="O1112" t="s">
-        <v>505</v>
+        <v>22</v>
       </c>
       <c r="P1112" t="s">
-        <v>755</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1113" spans="1:16">
@@ -10906,13 +8632,13 @@
         <v>1112</v>
       </c>
       <c r="N1116" t="s">
-        <v>260</v>
+        <v>22</v>
       </c>
       <c r="O1116" t="s">
-        <v>506</v>
+        <v>26</v>
       </c>
       <c r="P1116" t="s">
-        <v>756</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1117" spans="1:16">
@@ -10935,13 +8661,13 @@
         <v>1116</v>
       </c>
       <c r="N1120" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="O1120" t="s">
-        <v>507</v>
+        <v>26</v>
       </c>
       <c r="P1120" t="s">
-        <v>743</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1121" spans="1:16">
@@ -10964,13 +8690,13 @@
         <v>1120</v>
       </c>
       <c r="N1124" t="s">
-        <v>262</v>
+        <v>18</v>
       </c>
       <c r="O1124" t="s">
-        <v>508</v>
+        <v>18</v>
       </c>
       <c r="P1124" t="s">
-        <v>757</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1125" spans="1:16">
@@ -10993,13 +8719,13 @@
         <v>1124</v>
       </c>
       <c r="N1128" t="s">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="O1128" t="s">
-        <v>509</v>
+        <v>22</v>
       </c>
       <c r="P1128" t="s">
-        <v>758</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1129" spans="1:16">
@@ -11022,13 +8748,13 @@
         <v>1128</v>
       </c>
       <c r="N1132" t="s">
-        <v>264</v>
+        <v>21</v>
       </c>
       <c r="O1132" t="s">
-        <v>510</v>
+        <v>21</v>
       </c>
       <c r="P1132" t="s">
-        <v>759</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1133" spans="1:16">
@@ -11051,13 +8777,13 @@
         <v>1132</v>
       </c>
       <c r="N1136" t="s">
-        <v>265</v>
+        <v>18</v>
       </c>
       <c r="O1136" t="s">
         <v>15</v>
       </c>
       <c r="P1136" t="s">
-        <v>760</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1137" spans="1:16">
@@ -11080,13 +8806,13 @@
         <v>1136</v>
       </c>
       <c r="N1140" t="s">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="O1140" t="s">
-        <v>511</v>
+        <v>21</v>
       </c>
       <c r="P1140" t="s">
-        <v>761</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1141" spans="1:16">
@@ -11109,13 +8835,13 @@
         <v>1140</v>
       </c>
       <c r="N1144" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="O1144" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="P1144" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1145" spans="1:16">
@@ -11138,13 +8864,13 @@
         <v>1144</v>
       </c>
       <c r="N1148" t="s">
-        <v>267</v>
+        <v>22</v>
       </c>
       <c r="O1148" t="s">
-        <v>512</v>
+        <v>22</v>
       </c>
       <c r="P1148" t="s">
-        <v>762</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1149" spans="1:16">
@@ -11167,13 +8893,13 @@
         <v>1148</v>
       </c>
       <c r="N1152" t="s">
-        <v>268</v>
+        <v>16</v>
       </c>
       <c r="O1152" t="s">
-        <v>513</v>
+        <v>19</v>
       </c>
       <c r="P1152" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1153" spans="1:16">
@@ -11196,13 +8922,13 @@
         <v>1152</v>
       </c>
       <c r="N1156" t="s">
-        <v>269</v>
+        <v>16</v>
       </c>
       <c r="O1156" t="s">
-        <v>514</v>
+        <v>18</v>
       </c>
       <c r="P1156" t="s">
-        <v>608</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1157" spans="1:16">
@@ -11225,13 +8951,13 @@
         <v>1156</v>
       </c>
       <c r="N1160" t="s">
-        <v>270</v>
+        <v>26</v>
       </c>
       <c r="O1160" t="s">
-        <v>515</v>
+        <v>28</v>
       </c>
       <c r="P1160" t="s">
-        <v>763</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1161" spans="1:16">
@@ -11254,13 +8980,13 @@
         <v>1160</v>
       </c>
       <c r="N1164" t="s">
-        <v>271</v>
+        <v>16</v>
       </c>
       <c r="O1164" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P1164" t="s">
-        <v>764</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1165" spans="1:16">
@@ -11341,13 +9067,13 @@
         <v>1172</v>
       </c>
       <c r="N1176" t="s">
-        <v>272</v>
+        <v>24</v>
       </c>
       <c r="O1176" t="s">
         <v>15</v>
       </c>
       <c r="P1176" t="s">
-        <v>765</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1177" spans="1:16">
@@ -11428,7 +9154,7 @@
         <v>1184</v>
       </c>
       <c r="N1188" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O1188" t="s">
         <v>15</v>
@@ -11463,7 +9189,7 @@
         <v>15</v>
       </c>
       <c r="P1192" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1193" spans="1:16">
@@ -11486,13 +9212,13 @@
         <v>1192</v>
       </c>
       <c r="N1196" t="s">
-        <v>273</v>
+        <v>19</v>
       </c>
       <c r="O1196" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P1196" t="s">
-        <v>766</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1197" spans="1:16">
@@ -11631,13 +9357,13 @@
         <v>1212</v>
       </c>
       <c r="N1216" t="s">
-        <v>274</v>
+        <v>28</v>
       </c>
       <c r="O1216" t="s">
-        <v>516</v>
+        <v>28</v>
       </c>
       <c r="P1216" t="s">
-        <v>767</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1217" spans="1:16">
@@ -11660,13 +9386,13 @@
         <v>1216</v>
       </c>
       <c r="N1220" t="s">
-        <v>275</v>
+        <v>18</v>
       </c>
       <c r="O1220" t="s">
         <v>15</v>
       </c>
       <c r="P1220" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1221" spans="1:16">
@@ -11718,13 +9444,13 @@
         <v>1224</v>
       </c>
       <c r="N1228" t="s">
-        <v>276</v>
+        <v>18</v>
       </c>
       <c r="O1228" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P1228" t="s">
-        <v>768</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1229" spans="1:16">
@@ -11747,13 +9473,13 @@
         <v>1228</v>
       </c>
       <c r="N1232" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O1232" t="s">
-        <v>517</v>
+        <v>18</v>
       </c>
       <c r="P1232" t="s">
-        <v>769</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1233" spans="1:16">
@@ -11776,13 +9502,13 @@
         <v>1232</v>
       </c>
       <c r="N1236" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="O1236" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P1236" t="s">
-        <v>770</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1237" spans="1:16">
@@ -11805,13 +9531,13 @@
         <v>1236</v>
       </c>
       <c r="N1240" t="s">
-        <v>277</v>
+        <v>26</v>
       </c>
       <c r="O1240" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P1240" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1241" spans="1:16">
@@ -11834,13 +9560,13 @@
         <v>1240</v>
       </c>
       <c r="N1244" t="s">
-        <v>278</v>
+        <v>19</v>
       </c>
       <c r="O1244" t="s">
-        <v>518</v>
+        <v>18</v>
       </c>
       <c r="P1244" t="s">
-        <v>771</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1245" spans="1:16">
@@ -11892,13 +9618,13 @@
         <v>1248</v>
       </c>
       <c r="N1252" t="s">
-        <v>279</v>
+        <v>24</v>
       </c>
       <c r="O1252" t="s">
-        <v>519</v>
+        <v>20</v>
       </c>
       <c r="P1252" t="s">
-        <v>772</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1253" spans="1:16">
@@ -11921,7 +9647,7 @@
         <v>1252</v>
       </c>
       <c r="N1256" t="s">
-        <v>280</v>
+        <v>19</v>
       </c>
       <c r="O1256" t="s">
         <v>15</v>
@@ -11950,13 +9676,13 @@
         <v>1256</v>
       </c>
       <c r="N1260" t="s">
-        <v>281</v>
+        <v>18</v>
       </c>
       <c r="O1260" t="s">
         <v>15</v>
       </c>
       <c r="P1260" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1261" spans="1:16">
@@ -11979,13 +9705,13 @@
         <v>1260</v>
       </c>
       <c r="N1264" t="s">
-        <v>282</v>
+        <v>18</v>
       </c>
       <c r="O1264" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P1264" t="s">
-        <v>773</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1265" spans="1:16">
@@ -12008,13 +9734,13 @@
         <v>1264</v>
       </c>
       <c r="N1268" t="s">
-        <v>283</v>
+        <v>20</v>
       </c>
       <c r="O1268" t="s">
-        <v>520</v>
+        <v>20</v>
       </c>
       <c r="P1268" t="s">
-        <v>774</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1269" spans="1:16">
@@ -12037,13 +9763,13 @@
         <v>1268</v>
       </c>
       <c r="N1272" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O1272" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P1272" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1273" spans="1:16">
@@ -12095,13 +9821,13 @@
         <v>1276</v>
       </c>
       <c r="N1280" t="s">
-        <v>284</v>
+        <v>20</v>
       </c>
       <c r="O1280" t="s">
-        <v>521</v>
+        <v>20</v>
       </c>
       <c r="P1280" t="s">
-        <v>775</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1281" spans="1:16">
@@ -12275,7 +10001,7 @@
         <v>15</v>
       </c>
       <c r="P1304" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1305" spans="1:16">
@@ -12559,13 +10285,13 @@
         <v>1340</v>
       </c>
       <c r="N1344" t="s">
-        <v>285</v>
+        <v>18</v>
       </c>
       <c r="O1344" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P1344" t="s">
-        <v>776</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1345" spans="1:16">
@@ -12588,13 +10314,13 @@
         <v>1344</v>
       </c>
       <c r="N1348" t="s">
-        <v>286</v>
+        <v>18</v>
       </c>
       <c r="O1348" t="s">
-        <v>522</v>
+        <v>18</v>
       </c>
       <c r="P1348" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1349" spans="1:16">
@@ -12762,13 +10488,13 @@
         <v>1368</v>
       </c>
       <c r="N1372" t="s">
-        <v>287</v>
+        <v>19</v>
       </c>
       <c r="O1372" t="s">
-        <v>523</v>
+        <v>18</v>
       </c>
       <c r="P1372" t="s">
-        <v>777</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1373" spans="1:16">
@@ -12849,13 +10575,13 @@
         <v>1380</v>
       </c>
       <c r="N1384" t="s">
-        <v>288</v>
+        <v>18</v>
       </c>
       <c r="O1384" t="s">
-        <v>448</v>
+        <v>18</v>
       </c>
       <c r="P1384" t="s">
-        <v>283</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1385" spans="1:16">
@@ -13081,13 +10807,13 @@
         <v>1412</v>
       </c>
       <c r="N1416" t="s">
-        <v>289</v>
+        <v>16</v>
       </c>
       <c r="O1416" t="s">
-        <v>524</v>
+        <v>19</v>
       </c>
       <c r="P1416" t="s">
-        <v>553</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1417" spans="1:16">
@@ -13255,13 +10981,13 @@
         <v>1436</v>
       </c>
       <c r="N1440" t="s">
-        <v>290</v>
+        <v>19</v>
       </c>
       <c r="O1440" t="s">
-        <v>525</v>
+        <v>19</v>
       </c>
       <c r="P1440" t="s">
-        <v>778</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1441" spans="1:16">
@@ -13287,7 +11013,7 @@
         <v>15</v>
       </c>
       <c r="O1444" t="s">
-        <v>521</v>
+        <v>15</v>
       </c>
       <c r="P1444" t="s">
         <v>15</v>
@@ -13429,13 +11155,13 @@
         <v>1460</v>
       </c>
       <c r="N1464" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O1464" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P1464" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1465" spans="1:16">
@@ -13632,13 +11358,13 @@
         <v>1488</v>
       </c>
       <c r="N1492" t="s">
-        <v>291</v>
+        <v>18</v>
       </c>
       <c r="O1492" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P1492" t="s">
-        <v>295</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1493" spans="1:16">
@@ -13661,7 +11387,7 @@
         <v>1492</v>
       </c>
       <c r="N1496" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O1496" t="s">
         <v>15</v>
@@ -13864,7 +11590,7 @@
         <v>1520</v>
       </c>
       <c r="N1524" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O1524" t="s">
         <v>15</v>
@@ -13951,13 +11677,13 @@
         <v>1532</v>
       </c>
       <c r="N1536" t="s">
-        <v>292</v>
+        <v>18</v>
       </c>
       <c r="O1536" t="s">
-        <v>526</v>
+        <v>18</v>
       </c>
       <c r="P1536" t="s">
-        <v>779</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1537" spans="1:16">
@@ -14125,13 +11851,13 @@
         <v>1556</v>
       </c>
       <c r="N1560" t="s">
-        <v>293</v>
+        <v>16</v>
       </c>
       <c r="O1560" t="s">
-        <v>527</v>
+        <v>18</v>
       </c>
       <c r="P1560" t="s">
-        <v>780</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1561" spans="1:16">
@@ -14241,13 +11967,13 @@
         <v>1572</v>
       </c>
       <c r="N1576" t="s">
-        <v>294</v>
+        <v>18</v>
       </c>
       <c r="O1576" t="s">
-        <v>528</v>
+        <v>18</v>
       </c>
       <c r="P1576" t="s">
-        <v>281</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1577" spans="1:16">
@@ -14273,7 +11999,7 @@
         <v>15</v>
       </c>
       <c r="O1580" t="s">
-        <v>521</v>
+        <v>15</v>
       </c>
       <c r="P1580" t="s">
         <v>15</v>
@@ -14415,7 +12141,7 @@
         <v>1596</v>
       </c>
       <c r="N1600" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O1600" t="s">
         <v>15</v>
@@ -14502,13 +12228,13 @@
         <v>1608</v>
       </c>
       <c r="N1612" t="s">
-        <v>295</v>
+        <v>18</v>
       </c>
       <c r="O1612" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P1612" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1613" spans="1:16">
@@ -14531,13 +12257,13 @@
         <v>1612</v>
       </c>
       <c r="N1616" t="s">
-        <v>296</v>
+        <v>28</v>
       </c>
       <c r="O1616" t="s">
-        <v>529</v>
+        <v>28</v>
       </c>
       <c r="P1616" t="s">
-        <v>781</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1617" spans="1:16">
@@ -14560,13 +12286,13 @@
         <v>1616</v>
       </c>
       <c r="N1620" t="s">
-        <v>297</v>
+        <v>31</v>
       </c>
       <c r="O1620" t="s">
-        <v>530</v>
+        <v>31</v>
       </c>
       <c r="P1620" t="s">
-        <v>782</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1621" spans="1:16">
@@ -14676,13 +12402,13 @@
         <v>1632</v>
       </c>
       <c r="N1636" t="s">
-        <v>298</v>
+        <v>22</v>
       </c>
       <c r="O1636" t="s">
-        <v>531</v>
+        <v>26</v>
       </c>
       <c r="P1636" t="s">
-        <v>783</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1637" spans="1:16">
@@ -14734,13 +12460,13 @@
         <v>1640</v>
       </c>
       <c r="N1644" t="s">
-        <v>299</v>
+        <v>22</v>
       </c>
       <c r="O1644" t="s">
-        <v>532</v>
+        <v>22</v>
       </c>
       <c r="P1644" t="s">
-        <v>784</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1645" spans="1:16">
@@ -14792,13 +12518,13 @@
         <v>1648</v>
       </c>
       <c r="N1652" t="s">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="O1652" t="s">
-        <v>533</v>
+        <v>28</v>
       </c>
       <c r="P1652" t="s">
-        <v>785</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1653" spans="1:16">
@@ -14821,13 +12547,13 @@
         <v>1652</v>
       </c>
       <c r="N1656" t="s">
-        <v>301</v>
+        <v>31</v>
       </c>
       <c r="O1656" t="s">
-        <v>534</v>
+        <v>33</v>
       </c>
       <c r="P1656" t="s">
-        <v>786</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1657" spans="1:16">
@@ -14856,7 +12582,7 @@
         <v>15</v>
       </c>
       <c r="P1660" t="s">
-        <v>787</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1661" spans="1:16">
@@ -14908,13 +12634,13 @@
         <v>1664</v>
       </c>
       <c r="N1668" t="s">
-        <v>302</v>
+        <v>26</v>
       </c>
       <c r="O1668" t="s">
-        <v>535</v>
+        <v>28</v>
       </c>
       <c r="P1668" t="s">
-        <v>788</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1669" spans="1:16">
@@ -15001,7 +12727,7 @@
         <v>15</v>
       </c>
       <c r="P1680" t="s">
-        <v>789</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1681" spans="1:16">
@@ -15024,13 +12750,13 @@
         <v>1680</v>
       </c>
       <c r="N1684" t="s">
-        <v>303</v>
+        <v>26</v>
       </c>
       <c r="O1684" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P1684" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1685" spans="1:16">
@@ -15053,13 +12779,13 @@
         <v>1684</v>
       </c>
       <c r="N1688" t="s">
-        <v>304</v>
+        <v>33</v>
       </c>
       <c r="O1688" t="s">
-        <v>536</v>
+        <v>33</v>
       </c>
       <c r="P1688" t="s">
-        <v>790</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1689" spans="1:16">
@@ -15343,13 +13069,13 @@
         <v>1724</v>
       </c>
       <c r="N1728" t="s">
-        <v>305</v>
+        <v>20</v>
       </c>
       <c r="O1728" t="s">
-        <v>537</v>
+        <v>20</v>
       </c>
       <c r="P1728" t="s">
-        <v>791</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1729" spans="1:16">
@@ -15372,7 +13098,7 @@
         <v>1728</v>
       </c>
       <c r="N1732" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O1732" t="s">
         <v>15</v>
@@ -15430,13 +13156,13 @@
         <v>1736</v>
       </c>
       <c r="N1740" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="O1740" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P1740" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1741" spans="1:16">
@@ -15465,7 +13191,7 @@
         <v>15</v>
       </c>
       <c r="P1744" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1745" spans="1:16">
@@ -15517,13 +13243,13 @@
         <v>1748</v>
       </c>
       <c r="N1752" t="s">
-        <v>306</v>
+        <v>22</v>
       </c>
       <c r="O1752" t="s">
-        <v>306</v>
+        <v>22</v>
       </c>
       <c r="P1752" t="s">
-        <v>306</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1753" spans="1:16">

--- a/20180126_SmartCut/20181025_Meeting/3pionts.xlsx
+++ b/20180126_SmartCut/20181025_Meeting/3pionts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2645" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3956" uniqueCount="121">
   <si>
     <t>樓層</t>
   </si>
@@ -320,6 +320,63 @@
   </si>
   <si>
     <t>下層 第一排</t>
+  </si>
+  <si>
+    <t>#4@30</t>
+  </si>
+  <si>
+    <t>#4@15</t>
+  </si>
+  <si>
+    <t>#4@25</t>
+  </si>
+  <si>
+    <t>#4@20</t>
+  </si>
+  <si>
+    <t>#4@18</t>
+  </si>
+  <si>
+    <t>#4@12</t>
+  </si>
+  <si>
+    <t>2#4@12</t>
+  </si>
+  <si>
+    <t>2#4@15</t>
+  </si>
+  <si>
+    <t>2#5@30</t>
+  </si>
+  <si>
+    <t>#4@10</t>
+  </si>
+  <si>
+    <t>2#4@25</t>
+  </si>
+  <si>
+    <t>2#4@18</t>
+  </si>
+  <si>
+    <t>2#4@30</t>
+  </si>
+  <si>
+    <t>2#4@20</t>
+  </si>
+  <si>
+    <t>2#4@10</t>
+  </si>
+  <si>
+    <t>2#5@15</t>
+  </si>
+  <si>
+    <t>2#5@12</t>
+  </si>
+  <si>
+    <t>2#5@18</t>
+  </si>
+  <si>
+    <t>2#5@20</t>
   </si>
 </sst>
 </file>
@@ -794,6 +851,15 @@
       <c r="F4" t="s">
         <v>98</v>
       </c>
+      <c r="N4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O4" t="s">
+        <v>102</v>
+      </c>
+      <c r="P4" t="s">
+        <v>102</v>
+      </c>
       <c r="Q4">
         <v>525</v>
       </c>
@@ -847,6 +913,15 @@
       <c r="F8" t="s">
         <v>98</v>
       </c>
+      <c r="N8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" t="s">
+        <v>102</v>
+      </c>
+      <c r="P8" t="s">
+        <v>102</v>
+      </c>
       <c r="Q8">
         <v>620</v>
       </c>
@@ -900,6 +975,15 @@
       <c r="F12" t="s">
         <v>98</v>
       </c>
+      <c r="N12" t="s">
+        <v>103</v>
+      </c>
+      <c r="O12" t="s">
+        <v>105</v>
+      </c>
+      <c r="P12" t="s">
+        <v>104</v>
+      </c>
       <c r="Q12">
         <v>620</v>
       </c>
@@ -953,6 +1037,15 @@
       <c r="F16" t="s">
         <v>98</v>
       </c>
+      <c r="N16" t="s">
+        <v>104</v>
+      </c>
+      <c r="O16" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" t="s">
+        <v>102</v>
+      </c>
       <c r="Q16">
         <v>525</v>
       </c>
@@ -1006,6 +1099,15 @@
       <c r="F20" t="s">
         <v>98</v>
       </c>
+      <c r="N20" t="s">
+        <v>102</v>
+      </c>
+      <c r="O20" t="s">
+        <v>102</v>
+      </c>
+      <c r="P20" t="s">
+        <v>102</v>
+      </c>
       <c r="Q20">
         <v>525</v>
       </c>
@@ -1059,6 +1161,15 @@
       <c r="F24" t="s">
         <v>98</v>
       </c>
+      <c r="N24" t="s">
+        <v>105</v>
+      </c>
+      <c r="O24" t="s">
+        <v>105</v>
+      </c>
+      <c r="P24" t="s">
+        <v>106</v>
+      </c>
       <c r="Q24">
         <v>409.9999999999999</v>
       </c>
@@ -1112,6 +1223,15 @@
       <c r="F28" t="s">
         <v>98</v>
       </c>
+      <c r="N28" t="s">
+        <v>103</v>
+      </c>
+      <c r="O28" t="s">
+        <v>103</v>
+      </c>
+      <c r="P28" t="s">
+        <v>107</v>
+      </c>
       <c r="Q28">
         <v>409.9999999999999</v>
       </c>
@@ -1165,6 +1285,15 @@
       <c r="F32" t="s">
         <v>98</v>
       </c>
+      <c r="N32" t="s">
+        <v>102</v>
+      </c>
+      <c r="O32" t="s">
+        <v>102</v>
+      </c>
+      <c r="P32" t="s">
+        <v>102</v>
+      </c>
       <c r="Q32">
         <v>525</v>
       </c>
@@ -1218,6 +1347,15 @@
       <c r="F36" t="s">
         <v>98</v>
       </c>
+      <c r="N36" t="s">
+        <v>102</v>
+      </c>
+      <c r="O36" t="s">
+        <v>102</v>
+      </c>
+      <c r="P36" t="s">
+        <v>102</v>
+      </c>
       <c r="Q36">
         <v>620</v>
       </c>
@@ -1271,6 +1409,15 @@
       <c r="F40" t="s">
         <v>98</v>
       </c>
+      <c r="N40" t="s">
+        <v>102</v>
+      </c>
+      <c r="O40" t="s">
+        <v>102</v>
+      </c>
+      <c r="P40" t="s">
+        <v>102</v>
+      </c>
       <c r="Q40">
         <v>620</v>
       </c>
@@ -1324,6 +1471,15 @@
       <c r="F44" t="s">
         <v>98</v>
       </c>
+      <c r="N44" t="s">
+        <v>102</v>
+      </c>
+      <c r="O44" t="s">
+        <v>102</v>
+      </c>
+      <c r="P44" t="s">
+        <v>102</v>
+      </c>
       <c r="Q44">
         <v>525</v>
       </c>
@@ -1377,6 +1533,15 @@
       <c r="F48" t="s">
         <v>98</v>
       </c>
+      <c r="N48" t="s">
+        <v>102</v>
+      </c>
+      <c r="O48" t="s">
+        <v>102</v>
+      </c>
+      <c r="P48" t="s">
+        <v>102</v>
+      </c>
       <c r="Q48">
         <v>525</v>
       </c>
@@ -1430,6 +1595,15 @@
       <c r="F52" t="s">
         <v>98</v>
       </c>
+      <c r="N52" t="s">
+        <v>102</v>
+      </c>
+      <c r="O52" t="s">
+        <v>102</v>
+      </c>
+      <c r="P52" t="s">
+        <v>102</v>
+      </c>
       <c r="Q52">
         <v>409.9999999999999</v>
       </c>
@@ -1483,6 +1657,15 @@
       <c r="F56" t="s">
         <v>98</v>
       </c>
+      <c r="N56" t="s">
+        <v>102</v>
+      </c>
+      <c r="O56" t="s">
+        <v>102</v>
+      </c>
+      <c r="P56" t="s">
+        <v>102</v>
+      </c>
       <c r="Q56">
         <v>409.9999999999999</v>
       </c>
@@ -1536,6 +1719,15 @@
       <c r="F60" t="s">
         <v>98</v>
       </c>
+      <c r="N60" t="s">
+        <v>102</v>
+      </c>
+      <c r="O60" t="s">
+        <v>102</v>
+      </c>
+      <c r="P60" t="s">
+        <v>102</v>
+      </c>
       <c r="Q60">
         <v>525</v>
       </c>
@@ -1589,6 +1781,15 @@
       <c r="F64" t="s">
         <v>98</v>
       </c>
+      <c r="N64" t="s">
+        <v>102</v>
+      </c>
+      <c r="O64" t="s">
+        <v>102</v>
+      </c>
+      <c r="P64" t="s">
+        <v>102</v>
+      </c>
       <c r="Q64">
         <v>620</v>
       </c>
@@ -1642,6 +1843,15 @@
       <c r="F68" t="s">
         <v>98</v>
       </c>
+      <c r="N68" t="s">
+        <v>102</v>
+      </c>
+      <c r="O68" t="s">
+        <v>102</v>
+      </c>
+      <c r="P68" t="s">
+        <v>102</v>
+      </c>
       <c r="Q68">
         <v>620</v>
       </c>
@@ -1695,6 +1905,15 @@
       <c r="F72" t="s">
         <v>98</v>
       </c>
+      <c r="N72" t="s">
+        <v>102</v>
+      </c>
+      <c r="O72" t="s">
+        <v>102</v>
+      </c>
+      <c r="P72" t="s">
+        <v>102</v>
+      </c>
       <c r="Q72">
         <v>525</v>
       </c>
@@ -1748,6 +1967,15 @@
       <c r="F76" t="s">
         <v>98</v>
       </c>
+      <c r="N76" t="s">
+        <v>102</v>
+      </c>
+      <c r="O76" t="s">
+        <v>102</v>
+      </c>
+      <c r="P76" t="s">
+        <v>102</v>
+      </c>
       <c r="Q76">
         <v>525</v>
       </c>
@@ -1801,6 +2029,15 @@
       <c r="F80" t="s">
         <v>98</v>
       </c>
+      <c r="N80" t="s">
+        <v>102</v>
+      </c>
+      <c r="O80" t="s">
+        <v>102</v>
+      </c>
+      <c r="P80" t="s">
+        <v>102</v>
+      </c>
       <c r="Q80">
         <v>409.9999999999999</v>
       </c>
@@ -1854,6 +2091,15 @@
       <c r="F84" t="s">
         <v>98</v>
       </c>
+      <c r="N84" t="s">
+        <v>102</v>
+      </c>
+      <c r="O84" t="s">
+        <v>102</v>
+      </c>
+      <c r="P84" t="s">
+        <v>105</v>
+      </c>
       <c r="Q84">
         <v>409.9999999999999</v>
       </c>
@@ -1907,6 +2153,15 @@
       <c r="F88" t="s">
         <v>98</v>
       </c>
+      <c r="N88" t="s">
+        <v>103</v>
+      </c>
+      <c r="O88" t="s">
+        <v>105</v>
+      </c>
+      <c r="P88" t="s">
+        <v>106</v>
+      </c>
       <c r="Q88">
         <v>685</v>
       </c>
@@ -1960,6 +2215,15 @@
       <c r="F92" t="s">
         <v>98</v>
       </c>
+      <c r="N92" t="s">
+        <v>106</v>
+      </c>
+      <c r="O92" t="s">
+        <v>105</v>
+      </c>
+      <c r="P92" t="s">
+        <v>103</v>
+      </c>
       <c r="Q92">
         <v>525</v>
       </c>
@@ -2013,6 +2277,15 @@
       <c r="F96" t="s">
         <v>98</v>
       </c>
+      <c r="N96" t="s">
+        <v>106</v>
+      </c>
+      <c r="O96" t="s">
+        <v>105</v>
+      </c>
+      <c r="P96" t="s">
+        <v>107</v>
+      </c>
       <c r="Q96">
         <v>695</v>
       </c>
@@ -2066,6 +2339,15 @@
       <c r="F100" t="s">
         <v>98</v>
       </c>
+      <c r="N100" t="s">
+        <v>107</v>
+      </c>
+      <c r="O100" t="s">
+        <v>103</v>
+      </c>
+      <c r="P100" t="s">
+        <v>103</v>
+      </c>
       <c r="Q100">
         <v>620</v>
       </c>
@@ -2119,6 +2401,15 @@
       <c r="F104" t="s">
         <v>98</v>
       </c>
+      <c r="N104" t="s">
+        <v>108</v>
+      </c>
+      <c r="O104" t="s">
+        <v>112</v>
+      </c>
+      <c r="P104" t="s">
+        <v>115</v>
+      </c>
       <c r="Q104">
         <v>620</v>
       </c>
@@ -2172,6 +2463,15 @@
       <c r="F108" t="s">
         <v>98</v>
       </c>
+      <c r="N108" t="s">
+        <v>107</v>
+      </c>
+      <c r="O108" t="s">
+        <v>105</v>
+      </c>
+      <c r="P108" t="s">
+        <v>105</v>
+      </c>
       <c r="Q108">
         <v>620</v>
       </c>
@@ -2225,6 +2525,15 @@
       <c r="F112" t="s">
         <v>98</v>
       </c>
+      <c r="N112" t="s">
+        <v>103</v>
+      </c>
+      <c r="O112" t="s">
+        <v>104</v>
+      </c>
+      <c r="P112" t="s">
+        <v>106</v>
+      </c>
       <c r="Q112">
         <v>685</v>
       </c>
@@ -2278,6 +2587,15 @@
       <c r="F116" t="s">
         <v>98</v>
       </c>
+      <c r="N116" t="s">
+        <v>102</v>
+      </c>
+      <c r="O116" t="s">
+        <v>102</v>
+      </c>
+      <c r="P116" t="s">
+        <v>102</v>
+      </c>
       <c r="Q116">
         <v>1220</v>
       </c>
@@ -2331,6 +2649,15 @@
       <c r="F120" t="s">
         <v>98</v>
       </c>
+      <c r="N120" t="s">
+        <v>109</v>
+      </c>
+      <c r="O120" t="s">
+        <v>113</v>
+      </c>
+      <c r="P120" t="s">
+        <v>113</v>
+      </c>
       <c r="Q120">
         <v>620</v>
       </c>
@@ -2384,6 +2711,15 @@
       <c r="F124" t="s">
         <v>98</v>
       </c>
+      <c r="N124" t="s">
+        <v>106</v>
+      </c>
+      <c r="O124" t="s">
+        <v>105</v>
+      </c>
+      <c r="P124" t="s">
+        <v>103</v>
+      </c>
       <c r="Q124">
         <v>540</v>
       </c>
@@ -2437,6 +2773,15 @@
       <c r="F128" t="s">
         <v>98</v>
       </c>
+      <c r="N128" t="s">
+        <v>110</v>
+      </c>
+      <c r="O128" t="s">
+        <v>110</v>
+      </c>
+      <c r="P128" t="s">
+        <v>110</v>
+      </c>
       <c r="Q128">
         <v>540</v>
       </c>
@@ -2490,6 +2835,15 @@
       <c r="F132" t="s">
         <v>98</v>
       </c>
+      <c r="N132" t="s">
+        <v>106</v>
+      </c>
+      <c r="O132" t="s">
+        <v>104</v>
+      </c>
+      <c r="P132" t="s">
+        <v>105</v>
+      </c>
       <c r="Q132">
         <v>540</v>
       </c>
@@ -2543,6 +2897,15 @@
       <c r="F136" t="s">
         <v>98</v>
       </c>
+      <c r="N136" t="s">
+        <v>107</v>
+      </c>
+      <c r="O136" t="s">
+        <v>106</v>
+      </c>
+      <c r="P136" t="s">
+        <v>106</v>
+      </c>
       <c r="Q136">
         <v>685</v>
       </c>
@@ -2596,6 +2959,15 @@
       <c r="F140" t="s">
         <v>98</v>
       </c>
+      <c r="N140" t="s">
+        <v>111</v>
+      </c>
+      <c r="O140" t="s">
+        <v>103</v>
+      </c>
+      <c r="P140" t="s">
+        <v>103</v>
+      </c>
       <c r="Q140">
         <v>525</v>
       </c>
@@ -2649,6 +3021,15 @@
       <c r="F144" t="s">
         <v>98</v>
       </c>
+      <c r="N144" t="s">
+        <v>111</v>
+      </c>
+      <c r="O144" t="s">
+        <v>107</v>
+      </c>
+      <c r="P144" t="s">
+        <v>111</v>
+      </c>
       <c r="Q144">
         <v>695</v>
       </c>
@@ -2702,6 +3083,15 @@
       <c r="F148" t="s">
         <v>98</v>
       </c>
+      <c r="N148" t="s">
+        <v>110</v>
+      </c>
+      <c r="O148" t="s">
+        <v>110</v>
+      </c>
+      <c r="P148" t="s">
+        <v>110</v>
+      </c>
       <c r="Q148">
         <v>540</v>
       </c>
@@ -2755,6 +3145,15 @@
       <c r="F152" t="s">
         <v>98</v>
       </c>
+      <c r="N152" t="s">
+        <v>103</v>
+      </c>
+      <c r="O152" t="s">
+        <v>106</v>
+      </c>
+      <c r="P152" t="s">
+        <v>103</v>
+      </c>
       <c r="Q152">
         <v>1000</v>
       </c>
@@ -2808,6 +3207,15 @@
       <c r="F156" t="s">
         <v>98</v>
       </c>
+      <c r="N156" t="s">
+        <v>103</v>
+      </c>
+      <c r="O156" t="s">
+        <v>105</v>
+      </c>
+      <c r="P156" t="s">
+        <v>103</v>
+      </c>
       <c r="Q156">
         <v>1000</v>
       </c>
@@ -2861,6 +3269,15 @@
       <c r="F160" t="s">
         <v>98</v>
       </c>
+      <c r="N160" t="s">
+        <v>103</v>
+      </c>
+      <c r="O160" t="s">
+        <v>104</v>
+      </c>
+      <c r="P160" t="s">
+        <v>103</v>
+      </c>
       <c r="Q160">
         <v>695</v>
       </c>
@@ -2914,6 +3331,15 @@
       <c r="F164" t="s">
         <v>98</v>
       </c>
+      <c r="N164" t="s">
+        <v>103</v>
+      </c>
+      <c r="O164" t="s">
+        <v>105</v>
+      </c>
+      <c r="P164" t="s">
+        <v>106</v>
+      </c>
       <c r="Q164">
         <v>685</v>
       </c>
@@ -2967,6 +3393,15 @@
       <c r="F168" t="s">
         <v>98</v>
       </c>
+      <c r="N168" t="s">
+        <v>103</v>
+      </c>
+      <c r="O168" t="s">
+        <v>106</v>
+      </c>
+      <c r="P168" t="s">
+        <v>107</v>
+      </c>
       <c r="Q168">
         <v>525</v>
       </c>
@@ -3020,6 +3455,15 @@
       <c r="F172" t="s">
         <v>98</v>
       </c>
+      <c r="N172" t="s">
+        <v>112</v>
+      </c>
+      <c r="O172" t="s">
+        <v>114</v>
+      </c>
+      <c r="P172" t="s">
+        <v>115</v>
+      </c>
       <c r="Q172">
         <v>695</v>
       </c>
@@ -3073,6 +3517,15 @@
       <c r="F176" t="s">
         <v>98</v>
       </c>
+      <c r="N176" t="s">
+        <v>111</v>
+      </c>
+      <c r="O176" t="s">
+        <v>103</v>
+      </c>
+      <c r="P176" t="s">
+        <v>103</v>
+      </c>
       <c r="Q176">
         <v>620</v>
       </c>
@@ -3126,6 +3579,15 @@
       <c r="F180" t="s">
         <v>98</v>
       </c>
+      <c r="N180" t="s">
+        <v>113</v>
+      </c>
+      <c r="O180" t="s">
+        <v>114</v>
+      </c>
+      <c r="P180" t="s">
+        <v>114</v>
+      </c>
       <c r="Q180">
         <v>620</v>
       </c>
@@ -3179,6 +3641,15 @@
       <c r="F184" t="s">
         <v>98</v>
       </c>
+      <c r="N184" t="s">
+        <v>107</v>
+      </c>
+      <c r="O184" t="s">
+        <v>103</v>
+      </c>
+      <c r="P184" t="s">
+        <v>103</v>
+      </c>
       <c r="Q184">
         <v>620</v>
       </c>
@@ -3232,6 +3703,15 @@
       <c r="F188" t="s">
         <v>98</v>
       </c>
+      <c r="N188" t="s">
+        <v>103</v>
+      </c>
+      <c r="O188" t="s">
+        <v>104</v>
+      </c>
+      <c r="P188" t="s">
+        <v>105</v>
+      </c>
       <c r="Q188">
         <v>685</v>
       </c>
@@ -3285,6 +3765,15 @@
       <c r="F192" t="s">
         <v>98</v>
       </c>
+      <c r="N192" t="s">
+        <v>102</v>
+      </c>
+      <c r="O192" t="s">
+        <v>102</v>
+      </c>
+      <c r="P192" t="s">
+        <v>102</v>
+      </c>
       <c r="Q192">
         <v>1220</v>
       </c>
@@ -3338,6 +3827,15 @@
       <c r="F196" t="s">
         <v>98</v>
       </c>
+      <c r="N196" t="s">
+        <v>103</v>
+      </c>
+      <c r="O196" t="s">
+        <v>106</v>
+      </c>
+      <c r="P196" t="s">
+        <v>107</v>
+      </c>
       <c r="Q196">
         <v>540</v>
       </c>
@@ -3391,6 +3889,15 @@
       <c r="F200" t="s">
         <v>98</v>
       </c>
+      <c r="N200" t="s">
+        <v>114</v>
+      </c>
+      <c r="O200" t="s">
+        <v>114</v>
+      </c>
+      <c r="P200" t="s">
+        <v>115</v>
+      </c>
       <c r="Q200">
         <v>540</v>
       </c>
@@ -3444,6 +3951,15 @@
       <c r="F204" t="s">
         <v>98</v>
       </c>
+      <c r="N204" t="s">
+        <v>105</v>
+      </c>
+      <c r="O204" t="s">
+        <v>102</v>
+      </c>
+      <c r="P204" t="s">
+        <v>105</v>
+      </c>
       <c r="Q204">
         <v>1160</v>
       </c>
@@ -3497,6 +4013,15 @@
       <c r="F208" t="s">
         <v>98</v>
       </c>
+      <c r="N208" t="s">
+        <v>107</v>
+      </c>
+      <c r="O208" t="s">
+        <v>103</v>
+      </c>
+      <c r="P208" t="s">
+        <v>103</v>
+      </c>
       <c r="Q208">
         <v>540</v>
       </c>
@@ -3550,6 +4075,15 @@
       <c r="F212" t="s">
         <v>98</v>
       </c>
+      <c r="N212" t="s">
+        <v>107</v>
+      </c>
+      <c r="O212" t="s">
+        <v>103</v>
+      </c>
+      <c r="P212" t="s">
+        <v>103</v>
+      </c>
       <c r="Q212">
         <v>685</v>
       </c>
@@ -3603,6 +4137,15 @@
       <c r="F216" t="s">
         <v>98</v>
       </c>
+      <c r="N216" t="s">
+        <v>109</v>
+      </c>
+      <c r="O216" t="s">
+        <v>115</v>
+      </c>
+      <c r="P216" t="s">
+        <v>115</v>
+      </c>
       <c r="Q216">
         <v>525</v>
       </c>
@@ -3656,6 +4199,15 @@
       <c r="F220" t="s">
         <v>98</v>
       </c>
+      <c r="N220" t="s">
+        <v>115</v>
+      </c>
+      <c r="O220" t="s">
+        <v>112</v>
+      </c>
+      <c r="P220" t="s">
+        <v>115</v>
+      </c>
       <c r="Q220">
         <v>695</v>
       </c>
@@ -3709,6 +4261,15 @@
       <c r="F224" t="s">
         <v>98</v>
       </c>
+      <c r="N224" t="s">
+        <v>103</v>
+      </c>
+      <c r="O224" t="s">
+        <v>106</v>
+      </c>
+      <c r="P224" t="s">
+        <v>107</v>
+      </c>
       <c r="Q224">
         <v>1000</v>
       </c>
@@ -3762,6 +4323,15 @@
       <c r="F228" t="s">
         <v>98</v>
       </c>
+      <c r="N228" t="s">
+        <v>103</v>
+      </c>
+      <c r="O228" t="s">
+        <v>105</v>
+      </c>
+      <c r="P228" t="s">
+        <v>103</v>
+      </c>
       <c r="Q228">
         <v>1000</v>
       </c>
@@ -3815,6 +4385,15 @@
       <c r="F232" t="s">
         <v>98</v>
       </c>
+      <c r="N232" t="s">
+        <v>103</v>
+      </c>
+      <c r="O232" t="s">
+        <v>105</v>
+      </c>
+      <c r="P232" t="s">
+        <v>107</v>
+      </c>
       <c r="Q232">
         <v>695</v>
       </c>
@@ -3868,6 +4447,15 @@
       <c r="F236" t="s">
         <v>98</v>
       </c>
+      <c r="N236" t="s">
+        <v>107</v>
+      </c>
+      <c r="O236" t="s">
+        <v>103</v>
+      </c>
+      <c r="P236" t="s">
+        <v>103</v>
+      </c>
       <c r="Q236">
         <v>685</v>
       </c>
@@ -3921,6 +4509,15 @@
       <c r="F240" t="s">
         <v>98</v>
       </c>
+      <c r="N240" t="s">
+        <v>107</v>
+      </c>
+      <c r="O240" t="s">
+        <v>107</v>
+      </c>
+      <c r="P240" t="s">
+        <v>111</v>
+      </c>
       <c r="Q240">
         <v>525</v>
       </c>
@@ -3974,6 +4571,15 @@
       <c r="F244" t="s">
         <v>98</v>
       </c>
+      <c r="N244" t="s">
+        <v>115</v>
+      </c>
+      <c r="O244" t="s">
+        <v>112</v>
+      </c>
+      <c r="P244" t="s">
+        <v>113</v>
+      </c>
       <c r="Q244">
         <v>695</v>
       </c>
@@ -4027,6 +4633,15 @@
       <c r="F248" t="s">
         <v>98</v>
       </c>
+      <c r="N248" t="s">
+        <v>115</v>
+      </c>
+      <c r="O248" t="s">
+        <v>112</v>
+      </c>
+      <c r="P248" t="s">
+        <v>115</v>
+      </c>
       <c r="Q248">
         <v>620</v>
       </c>
@@ -4080,6 +4695,15 @@
       <c r="F252" t="s">
         <v>98</v>
       </c>
+      <c r="N252" t="s">
+        <v>113</v>
+      </c>
+      <c r="O252" t="s">
+        <v>112</v>
+      </c>
+      <c r="P252" t="s">
+        <v>112</v>
+      </c>
       <c r="Q252">
         <v>620</v>
       </c>
@@ -4133,6 +4757,15 @@
       <c r="F256" t="s">
         <v>98</v>
       </c>
+      <c r="N256" t="s">
+        <v>115</v>
+      </c>
+      <c r="O256" t="s">
+        <v>112</v>
+      </c>
+      <c r="P256" t="s">
+        <v>112</v>
+      </c>
       <c r="Q256">
         <v>620</v>
       </c>
@@ -4186,6 +4819,15 @@
       <c r="F260" t="s">
         <v>98</v>
       </c>
+      <c r="N260" t="s">
+        <v>107</v>
+      </c>
+      <c r="O260" t="s">
+        <v>105</v>
+      </c>
+      <c r="P260" t="s">
+        <v>106</v>
+      </c>
       <c r="Q260">
         <v>685</v>
       </c>
@@ -4239,6 +4881,15 @@
       <c r="F264" t="s">
         <v>98</v>
       </c>
+      <c r="N264" t="s">
+        <v>102</v>
+      </c>
+      <c r="O264" t="s">
+        <v>102</v>
+      </c>
+      <c r="P264" t="s">
+        <v>105</v>
+      </c>
       <c r="Q264">
         <v>1220</v>
       </c>
@@ -4292,6 +4943,15 @@
       <c r="F268" t="s">
         <v>98</v>
       </c>
+      <c r="N268" t="s">
+        <v>112</v>
+      </c>
+      <c r="O268" t="s">
+        <v>112</v>
+      </c>
+      <c r="P268" t="s">
+        <v>115</v>
+      </c>
       <c r="Q268">
         <v>540</v>
       </c>
@@ -4345,6 +5005,15 @@
       <c r="F272" t="s">
         <v>98</v>
       </c>
+      <c r="N272" t="s">
+        <v>112</v>
+      </c>
+      <c r="O272" t="s">
+        <v>112</v>
+      </c>
+      <c r="P272" t="s">
+        <v>113</v>
+      </c>
       <c r="Q272">
         <v>540</v>
       </c>
@@ -4398,6 +5067,15 @@
       <c r="F276" t="s">
         <v>98</v>
       </c>
+      <c r="N276" t="s">
+        <v>105</v>
+      </c>
+      <c r="O276" t="s">
+        <v>104</v>
+      </c>
+      <c r="P276" t="s">
+        <v>105</v>
+      </c>
       <c r="Q276">
         <v>1160</v>
       </c>
@@ -4451,6 +5129,15 @@
       <c r="F280" t="s">
         <v>98</v>
       </c>
+      <c r="N280" t="s">
+        <v>111</v>
+      </c>
+      <c r="O280" t="s">
+        <v>107</v>
+      </c>
+      <c r="P280" t="s">
+        <v>107</v>
+      </c>
       <c r="Q280">
         <v>540</v>
       </c>
@@ -4504,6 +5191,15 @@
       <c r="F284" t="s">
         <v>98</v>
       </c>
+      <c r="N284" t="s">
+        <v>115</v>
+      </c>
+      <c r="O284" t="s">
+        <v>112</v>
+      </c>
+      <c r="P284" t="s">
+        <v>112</v>
+      </c>
       <c r="Q284">
         <v>685</v>
       </c>
@@ -4557,6 +5253,15 @@
       <c r="F288" t="s">
         <v>98</v>
       </c>
+      <c r="N288" t="s">
+        <v>108</v>
+      </c>
+      <c r="O288" t="s">
+        <v>109</v>
+      </c>
+      <c r="P288" t="s">
+        <v>109</v>
+      </c>
       <c r="Q288">
         <v>525</v>
       </c>
@@ -4610,6 +5315,15 @@
       <c r="F292" t="s">
         <v>98</v>
       </c>
+      <c r="N292" t="s">
+        <v>113</v>
+      </c>
+      <c r="O292" t="s">
+        <v>112</v>
+      </c>
+      <c r="P292" t="s">
+        <v>113</v>
+      </c>
       <c r="Q292">
         <v>695</v>
       </c>
@@ -4663,6 +5377,15 @@
       <c r="F296" t="s">
         <v>98</v>
       </c>
+      <c r="N296" t="s">
+        <v>107</v>
+      </c>
+      <c r="O296" t="s">
+        <v>103</v>
+      </c>
+      <c r="P296" t="s">
+        <v>107</v>
+      </c>
       <c r="Q296">
         <v>1000</v>
       </c>
@@ -4716,6 +5439,15 @@
       <c r="F300" t="s">
         <v>98</v>
       </c>
+      <c r="N300" t="s">
+        <v>107</v>
+      </c>
+      <c r="O300" t="s">
+        <v>106</v>
+      </c>
+      <c r="P300" t="s">
+        <v>107</v>
+      </c>
       <c r="Q300">
         <v>1000</v>
       </c>
@@ -4769,6 +5501,15 @@
       <c r="F304" t="s">
         <v>98</v>
       </c>
+      <c r="N304" t="s">
+        <v>107</v>
+      </c>
+      <c r="O304" t="s">
+        <v>103</v>
+      </c>
+      <c r="P304" t="s">
+        <v>111</v>
+      </c>
       <c r="Q304">
         <v>695</v>
       </c>
@@ -4822,6 +5563,15 @@
       <c r="F308" t="s">
         <v>98</v>
       </c>
+      <c r="N308" t="s">
+        <v>111</v>
+      </c>
+      <c r="O308" t="s">
+        <v>107</v>
+      </c>
+      <c r="P308" t="s">
+        <v>107</v>
+      </c>
       <c r="Q308">
         <v>685</v>
       </c>
@@ -4875,6 +5625,15 @@
       <c r="F312" t="s">
         <v>98</v>
       </c>
+      <c r="N312" t="s">
+        <v>113</v>
+      </c>
+      <c r="O312" t="s">
+        <v>115</v>
+      </c>
+      <c r="P312" t="s">
+        <v>109</v>
+      </c>
       <c r="Q312">
         <v>525</v>
       </c>
@@ -4928,6 +5687,15 @@
       <c r="F316" t="s">
         <v>98</v>
       </c>
+      <c r="N316" t="s">
+        <v>115</v>
+      </c>
+      <c r="O316" t="s">
+        <v>115</v>
+      </c>
+      <c r="P316" t="s">
+        <v>109</v>
+      </c>
       <c r="Q316">
         <v>695</v>
       </c>
@@ -4981,6 +5749,15 @@
       <c r="F320" t="s">
         <v>98</v>
       </c>
+      <c r="N320" t="s">
+        <v>109</v>
+      </c>
+      <c r="O320" t="s">
+        <v>115</v>
+      </c>
+      <c r="P320" t="s">
+        <v>115</v>
+      </c>
       <c r="Q320">
         <v>620</v>
       </c>
@@ -5034,6 +5811,15 @@
       <c r="F324" t="s">
         <v>98</v>
       </c>
+      <c r="N324" t="s">
+        <v>109</v>
+      </c>
+      <c r="O324" t="s">
+        <v>115</v>
+      </c>
+      <c r="P324" t="s">
+        <v>115</v>
+      </c>
       <c r="Q324">
         <v>620</v>
       </c>
@@ -5087,6 +5873,15 @@
       <c r="F328" t="s">
         <v>98</v>
       </c>
+      <c r="N328" t="s">
+        <v>109</v>
+      </c>
+      <c r="O328" t="s">
+        <v>115</v>
+      </c>
+      <c r="P328" t="s">
+        <v>115</v>
+      </c>
       <c r="Q328">
         <v>620</v>
       </c>
@@ -5140,6 +5935,15 @@
       <c r="F332" t="s">
         <v>98</v>
       </c>
+      <c r="N332" t="s">
+        <v>107</v>
+      </c>
+      <c r="O332" t="s">
+        <v>106</v>
+      </c>
+      <c r="P332" t="s">
+        <v>103</v>
+      </c>
       <c r="Q332">
         <v>685</v>
       </c>
@@ -5193,6 +5997,15 @@
       <c r="F336" t="s">
         <v>98</v>
       </c>
+      <c r="N336" t="s">
+        <v>104</v>
+      </c>
+      <c r="O336" t="s">
+        <v>104</v>
+      </c>
+      <c r="P336" t="s">
+        <v>106</v>
+      </c>
       <c r="Q336">
         <v>1220</v>
       </c>
@@ -5246,6 +6059,15 @@
       <c r="F340" t="s">
         <v>98</v>
       </c>
+      <c r="N340" t="s">
+        <v>115</v>
+      </c>
+      <c r="O340" t="s">
+        <v>115</v>
+      </c>
+      <c r="P340" t="s">
+        <v>109</v>
+      </c>
       <c r="Q340">
         <v>540</v>
       </c>
@@ -5299,6 +6121,15 @@
       <c r="F344" t="s">
         <v>98</v>
       </c>
+      <c r="N344" t="s">
+        <v>115</v>
+      </c>
+      <c r="O344" t="s">
+        <v>115</v>
+      </c>
+      <c r="P344" t="s">
+        <v>109</v>
+      </c>
       <c r="Q344">
         <v>540</v>
       </c>
@@ -5352,6 +6183,15 @@
       <c r="F348" t="s">
         <v>98</v>
       </c>
+      <c r="N348" t="s">
+        <v>103</v>
+      </c>
+      <c r="O348" t="s">
+        <v>105</v>
+      </c>
+      <c r="P348" t="s">
+        <v>103</v>
+      </c>
       <c r="Q348">
         <v>1160</v>
       </c>
@@ -5405,6 +6245,15 @@
       <c r="F352" t="s">
         <v>98</v>
       </c>
+      <c r="N352" t="s">
+        <v>113</v>
+      </c>
+      <c r="O352" t="s">
+        <v>115</v>
+      </c>
+      <c r="P352" t="s">
+        <v>113</v>
+      </c>
       <c r="Q352">
         <v>540</v>
       </c>
@@ -5458,6 +6307,15 @@
       <c r="F356" t="s">
         <v>98</v>
       </c>
+      <c r="N356" t="s">
+        <v>113</v>
+      </c>
+      <c r="O356" t="s">
+        <v>115</v>
+      </c>
+      <c r="P356" t="s">
+        <v>115</v>
+      </c>
       <c r="Q356">
         <v>685</v>
       </c>
@@ -5511,6 +6369,15 @@
       <c r="F360" t="s">
         <v>98</v>
       </c>
+      <c r="N360" t="s">
+        <v>108</v>
+      </c>
+      <c r="O360" t="s">
+        <v>108</v>
+      </c>
+      <c r="P360" t="s">
+        <v>108</v>
+      </c>
       <c r="Q360">
         <v>525</v>
       </c>
@@ -5564,6 +6431,15 @@
       <c r="F364" t="s">
         <v>98</v>
       </c>
+      <c r="N364" t="s">
+        <v>109</v>
+      </c>
+      <c r="O364" t="s">
+        <v>115</v>
+      </c>
+      <c r="P364" t="s">
+        <v>113</v>
+      </c>
       <c r="Q364">
         <v>695</v>
       </c>
@@ -5617,6 +6493,15 @@
       <c r="F368" t="s">
         <v>98</v>
       </c>
+      <c r="N368" t="s">
+        <v>112</v>
+      </c>
+      <c r="O368" t="s">
+        <v>114</v>
+      </c>
+      <c r="P368" t="s">
+        <v>115</v>
+      </c>
       <c r="Q368">
         <v>1000</v>
       </c>
@@ -5670,6 +6555,15 @@
       <c r="F372" t="s">
         <v>98</v>
       </c>
+      <c r="N372" t="s">
+        <v>107</v>
+      </c>
+      <c r="O372" t="s">
+        <v>103</v>
+      </c>
+      <c r="P372" t="s">
+        <v>107</v>
+      </c>
       <c r="Q372">
         <v>1000</v>
       </c>
@@ -5723,6 +6617,15 @@
       <c r="F376" t="s">
         <v>98</v>
       </c>
+      <c r="N376" t="s">
+        <v>115</v>
+      </c>
+      <c r="O376" t="s">
+        <v>112</v>
+      </c>
+      <c r="P376" t="s">
+        <v>115</v>
+      </c>
       <c r="Q376">
         <v>695</v>
       </c>
@@ -5776,6 +6679,15 @@
       <c r="F380" t="s">
         <v>98</v>
       </c>
+      <c r="N380" t="s">
+        <v>113</v>
+      </c>
+      <c r="O380" t="s">
+        <v>115</v>
+      </c>
+      <c r="P380" t="s">
+        <v>115</v>
+      </c>
       <c r="Q380">
         <v>685</v>
       </c>
@@ -5829,6 +6741,15 @@
       <c r="F384" t="s">
         <v>98</v>
       </c>
+      <c r="N384" t="s">
+        <v>109</v>
+      </c>
+      <c r="O384" t="s">
+        <v>109</v>
+      </c>
+      <c r="P384" t="s">
+        <v>109</v>
+      </c>
       <c r="Q384">
         <v>525</v>
       </c>
@@ -5882,6 +6803,15 @@
       <c r="F388" t="s">
         <v>98</v>
       </c>
+      <c r="N388" t="s">
+        <v>113</v>
+      </c>
+      <c r="O388" t="s">
+        <v>115</v>
+      </c>
+      <c r="P388" t="s">
+        <v>109</v>
+      </c>
       <c r="Q388">
         <v>695</v>
       </c>
@@ -5935,6 +6865,15 @@
       <c r="F392" t="s">
         <v>98</v>
       </c>
+      <c r="N392" t="s">
+        <v>109</v>
+      </c>
+      <c r="O392" t="s">
+        <v>113</v>
+      </c>
+      <c r="P392" t="s">
+        <v>109</v>
+      </c>
       <c r="Q392">
         <v>620</v>
       </c>
@@ -5988,6 +6927,15 @@
       <c r="F396" t="s">
         <v>98</v>
       </c>
+      <c r="N396" t="s">
+        <v>109</v>
+      </c>
+      <c r="O396" t="s">
+        <v>115</v>
+      </c>
+      <c r="P396" t="s">
+        <v>113</v>
+      </c>
       <c r="Q396">
         <v>620</v>
       </c>
@@ -6041,6 +6989,15 @@
       <c r="F400" t="s">
         <v>98</v>
       </c>
+      <c r="N400" t="s">
+        <v>109</v>
+      </c>
+      <c r="O400" t="s">
+        <v>113</v>
+      </c>
+      <c r="P400" t="s">
+        <v>113</v>
+      </c>
       <c r="Q400">
         <v>620</v>
       </c>
@@ -6094,6 +7051,15 @@
       <c r="F404" t="s">
         <v>98</v>
       </c>
+      <c r="N404" t="s">
+        <v>111</v>
+      </c>
+      <c r="O404" t="s">
+        <v>103</v>
+      </c>
+      <c r="P404" t="s">
+        <v>107</v>
+      </c>
       <c r="Q404">
         <v>685</v>
       </c>
@@ -6147,6 +7113,15 @@
       <c r="F408" t="s">
         <v>98</v>
       </c>
+      <c r="N408" t="s">
+        <v>104</v>
+      </c>
+      <c r="O408" t="s">
+        <v>104</v>
+      </c>
+      <c r="P408" t="s">
+        <v>103</v>
+      </c>
       <c r="Q408">
         <v>1220</v>
       </c>
@@ -6200,6 +7175,15 @@
       <c r="F412" t="s">
         <v>98</v>
       </c>
+      <c r="N412" t="s">
+        <v>109</v>
+      </c>
+      <c r="O412" t="s">
+        <v>113</v>
+      </c>
+      <c r="P412" t="s">
+        <v>108</v>
+      </c>
       <c r="Q412">
         <v>540</v>
       </c>
@@ -6253,6 +7237,15 @@
       <c r="F416" t="s">
         <v>98</v>
       </c>
+      <c r="N416" t="s">
+        <v>113</v>
+      </c>
+      <c r="O416" t="s">
+        <v>113</v>
+      </c>
+      <c r="P416" t="s">
+        <v>108</v>
+      </c>
       <c r="Q416">
         <v>540</v>
       </c>
@@ -6306,6 +7299,15 @@
       <c r="F420" t="s">
         <v>98</v>
       </c>
+      <c r="N420" t="s">
+        <v>103</v>
+      </c>
+      <c r="O420" t="s">
+        <v>105</v>
+      </c>
+      <c r="P420" t="s">
+        <v>103</v>
+      </c>
       <c r="Q420">
         <v>1160</v>
       </c>
@@ -6359,6 +7361,15 @@
       <c r="F424" t="s">
         <v>98</v>
       </c>
+      <c r="N424" t="s">
+        <v>109</v>
+      </c>
+      <c r="O424" t="s">
+        <v>109</v>
+      </c>
+      <c r="P424" t="s">
+        <v>109</v>
+      </c>
       <c r="Q424">
         <v>540</v>
       </c>
@@ -6412,6 +7423,15 @@
       <c r="F428" t="s">
         <v>98</v>
       </c>
+      <c r="N428" t="s">
+        <v>109</v>
+      </c>
+      <c r="O428" t="s">
+        <v>113</v>
+      </c>
+      <c r="P428" t="s">
+        <v>113</v>
+      </c>
       <c r="Q428">
         <v>685</v>
       </c>
@@ -6465,6 +7485,15 @@
       <c r="F432" t="s">
         <v>98</v>
       </c>
+      <c r="N432" t="s">
+        <v>116</v>
+      </c>
+      <c r="O432" t="s">
+        <v>108</v>
+      </c>
+      <c r="P432" t="s">
+        <v>108</v>
+      </c>
       <c r="Q432">
         <v>525</v>
       </c>
@@ -6518,6 +7547,15 @@
       <c r="F436" t="s">
         <v>98</v>
       </c>
+      <c r="N436" t="s">
+        <v>109</v>
+      </c>
+      <c r="O436" t="s">
+        <v>115</v>
+      </c>
+      <c r="P436" t="s">
+        <v>109</v>
+      </c>
       <c r="Q436">
         <v>695</v>
       </c>
@@ -6571,6 +7609,15 @@
       <c r="F440" t="s">
         <v>98</v>
       </c>
+      <c r="N440" t="s">
+        <v>115</v>
+      </c>
+      <c r="O440" t="s">
+        <v>112</v>
+      </c>
+      <c r="P440" t="s">
+        <v>115</v>
+      </c>
       <c r="Q440">
         <v>1000</v>
       </c>
@@ -6624,6 +7671,15 @@
       <c r="F444" t="s">
         <v>98</v>
       </c>
+      <c r="N444" t="s">
+        <v>115</v>
+      </c>
+      <c r="O444" t="s">
+        <v>112</v>
+      </c>
+      <c r="P444" t="s">
+        <v>115</v>
+      </c>
       <c r="Q444">
         <v>1000</v>
       </c>
@@ -6677,6 +7733,15 @@
       <c r="F448" t="s">
         <v>98</v>
       </c>
+      <c r="N448" t="s">
+        <v>113</v>
+      </c>
+      <c r="O448" t="s">
+        <v>115</v>
+      </c>
+      <c r="P448" t="s">
+        <v>109</v>
+      </c>
       <c r="Q448">
         <v>695</v>
       </c>
@@ -6730,6 +7795,15 @@
       <c r="F452" t="s">
         <v>98</v>
       </c>
+      <c r="N452" t="s">
+        <v>113</v>
+      </c>
+      <c r="O452" t="s">
+        <v>115</v>
+      </c>
+      <c r="P452" t="s">
+        <v>115</v>
+      </c>
       <c r="Q452">
         <v>685</v>
       </c>
@@ -6783,6 +7857,15 @@
       <c r="F456" t="s">
         <v>98</v>
       </c>
+      <c r="N456" t="s">
+        <v>108</v>
+      </c>
+      <c r="O456" t="s">
+        <v>108</v>
+      </c>
+      <c r="P456" t="s">
+        <v>108</v>
+      </c>
       <c r="Q456">
         <v>525</v>
       </c>
@@ -6836,6 +7919,15 @@
       <c r="F460" t="s">
         <v>98</v>
       </c>
+      <c r="N460" t="s">
+        <v>109</v>
+      </c>
+      <c r="O460" t="s">
+        <v>113</v>
+      </c>
+      <c r="P460" t="s">
+        <v>109</v>
+      </c>
       <c r="Q460">
         <v>695</v>
       </c>
@@ -6889,6 +7981,15 @@
       <c r="F464" t="s">
         <v>98</v>
       </c>
+      <c r="N464" t="s">
+        <v>108</v>
+      </c>
+      <c r="O464" t="s">
+        <v>109</v>
+      </c>
+      <c r="P464" t="s">
+        <v>109</v>
+      </c>
       <c r="Q464">
         <v>620</v>
       </c>
@@ -6942,6 +8043,15 @@
       <c r="F468" t="s">
         <v>98</v>
       </c>
+      <c r="N468" t="s">
+        <v>108</v>
+      </c>
+      <c r="O468" t="s">
+        <v>113</v>
+      </c>
+      <c r="P468" t="s">
+        <v>113</v>
+      </c>
       <c r="Q468">
         <v>620</v>
       </c>
@@ -6995,6 +8105,15 @@
       <c r="F472" t="s">
         <v>98</v>
       </c>
+      <c r="N472" t="s">
+        <v>108</v>
+      </c>
+      <c r="O472" t="s">
+        <v>109</v>
+      </c>
+      <c r="P472" t="s">
+        <v>109</v>
+      </c>
       <c r="Q472">
         <v>620</v>
       </c>
@@ -7048,6 +8167,15 @@
       <c r="F476" t="s">
         <v>98</v>
       </c>
+      <c r="N476" t="s">
+        <v>115</v>
+      </c>
+      <c r="O476" t="s">
+        <v>112</v>
+      </c>
+      <c r="P476" t="s">
+        <v>112</v>
+      </c>
       <c r="Q476">
         <v>685</v>
       </c>
@@ -7101,6 +8229,15 @@
       <c r="F480" t="s">
         <v>98</v>
       </c>
+      <c r="N480" t="s">
+        <v>105</v>
+      </c>
+      <c r="O480" t="s">
+        <v>104</v>
+      </c>
+      <c r="P480" t="s">
+        <v>103</v>
+      </c>
       <c r="Q480">
         <v>1220</v>
       </c>
@@ -7154,6 +8291,15 @@
       <c r="F484" t="s">
         <v>98</v>
       </c>
+      <c r="N484" t="s">
+        <v>109</v>
+      </c>
+      <c r="O484" t="s">
+        <v>109</v>
+      </c>
+      <c r="P484" t="s">
+        <v>108</v>
+      </c>
       <c r="Q484">
         <v>540</v>
       </c>
@@ -7207,6 +8353,15 @@
       <c r="F488" t="s">
         <v>98</v>
       </c>
+      <c r="N488" t="s">
+        <v>109</v>
+      </c>
+      <c r="O488" t="s">
+        <v>109</v>
+      </c>
+      <c r="P488" t="s">
+        <v>108</v>
+      </c>
       <c r="Q488">
         <v>540</v>
       </c>
@@ -7260,6 +8415,15 @@
       <c r="F492" t="s">
         <v>98</v>
       </c>
+      <c r="N492" t="s">
+        <v>103</v>
+      </c>
+      <c r="O492" t="s">
+        <v>105</v>
+      </c>
+      <c r="P492" t="s">
+        <v>103</v>
+      </c>
       <c r="Q492">
         <v>1160</v>
       </c>
@@ -7313,6 +8477,15 @@
       <c r="F496" t="s">
         <v>98</v>
       </c>
+      <c r="N496" t="s">
+        <v>108</v>
+      </c>
+      <c r="O496" t="s">
+        <v>108</v>
+      </c>
+      <c r="P496" t="s">
+        <v>108</v>
+      </c>
       <c r="Q496">
         <v>540</v>
       </c>
@@ -7366,6 +8539,15 @@
       <c r="F500" t="s">
         <v>98</v>
       </c>
+      <c r="N500" t="s">
+        <v>109</v>
+      </c>
+      <c r="O500" t="s">
+        <v>109</v>
+      </c>
+      <c r="P500" t="s">
+        <v>109</v>
+      </c>
       <c r="Q500">
         <v>685</v>
       </c>
@@ -7419,6 +8601,15 @@
       <c r="F504" t="s">
         <v>98</v>
       </c>
+      <c r="N504" t="s">
+        <v>116</v>
+      </c>
+      <c r="O504" t="s">
+        <v>108</v>
+      </c>
+      <c r="P504" t="s">
+        <v>108</v>
+      </c>
       <c r="Q504">
         <v>525</v>
       </c>
@@ -7472,6 +8663,15 @@
       <c r="F508" t="s">
         <v>98</v>
       </c>
+      <c r="N508" t="s">
+        <v>109</v>
+      </c>
+      <c r="O508" t="s">
+        <v>115</v>
+      </c>
+      <c r="P508" t="s">
+        <v>109</v>
+      </c>
       <c r="Q508">
         <v>695</v>
       </c>
@@ -7525,6 +8725,15 @@
       <c r="F512" t="s">
         <v>98</v>
       </c>
+      <c r="N512" t="s">
+        <v>115</v>
+      </c>
+      <c r="O512" t="s">
+        <v>112</v>
+      </c>
+      <c r="P512" t="s">
+        <v>115</v>
+      </c>
       <c r="Q512">
         <v>1000</v>
       </c>
@@ -7578,6 +8787,15 @@
       <c r="F516" t="s">
         <v>98</v>
       </c>
+      <c r="N516" t="s">
+        <v>115</v>
+      </c>
+      <c r="O516" t="s">
+        <v>112</v>
+      </c>
+      <c r="P516" t="s">
+        <v>115</v>
+      </c>
       <c r="Q516">
         <v>1000</v>
       </c>
@@ -7631,6 +8849,15 @@
       <c r="F520" t="s">
         <v>98</v>
       </c>
+      <c r="N520" t="s">
+        <v>109</v>
+      </c>
+      <c r="O520" t="s">
+        <v>113</v>
+      </c>
+      <c r="P520" t="s">
+        <v>109</v>
+      </c>
       <c r="Q520">
         <v>695</v>
       </c>
@@ -7684,6 +8911,15 @@
       <c r="F524" t="s">
         <v>98</v>
       </c>
+      <c r="N524" t="s">
+        <v>109</v>
+      </c>
+      <c r="O524" t="s">
+        <v>113</v>
+      </c>
+      <c r="P524" t="s">
+        <v>113</v>
+      </c>
       <c r="Q524">
         <v>685</v>
       </c>
@@ -7737,6 +8973,15 @@
       <c r="F528" t="s">
         <v>98</v>
       </c>
+      <c r="N528" t="s">
+        <v>108</v>
+      </c>
+      <c r="O528" t="s">
+        <v>108</v>
+      </c>
+      <c r="P528" t="s">
+        <v>116</v>
+      </c>
       <c r="Q528">
         <v>525</v>
       </c>
@@ -7790,6 +9035,15 @@
       <c r="F532" t="s">
         <v>98</v>
       </c>
+      <c r="N532" t="s">
+        <v>109</v>
+      </c>
+      <c r="O532" t="s">
+        <v>109</v>
+      </c>
+      <c r="P532" t="s">
+        <v>108</v>
+      </c>
       <c r="Q532">
         <v>695</v>
       </c>
@@ -7843,6 +9097,15 @@
       <c r="F536" t="s">
         <v>98</v>
       </c>
+      <c r="N536" t="s">
+        <v>108</v>
+      </c>
+      <c r="O536" t="s">
+        <v>109</v>
+      </c>
+      <c r="P536" t="s">
+        <v>108</v>
+      </c>
       <c r="Q536">
         <v>620</v>
       </c>
@@ -7896,6 +9159,15 @@
       <c r="F540" t="s">
         <v>98</v>
       </c>
+      <c r="N540" t="s">
+        <v>108</v>
+      </c>
+      <c r="O540" t="s">
+        <v>109</v>
+      </c>
+      <c r="P540" t="s">
+        <v>109</v>
+      </c>
       <c r="Q540">
         <v>620</v>
       </c>
@@ -7949,6 +9221,15 @@
       <c r="F544" t="s">
         <v>98</v>
       </c>
+      <c r="N544" t="s">
+        <v>108</v>
+      </c>
+      <c r="O544" t="s">
+        <v>109</v>
+      </c>
+      <c r="P544" t="s">
+        <v>108</v>
+      </c>
       <c r="Q544">
         <v>620</v>
       </c>
@@ -8002,6 +9283,15 @@
       <c r="F548" t="s">
         <v>98</v>
       </c>
+      <c r="N548" t="s">
+        <v>115</v>
+      </c>
+      <c r="O548" t="s">
+        <v>112</v>
+      </c>
+      <c r="P548" t="s">
+        <v>115</v>
+      </c>
       <c r="Q548">
         <v>685</v>
       </c>
@@ -8055,6 +9345,15 @@
       <c r="F552" t="s">
         <v>98</v>
       </c>
+      <c r="N552" t="s">
+        <v>105</v>
+      </c>
+      <c r="O552" t="s">
+        <v>105</v>
+      </c>
+      <c r="P552" t="s">
+        <v>103</v>
+      </c>
       <c r="Q552">
         <v>1220</v>
       </c>
@@ -8108,6 +9407,15 @@
       <c r="F556" t="s">
         <v>98</v>
       </c>
+      <c r="N556" t="s">
+        <v>108</v>
+      </c>
+      <c r="O556" t="s">
+        <v>108</v>
+      </c>
+      <c r="P556" t="s">
+        <v>108</v>
+      </c>
       <c r="Q556">
         <v>540</v>
       </c>
@@ -8161,6 +9469,15 @@
       <c r="F560" t="s">
         <v>98</v>
       </c>
+      <c r="N560" t="s">
+        <v>109</v>
+      </c>
+      <c r="O560" t="s">
+        <v>109</v>
+      </c>
+      <c r="P560" t="s">
+        <v>108</v>
+      </c>
       <c r="Q560">
         <v>540</v>
       </c>
@@ -8214,6 +9531,15 @@
       <c r="F564" t="s">
         <v>98</v>
       </c>
+      <c r="N564" t="s">
+        <v>107</v>
+      </c>
+      <c r="O564" t="s">
+        <v>106</v>
+      </c>
+      <c r="P564" t="s">
+        <v>107</v>
+      </c>
       <c r="Q564">
         <v>1160</v>
       </c>
@@ -8267,6 +9593,15 @@
       <c r="F568" t="s">
         <v>98</v>
       </c>
+      <c r="N568" t="s">
+        <v>108</v>
+      </c>
+      <c r="O568" t="s">
+        <v>108</v>
+      </c>
+      <c r="P568" t="s">
+        <v>108</v>
+      </c>
       <c r="Q568">
         <v>540</v>
       </c>
@@ -8320,6 +9655,15 @@
       <c r="F572" t="s">
         <v>98</v>
       </c>
+      <c r="N572" t="s">
+        <v>108</v>
+      </c>
+      <c r="O572" t="s">
+        <v>109</v>
+      </c>
+      <c r="P572" t="s">
+        <v>109</v>
+      </c>
       <c r="Q572">
         <v>685</v>
       </c>
@@ -8373,6 +9717,15 @@
       <c r="F576" t="s">
         <v>98</v>
       </c>
+      <c r="N576" t="s">
+        <v>116</v>
+      </c>
+      <c r="O576" t="s">
+        <v>108</v>
+      </c>
+      <c r="P576" t="s">
+        <v>108</v>
+      </c>
       <c r="Q576">
         <v>525</v>
       </c>
@@ -8426,6 +9779,15 @@
       <c r="F580" t="s">
         <v>98</v>
       </c>
+      <c r="N580" t="s">
+        <v>108</v>
+      </c>
+      <c r="O580" t="s">
+        <v>113</v>
+      </c>
+      <c r="P580" t="s">
+        <v>109</v>
+      </c>
       <c r="Q580">
         <v>695</v>
       </c>
@@ -8479,6 +9841,15 @@
       <c r="F584" t="s">
         <v>98</v>
       </c>
+      <c r="N584" t="s">
+        <v>115</v>
+      </c>
+      <c r="O584" t="s">
+        <v>112</v>
+      </c>
+      <c r="P584" t="s">
+        <v>113</v>
+      </c>
       <c r="Q584">
         <v>1000</v>
       </c>
@@ -8532,6 +9903,15 @@
       <c r="F588" t="s">
         <v>98</v>
       </c>
+      <c r="N588" t="s">
+        <v>115</v>
+      </c>
+      <c r="O588" t="s">
+        <v>112</v>
+      </c>
+      <c r="P588" t="s">
+        <v>115</v>
+      </c>
       <c r="Q588">
         <v>1000</v>
       </c>
@@ -8585,6 +9965,15 @@
       <c r="F592" t="s">
         <v>98</v>
       </c>
+      <c r="N592" t="s">
+        <v>108</v>
+      </c>
+      <c r="O592" t="s">
+        <v>109</v>
+      </c>
+      <c r="P592" t="s">
+        <v>108</v>
+      </c>
       <c r="Q592">
         <v>695</v>
       </c>
@@ -8638,6 +10027,15 @@
       <c r="F596" t="s">
         <v>98</v>
       </c>
+      <c r="N596" t="s">
+        <v>109</v>
+      </c>
+      <c r="O596" t="s">
+        <v>113</v>
+      </c>
+      <c r="P596" t="s">
+        <v>109</v>
+      </c>
       <c r="Q596">
         <v>685</v>
       </c>
@@ -8691,6 +10089,15 @@
       <c r="F600" t="s">
         <v>98</v>
       </c>
+      <c r="N600" t="s">
+        <v>108</v>
+      </c>
+      <c r="O600" t="s">
+        <v>108</v>
+      </c>
+      <c r="P600" t="s">
+        <v>116</v>
+      </c>
       <c r="Q600">
         <v>525</v>
       </c>
@@ -8744,6 +10151,15 @@
       <c r="F604" t="s">
         <v>98</v>
       </c>
+      <c r="N604" t="s">
+        <v>109</v>
+      </c>
+      <c r="O604" t="s">
+        <v>109</v>
+      </c>
+      <c r="P604" t="s">
+        <v>108</v>
+      </c>
       <c r="Q604">
         <v>695</v>
       </c>
@@ -8797,6 +10213,15 @@
       <c r="F608" t="s">
         <v>98</v>
       </c>
+      <c r="N608" t="s">
+        <v>108</v>
+      </c>
+      <c r="O608" t="s">
+        <v>109</v>
+      </c>
+      <c r="P608" t="s">
+        <v>108</v>
+      </c>
       <c r="Q608">
         <v>620</v>
       </c>
@@ -8850,6 +10275,15 @@
       <c r="F612" t="s">
         <v>98</v>
       </c>
+      <c r="N612" t="s">
+        <v>116</v>
+      </c>
+      <c r="O612" t="s">
+        <v>108</v>
+      </c>
+      <c r="P612" t="s">
+        <v>108</v>
+      </c>
       <c r="Q612">
         <v>620</v>
       </c>
@@ -8903,6 +10337,15 @@
       <c r="F616" t="s">
         <v>98</v>
       </c>
+      <c r="N616" t="s">
+        <v>108</v>
+      </c>
+      <c r="O616" t="s">
+        <v>108</v>
+      </c>
+      <c r="P616" t="s">
+        <v>108</v>
+      </c>
       <c r="Q616">
         <v>620</v>
       </c>
@@ -8956,6 +10399,15 @@
       <c r="F620" t="s">
         <v>98</v>
       </c>
+      <c r="N620" t="s">
+        <v>109</v>
+      </c>
+      <c r="O620" t="s">
+        <v>115</v>
+      </c>
+      <c r="P620" t="s">
+        <v>115</v>
+      </c>
       <c r="Q620">
         <v>685</v>
       </c>
@@ -9009,6 +10461,15 @@
       <c r="F624" t="s">
         <v>98</v>
       </c>
+      <c r="N624" t="s">
+        <v>105</v>
+      </c>
+      <c r="O624" t="s">
+        <v>105</v>
+      </c>
+      <c r="P624" t="s">
+        <v>103</v>
+      </c>
       <c r="Q624">
         <v>1220</v>
       </c>
@@ -9062,6 +10523,15 @@
       <c r="F628" t="s">
         <v>98</v>
       </c>
+      <c r="N628" t="s">
+        <v>108</v>
+      </c>
+      <c r="O628" t="s">
+        <v>108</v>
+      </c>
+      <c r="P628" t="s">
+        <v>108</v>
+      </c>
       <c r="Q628">
         <v>540</v>
       </c>
@@ -9115,6 +10585,15 @@
       <c r="F632" t="s">
         <v>98</v>
       </c>
+      <c r="N632" t="s">
+        <v>108</v>
+      </c>
+      <c r="O632" t="s">
+        <v>108</v>
+      </c>
+      <c r="P632" t="s">
+        <v>116</v>
+      </c>
       <c r="Q632">
         <v>540</v>
       </c>
@@ -9168,6 +10647,15 @@
       <c r="F636" t="s">
         <v>98</v>
       </c>
+      <c r="N636" t="s">
+        <v>107</v>
+      </c>
+      <c r="O636" t="s">
+        <v>106</v>
+      </c>
+      <c r="P636" t="s">
+        <v>107</v>
+      </c>
       <c r="Q636">
         <v>1160</v>
       </c>
@@ -9221,6 +10709,15 @@
       <c r="F640" t="s">
         <v>98</v>
       </c>
+      <c r="N640" t="s">
+        <v>116</v>
+      </c>
+      <c r="O640" t="s">
+        <v>108</v>
+      </c>
+      <c r="P640" t="s">
+        <v>116</v>
+      </c>
       <c r="Q640">
         <v>540</v>
       </c>
@@ -9274,6 +10771,15 @@
       <c r="F644" t="s">
         <v>98</v>
       </c>
+      <c r="N644" t="s">
+        <v>108</v>
+      </c>
+      <c r="O644" t="s">
+        <v>109</v>
+      </c>
+      <c r="P644" t="s">
+        <v>109</v>
+      </c>
       <c r="Q644">
         <v>685</v>
       </c>
@@ -9327,6 +10833,15 @@
       <c r="F648" t="s">
         <v>98</v>
       </c>
+      <c r="N648" t="s">
+        <v>116</v>
+      </c>
+      <c r="O648" t="s">
+        <v>108</v>
+      </c>
+      <c r="P648" t="s">
+        <v>108</v>
+      </c>
       <c r="Q648">
         <v>525</v>
       </c>
@@ -9380,6 +10895,15 @@
       <c r="F652" t="s">
         <v>98</v>
       </c>
+      <c r="N652" t="s">
+        <v>116</v>
+      </c>
+      <c r="O652" t="s">
+        <v>108</v>
+      </c>
+      <c r="P652" t="s">
+        <v>116</v>
+      </c>
       <c r="Q652">
         <v>695</v>
       </c>
@@ -9433,6 +10957,15 @@
       <c r="F656" t="s">
         <v>98</v>
       </c>
+      <c r="N656" t="s">
+        <v>115</v>
+      </c>
+      <c r="O656" t="s">
+        <v>115</v>
+      </c>
+      <c r="P656" t="s">
+        <v>113</v>
+      </c>
       <c r="Q656">
         <v>1000</v>
       </c>
@@ -9486,6 +11019,15 @@
       <c r="F660" t="s">
         <v>98</v>
       </c>
+      <c r="N660" t="s">
+        <v>115</v>
+      </c>
+      <c r="O660" t="s">
+        <v>112</v>
+      </c>
+      <c r="P660" t="s">
+        <v>115</v>
+      </c>
       <c r="Q660">
         <v>1000</v>
       </c>
@@ -9539,6 +11081,15 @@
       <c r="F664" t="s">
         <v>98</v>
       </c>
+      <c r="N664" t="s">
+        <v>108</v>
+      </c>
+      <c r="O664" t="s">
+        <v>109</v>
+      </c>
+      <c r="P664" t="s">
+        <v>108</v>
+      </c>
       <c r="Q664">
         <v>695</v>
       </c>
@@ -9592,6 +11143,15 @@
       <c r="F668" t="s">
         <v>98</v>
       </c>
+      <c r="N668" t="s">
+        <v>108</v>
+      </c>
+      <c r="O668" t="s">
+        <v>109</v>
+      </c>
+      <c r="P668" t="s">
+        <v>109</v>
+      </c>
       <c r="Q668">
         <v>685</v>
       </c>
@@ -9645,6 +11205,15 @@
       <c r="F672" t="s">
         <v>98</v>
       </c>
+      <c r="N672" t="s">
+        <v>108</v>
+      </c>
+      <c r="O672" t="s">
+        <v>108</v>
+      </c>
+      <c r="P672" t="s">
+        <v>116</v>
+      </c>
       <c r="Q672">
         <v>525</v>
       </c>
@@ -9698,6 +11267,15 @@
       <c r="F676" t="s">
         <v>98</v>
       </c>
+      <c r="N676" t="s">
+        <v>109</v>
+      </c>
+      <c r="O676" t="s">
+        <v>109</v>
+      </c>
+      <c r="P676" t="s">
+        <v>108</v>
+      </c>
       <c r="Q676">
         <v>695</v>
       </c>
@@ -9751,6 +11329,15 @@
       <c r="F680" t="s">
         <v>98</v>
       </c>
+      <c r="N680" t="s">
+        <v>108</v>
+      </c>
+      <c r="O680" t="s">
+        <v>108</v>
+      </c>
+      <c r="P680" t="s">
+        <v>108</v>
+      </c>
       <c r="Q680">
         <v>620</v>
       </c>
@@ -9804,6 +11391,15 @@
       <c r="F684" t="s">
         <v>98</v>
       </c>
+      <c r="N684" t="s">
+        <v>116</v>
+      </c>
+      <c r="O684" t="s">
+        <v>108</v>
+      </c>
+      <c r="P684" t="s">
+        <v>108</v>
+      </c>
       <c r="Q684">
         <v>620</v>
       </c>
@@ -9857,6 +11453,15 @@
       <c r="F688" t="s">
         <v>98</v>
       </c>
+      <c r="N688" t="s">
+        <v>108</v>
+      </c>
+      <c r="O688" t="s">
+        <v>108</v>
+      </c>
+      <c r="P688" t="s">
+        <v>108</v>
+      </c>
       <c r="Q688">
         <v>620</v>
       </c>
@@ -9910,6 +11515,15 @@
       <c r="F692" t="s">
         <v>98</v>
       </c>
+      <c r="N692" t="s">
+        <v>109</v>
+      </c>
+      <c r="O692" t="s">
+        <v>115</v>
+      </c>
+      <c r="P692" t="s">
+        <v>113</v>
+      </c>
       <c r="Q692">
         <v>685</v>
       </c>
@@ -9963,6 +11577,15 @@
       <c r="F696" t="s">
         <v>98</v>
       </c>
+      <c r="N696" t="s">
+        <v>105</v>
+      </c>
+      <c r="O696" t="s">
+        <v>105</v>
+      </c>
+      <c r="P696" t="s">
+        <v>107</v>
+      </c>
       <c r="Q696">
         <v>1220</v>
       </c>
@@ -10016,6 +11639,15 @@
       <c r="F700" t="s">
         <v>98</v>
       </c>
+      <c r="N700" t="s">
+        <v>108</v>
+      </c>
+      <c r="O700" t="s">
+        <v>108</v>
+      </c>
+      <c r="P700" t="s">
+        <v>116</v>
+      </c>
       <c r="Q700">
         <v>540</v>
       </c>
@@ -10069,6 +11701,15 @@
       <c r="F704" t="s">
         <v>98</v>
       </c>
+      <c r="N704" t="s">
+        <v>108</v>
+      </c>
+      <c r="O704" t="s">
+        <v>108</v>
+      </c>
+      <c r="P704" t="s">
+        <v>116</v>
+      </c>
       <c r="Q704">
         <v>540</v>
       </c>
@@ -10122,6 +11763,15 @@
       <c r="F708" t="s">
         <v>98</v>
       </c>
+      <c r="N708" t="s">
+        <v>107</v>
+      </c>
+      <c r="O708" t="s">
+        <v>103</v>
+      </c>
+      <c r="P708" t="s">
+        <v>107</v>
+      </c>
       <c r="Q708">
         <v>1160</v>
       </c>
@@ -10175,6 +11825,15 @@
       <c r="F712" t="s">
         <v>98</v>
       </c>
+      <c r="N712" t="s">
+        <v>116</v>
+      </c>
+      <c r="O712" t="s">
+        <v>116</v>
+      </c>
+      <c r="P712" t="s">
+        <v>116</v>
+      </c>
       <c r="Q712">
         <v>540</v>
       </c>
@@ -10228,6 +11887,15 @@
       <c r="F716" t="s">
         <v>98</v>
       </c>
+      <c r="N716" t="s">
+        <v>108</v>
+      </c>
+      <c r="O716" t="s">
+        <v>108</v>
+      </c>
+      <c r="P716" t="s">
+        <v>108</v>
+      </c>
       <c r="Q716">
         <v>685</v>
       </c>
@@ -10281,6 +11949,15 @@
       <c r="F720" t="s">
         <v>98</v>
       </c>
+      <c r="N720" t="s">
+        <v>116</v>
+      </c>
+      <c r="O720" t="s">
+        <v>108</v>
+      </c>
+      <c r="P720" t="s">
+        <v>116</v>
+      </c>
       <c r="Q720">
         <v>525</v>
       </c>
@@ -10334,6 +12011,15 @@
       <c r="F724" t="s">
         <v>98</v>
       </c>
+      <c r="N724" t="s">
+        <v>108</v>
+      </c>
+      <c r="O724" t="s">
+        <v>108</v>
+      </c>
+      <c r="P724" t="s">
+        <v>108</v>
+      </c>
       <c r="Q724">
         <v>695</v>
       </c>
@@ -10387,6 +12073,15 @@
       <c r="F728" t="s">
         <v>98</v>
       </c>
+      <c r="N728" t="s">
+        <v>115</v>
+      </c>
+      <c r="O728" t="s">
+        <v>115</v>
+      </c>
+      <c r="P728" t="s">
+        <v>113</v>
+      </c>
       <c r="Q728">
         <v>1000</v>
       </c>
@@ -10440,6 +12135,15 @@
       <c r="F732" t="s">
         <v>98</v>
       </c>
+      <c r="N732" t="s">
+        <v>115</v>
+      </c>
+      <c r="O732" t="s">
+        <v>115</v>
+      </c>
+      <c r="P732" t="s">
+        <v>115</v>
+      </c>
       <c r="Q732">
         <v>1000</v>
       </c>
@@ -10493,6 +12197,15 @@
       <c r="F736" t="s">
         <v>98</v>
       </c>
+      <c r="N736" t="s">
+        <v>108</v>
+      </c>
+      <c r="O736" t="s">
+        <v>109</v>
+      </c>
+      <c r="P736" t="s">
+        <v>108</v>
+      </c>
       <c r="Q736">
         <v>695</v>
       </c>
@@ -10546,6 +12259,15 @@
       <c r="F740" t="s">
         <v>98</v>
       </c>
+      <c r="N740" t="s">
+        <v>108</v>
+      </c>
+      <c r="O740" t="s">
+        <v>109</v>
+      </c>
+      <c r="P740" t="s">
+        <v>109</v>
+      </c>
       <c r="Q740">
         <v>685</v>
       </c>
@@ -10599,6 +12321,15 @@
       <c r="F744" t="s">
         <v>98</v>
       </c>
+      <c r="N744" t="s">
+        <v>108</v>
+      </c>
+      <c r="O744" t="s">
+        <v>108</v>
+      </c>
+      <c r="P744" t="s">
+        <v>116</v>
+      </c>
       <c r="Q744">
         <v>525</v>
       </c>
@@ -10652,6 +12383,15 @@
       <c r="F748" t="s">
         <v>98</v>
       </c>
+      <c r="N748" t="s">
+        <v>108</v>
+      </c>
+      <c r="O748" t="s">
+        <v>109</v>
+      </c>
+      <c r="P748" t="s">
+        <v>108</v>
+      </c>
       <c r="Q748">
         <v>695</v>
       </c>
@@ -10705,6 +12445,15 @@
       <c r="F752" t="s">
         <v>98</v>
       </c>
+      <c r="N752" t="s">
+        <v>108</v>
+      </c>
+      <c r="O752" t="s">
+        <v>108</v>
+      </c>
+      <c r="P752" t="s">
+        <v>108</v>
+      </c>
       <c r="Q752">
         <v>620</v>
       </c>
@@ -10758,6 +12507,15 @@
       <c r="F756" t="s">
         <v>98</v>
       </c>
+      <c r="N756" t="s">
+        <v>116</v>
+      </c>
+      <c r="O756" t="s">
+        <v>108</v>
+      </c>
+      <c r="P756" t="s">
+        <v>108</v>
+      </c>
       <c r="Q756">
         <v>620</v>
       </c>
@@ -10811,6 +12569,15 @@
       <c r="F760" t="s">
         <v>98</v>
       </c>
+      <c r="N760" t="s">
+        <v>116</v>
+      </c>
+      <c r="O760" t="s">
+        <v>108</v>
+      </c>
+      <c r="P760" t="s">
+        <v>108</v>
+      </c>
       <c r="Q760">
         <v>620</v>
       </c>
@@ -10864,6 +12631,15 @@
       <c r="F764" t="s">
         <v>98</v>
       </c>
+      <c r="N764" t="s">
+        <v>109</v>
+      </c>
+      <c r="O764" t="s">
+        <v>113</v>
+      </c>
+      <c r="P764" t="s">
+        <v>113</v>
+      </c>
       <c r="Q764">
         <v>685</v>
       </c>
@@ -10917,6 +12693,15 @@
       <c r="F768" t="s">
         <v>98</v>
       </c>
+      <c r="N768" t="s">
+        <v>105</v>
+      </c>
+      <c r="O768" t="s">
+        <v>105</v>
+      </c>
+      <c r="P768" t="s">
+        <v>107</v>
+      </c>
       <c r="Q768">
         <v>1220</v>
       </c>
@@ -10970,6 +12755,15 @@
       <c r="F772" t="s">
         <v>98</v>
       </c>
+      <c r="N772" t="s">
+        <v>116</v>
+      </c>
+      <c r="O772" t="s">
+        <v>108</v>
+      </c>
+      <c r="P772" t="s">
+        <v>116</v>
+      </c>
       <c r="Q772">
         <v>540</v>
       </c>
@@ -11023,6 +12817,15 @@
       <c r="F776" t="s">
         <v>98</v>
       </c>
+      <c r="N776" t="s">
+        <v>108</v>
+      </c>
+      <c r="O776" t="s">
+        <v>108</v>
+      </c>
+      <c r="P776" t="s">
+        <v>114</v>
+      </c>
       <c r="Q776">
         <v>540</v>
       </c>
@@ -11076,6 +12879,15 @@
       <c r="F780" t="s">
         <v>98</v>
       </c>
+      <c r="N780" t="s">
+        <v>107</v>
+      </c>
+      <c r="O780" t="s">
+        <v>103</v>
+      </c>
+      <c r="P780" t="s">
+        <v>107</v>
+      </c>
       <c r="Q780">
         <v>1160</v>
       </c>
@@ -11129,6 +12941,15 @@
       <c r="F784" t="s">
         <v>98</v>
       </c>
+      <c r="N784" t="s">
+        <v>116</v>
+      </c>
+      <c r="O784" t="s">
+        <v>108</v>
+      </c>
+      <c r="P784" t="s">
+        <v>116</v>
+      </c>
       <c r="Q784">
         <v>540</v>
       </c>
@@ -11182,6 +13003,15 @@
       <c r="F788" t="s">
         <v>98</v>
       </c>
+      <c r="N788" t="s">
+        <v>108</v>
+      </c>
+      <c r="O788" t="s">
+        <v>108</v>
+      </c>
+      <c r="P788" t="s">
+        <v>108</v>
+      </c>
       <c r="Q788">
         <v>685</v>
       </c>
@@ -11235,6 +13065,15 @@
       <c r="F792" t="s">
         <v>98</v>
       </c>
+      <c r="N792" t="s">
+        <v>114</v>
+      </c>
+      <c r="O792" t="s">
+        <v>116</v>
+      </c>
+      <c r="P792" t="s">
+        <v>116</v>
+      </c>
       <c r="Q792">
         <v>525</v>
       </c>
@@ -11288,6 +13127,15 @@
       <c r="F796" t="s">
         <v>98</v>
       </c>
+      <c r="N796" t="s">
+        <v>116</v>
+      </c>
+      <c r="O796" t="s">
+        <v>108</v>
+      </c>
+      <c r="P796" t="s">
+        <v>108</v>
+      </c>
       <c r="Q796">
         <v>695</v>
       </c>
@@ -11341,6 +13189,15 @@
       <c r="F800" t="s">
         <v>98</v>
       </c>
+      <c r="N800" t="s">
+        <v>115</v>
+      </c>
+      <c r="O800" t="s">
+        <v>115</v>
+      </c>
+      <c r="P800" t="s">
+        <v>113</v>
+      </c>
       <c r="Q800">
         <v>1000</v>
       </c>
@@ -11394,6 +13251,15 @@
       <c r="F804" t="s">
         <v>98</v>
       </c>
+      <c r="N804" t="s">
+        <v>115</v>
+      </c>
+      <c r="O804" t="s">
+        <v>115</v>
+      </c>
+      <c r="P804" t="s">
+        <v>115</v>
+      </c>
       <c r="Q804">
         <v>1000</v>
       </c>
@@ -11447,6 +13313,15 @@
       <c r="F808" t="s">
         <v>98</v>
       </c>
+      <c r="N808" t="s">
+        <v>108</v>
+      </c>
+      <c r="O808" t="s">
+        <v>108</v>
+      </c>
+      <c r="P808" t="s">
+        <v>108</v>
+      </c>
       <c r="Q808">
         <v>695</v>
       </c>
@@ -11500,6 +13375,15 @@
       <c r="F812" t="s">
         <v>98</v>
       </c>
+      <c r="N812" t="s">
+        <v>108</v>
+      </c>
+      <c r="O812" t="s">
+        <v>108</v>
+      </c>
+      <c r="P812" t="s">
+        <v>108</v>
+      </c>
       <c r="Q812">
         <v>685</v>
       </c>
@@ -11553,6 +13437,15 @@
       <c r="F816" t="s">
         <v>98</v>
       </c>
+      <c r="N816" t="s">
+        <v>117</v>
+      </c>
+      <c r="O816" t="s">
+        <v>117</v>
+      </c>
+      <c r="P816" t="s">
+        <v>117</v>
+      </c>
       <c r="Q816">
         <v>525</v>
       </c>
@@ -11606,6 +13499,15 @@
       <c r="F820" t="s">
         <v>98</v>
       </c>
+      <c r="N820" t="s">
+        <v>108</v>
+      </c>
+      <c r="O820" t="s">
+        <v>108</v>
+      </c>
+      <c r="P820" t="s">
+        <v>108</v>
+      </c>
       <c r="Q820">
         <v>695</v>
       </c>
@@ -11659,6 +13561,15 @@
       <c r="F824" t="s">
         <v>98</v>
       </c>
+      <c r="N824" t="s">
+        <v>116</v>
+      </c>
+      <c r="O824" t="s">
+        <v>108</v>
+      </c>
+      <c r="P824" t="s">
+        <v>108</v>
+      </c>
       <c r="Q824">
         <v>620</v>
       </c>
@@ -11712,6 +13623,15 @@
       <c r="F828" t="s">
         <v>98</v>
       </c>
+      <c r="N828" t="s">
+        <v>116</v>
+      </c>
+      <c r="O828" t="s">
+        <v>108</v>
+      </c>
+      <c r="P828" t="s">
+        <v>108</v>
+      </c>
       <c r="Q828">
         <v>620</v>
       </c>
@@ -11765,6 +13685,15 @@
       <c r="F832" t="s">
         <v>98</v>
       </c>
+      <c r="N832" t="s">
+        <v>116</v>
+      </c>
+      <c r="O832" t="s">
+        <v>108</v>
+      </c>
+      <c r="P832" t="s">
+        <v>116</v>
+      </c>
       <c r="Q832">
         <v>620</v>
       </c>
@@ -11818,6 +13747,15 @@
       <c r="F836" t="s">
         <v>98</v>
       </c>
+      <c r="N836" t="s">
+        <v>108</v>
+      </c>
+      <c r="O836" t="s">
+        <v>109</v>
+      </c>
+      <c r="P836" t="s">
+        <v>109</v>
+      </c>
       <c r="Q836">
         <v>685</v>
       </c>
@@ -11871,6 +13809,15 @@
       <c r="F840" t="s">
         <v>98</v>
       </c>
+      <c r="N840" t="s">
+        <v>106</v>
+      </c>
+      <c r="O840" t="s">
+        <v>106</v>
+      </c>
+      <c r="P840" t="s">
+        <v>107</v>
+      </c>
       <c r="Q840">
         <v>1220</v>
       </c>
@@ -11924,6 +13871,15 @@
       <c r="F844" t="s">
         <v>98</v>
       </c>
+      <c r="N844" t="s">
+        <v>116</v>
+      </c>
+      <c r="O844" t="s">
+        <v>116</v>
+      </c>
+      <c r="P844" t="s">
+        <v>116</v>
+      </c>
       <c r="Q844">
         <v>540</v>
       </c>
@@ -11977,6 +13933,15 @@
       <c r="F848" t="s">
         <v>98</v>
       </c>
+      <c r="N848" t="s">
+        <v>117</v>
+      </c>
+      <c r="O848" t="s">
+        <v>117</v>
+      </c>
+      <c r="P848" t="s">
+        <v>118</v>
+      </c>
       <c r="Q848">
         <v>540</v>
       </c>
@@ -12030,6 +13995,15 @@
       <c r="F852" t="s">
         <v>98</v>
       </c>
+      <c r="N852" t="s">
+        <v>107</v>
+      </c>
+      <c r="O852" t="s">
+        <v>103</v>
+      </c>
+      <c r="P852" t="s">
+        <v>107</v>
+      </c>
       <c r="Q852">
         <v>1160</v>
       </c>
@@ -12083,6 +14057,15 @@
       <c r="F856" t="s">
         <v>98</v>
       </c>
+      <c r="N856" t="s">
+        <v>118</v>
+      </c>
+      <c r="O856" t="s">
+        <v>117</v>
+      </c>
+      <c r="P856" t="s">
+        <v>117</v>
+      </c>
       <c r="Q856">
         <v>540</v>
       </c>
@@ -12136,6 +14119,15 @@
       <c r="F860" t="s">
         <v>98</v>
       </c>
+      <c r="N860" t="s">
+        <v>108</v>
+      </c>
+      <c r="O860" t="s">
+        <v>108</v>
+      </c>
+      <c r="P860" t="s">
+        <v>108</v>
+      </c>
       <c r="Q860">
         <v>685</v>
       </c>
@@ -12189,6 +14181,15 @@
       <c r="F864" t="s">
         <v>98</v>
       </c>
+      <c r="N864" t="s">
+        <v>118</v>
+      </c>
+      <c r="O864" t="s">
+        <v>117</v>
+      </c>
+      <c r="P864" t="s">
+        <v>117</v>
+      </c>
       <c r="Q864">
         <v>525</v>
       </c>
@@ -12242,6 +14243,15 @@
       <c r="F868" t="s">
         <v>98</v>
       </c>
+      <c r="N868" t="s">
+        <v>116</v>
+      </c>
+      <c r="O868" t="s">
+        <v>108</v>
+      </c>
+      <c r="P868" t="s">
+        <v>116</v>
+      </c>
       <c r="Q868">
         <v>695</v>
       </c>
@@ -12295,6 +14305,15 @@
       <c r="F872" t="s">
         <v>98</v>
       </c>
+      <c r="N872" t="s">
+        <v>113</v>
+      </c>
+      <c r="O872" t="s">
+        <v>115</v>
+      </c>
+      <c r="P872" t="s">
+        <v>109</v>
+      </c>
       <c r="Q872">
         <v>1000</v>
       </c>
@@ -12348,6 +14367,15 @@
       <c r="F876" t="s">
         <v>98</v>
       </c>
+      <c r="N876" t="s">
+        <v>113</v>
+      </c>
+      <c r="O876" t="s">
+        <v>115</v>
+      </c>
+      <c r="P876" t="s">
+        <v>113</v>
+      </c>
       <c r="Q876">
         <v>1000</v>
       </c>
@@ -12401,6 +14429,15 @@
       <c r="F880" t="s">
         <v>98</v>
       </c>
+      <c r="N880" t="s">
+        <v>116</v>
+      </c>
+      <c r="O880" t="s">
+        <v>108</v>
+      </c>
+      <c r="P880" t="s">
+        <v>116</v>
+      </c>
       <c r="Q880">
         <v>695</v>
       </c>
@@ -12454,6 +14491,15 @@
       <c r="F884" t="s">
         <v>98</v>
       </c>
+      <c r="N884" t="s">
+        <v>108</v>
+      </c>
+      <c r="O884" t="s">
+        <v>108</v>
+      </c>
+      <c r="P884" t="s">
+        <v>108</v>
+      </c>
       <c r="Q884">
         <v>685</v>
       </c>
@@ -12507,6 +14553,15 @@
       <c r="F888" t="s">
         <v>98</v>
       </c>
+      <c r="N888" t="s">
+        <v>117</v>
+      </c>
+      <c r="O888" t="s">
+        <v>117</v>
+      </c>
+      <c r="P888" t="s">
+        <v>118</v>
+      </c>
       <c r="Q888">
         <v>525</v>
       </c>
@@ -12560,6 +14615,15 @@
       <c r="F892" t="s">
         <v>98</v>
       </c>
+      <c r="N892" t="s">
+        <v>108</v>
+      </c>
+      <c r="O892" t="s">
+        <v>108</v>
+      </c>
+      <c r="P892" t="s">
+        <v>108</v>
+      </c>
       <c r="Q892">
         <v>695</v>
       </c>
@@ -12613,6 +14677,15 @@
       <c r="F896" t="s">
         <v>98</v>
       </c>
+      <c r="N896" t="s">
+        <v>116</v>
+      </c>
+      <c r="O896" t="s">
+        <v>108</v>
+      </c>
+      <c r="P896" t="s">
+        <v>108</v>
+      </c>
       <c r="Q896">
         <v>620</v>
       </c>
@@ -12666,6 +14739,15 @@
       <c r="F900" t="s">
         <v>98</v>
       </c>
+      <c r="N900" t="s">
+        <v>118</v>
+      </c>
+      <c r="O900" t="s">
+        <v>117</v>
+      </c>
+      <c r="P900" t="s">
+        <v>117</v>
+      </c>
       <c r="Q900">
         <v>620</v>
       </c>
@@ -12719,6 +14801,15 @@
       <c r="F904" t="s">
         <v>98</v>
       </c>
+      <c r="N904" t="s">
+        <v>116</v>
+      </c>
+      <c r="O904" t="s">
+        <v>108</v>
+      </c>
+      <c r="P904" t="s">
+        <v>116</v>
+      </c>
       <c r="Q904">
         <v>620</v>
       </c>
@@ -12772,6 +14863,15 @@
       <c r="F908" t="s">
         <v>98</v>
       </c>
+      <c r="N908" t="s">
+        <v>108</v>
+      </c>
+      <c r="O908" t="s">
+        <v>109</v>
+      </c>
+      <c r="P908" t="s">
+        <v>109</v>
+      </c>
       <c r="Q908">
         <v>685</v>
       </c>
@@ -12825,6 +14925,15 @@
       <c r="F912" t="s">
         <v>98</v>
       </c>
+      <c r="N912" t="s">
+        <v>106</v>
+      </c>
+      <c r="O912" t="s">
+        <v>105</v>
+      </c>
+      <c r="P912" t="s">
+        <v>107</v>
+      </c>
       <c r="Q912">
         <v>1220</v>
       </c>
@@ -12878,6 +14987,15 @@
       <c r="F916" t="s">
         <v>98</v>
       </c>
+      <c r="N916" t="s">
+        <v>116</v>
+      </c>
+      <c r="O916" t="s">
+        <v>116</v>
+      </c>
+      <c r="P916" t="s">
+        <v>116</v>
+      </c>
       <c r="Q916">
         <v>540</v>
       </c>
@@ -12931,6 +15049,15 @@
       <c r="F920" t="s">
         <v>98</v>
       </c>
+      <c r="N920" t="s">
+        <v>117</v>
+      </c>
+      <c r="O920" t="s">
+        <v>117</v>
+      </c>
+      <c r="P920" t="s">
+        <v>118</v>
+      </c>
       <c r="Q920">
         <v>540</v>
       </c>
@@ -12984,6 +15111,15 @@
       <c r="F924" t="s">
         <v>98</v>
       </c>
+      <c r="N924" t="s">
+        <v>107</v>
+      </c>
+      <c r="O924" t="s">
+        <v>103</v>
+      </c>
+      <c r="P924" t="s">
+        <v>107</v>
+      </c>
       <c r="Q924">
         <v>1160</v>
       </c>
@@ -13037,6 +15173,15 @@
       <c r="F928" t="s">
         <v>98</v>
       </c>
+      <c r="N928" t="s">
+        <v>118</v>
+      </c>
+      <c r="O928" t="s">
+        <v>117</v>
+      </c>
+      <c r="P928" t="s">
+        <v>118</v>
+      </c>
       <c r="Q928">
         <v>540</v>
       </c>
@@ -13090,6 +15235,15 @@
       <c r="F932" t="s">
         <v>98</v>
       </c>
+      <c r="N932" t="s">
+        <v>108</v>
+      </c>
+      <c r="O932" t="s">
+        <v>108</v>
+      </c>
+      <c r="P932" t="s">
+        <v>108</v>
+      </c>
       <c r="Q932">
         <v>685</v>
       </c>
@@ -13143,6 +15297,15 @@
       <c r="F936" t="s">
         <v>98</v>
       </c>
+      <c r="N936" t="s">
+        <v>118</v>
+      </c>
+      <c r="O936" t="s">
+        <v>117</v>
+      </c>
+      <c r="P936" t="s">
+        <v>117</v>
+      </c>
       <c r="Q936">
         <v>525</v>
       </c>
@@ -13196,6 +15359,15 @@
       <c r="F940" t="s">
         <v>98</v>
       </c>
+      <c r="N940" t="s">
+        <v>116</v>
+      </c>
+      <c r="O940" t="s">
+        <v>108</v>
+      </c>
+      <c r="P940" t="s">
+        <v>116</v>
+      </c>
       <c r="Q940">
         <v>695</v>
       </c>
@@ -13249,6 +15421,15 @@
       <c r="F944" t="s">
         <v>98</v>
       </c>
+      <c r="N944" t="s">
+        <v>113</v>
+      </c>
+      <c r="O944" t="s">
+        <v>115</v>
+      </c>
+      <c r="P944" t="s">
+        <v>109</v>
+      </c>
       <c r="Q944">
         <v>1000</v>
       </c>
@@ -13302,6 +15483,15 @@
       <c r="F948" t="s">
         <v>98</v>
       </c>
+      <c r="N948" t="s">
+        <v>115</v>
+      </c>
+      <c r="O948" t="s">
+        <v>115</v>
+      </c>
+      <c r="P948" t="s">
+        <v>113</v>
+      </c>
       <c r="Q948">
         <v>1000</v>
       </c>
@@ -13355,6 +15545,15 @@
       <c r="F952" t="s">
         <v>98</v>
       </c>
+      <c r="N952" t="s">
+        <v>116</v>
+      </c>
+      <c r="O952" t="s">
+        <v>108</v>
+      </c>
+      <c r="P952" t="s">
+        <v>116</v>
+      </c>
       <c r="Q952">
         <v>695</v>
       </c>
@@ -13408,6 +15607,15 @@
       <c r="F956" t="s">
         <v>98</v>
       </c>
+      <c r="N956" t="s">
+        <v>108</v>
+      </c>
+      <c r="O956" t="s">
+        <v>109</v>
+      </c>
+      <c r="P956" t="s">
+        <v>109</v>
+      </c>
       <c r="Q956">
         <v>685</v>
       </c>
@@ -13461,6 +15669,15 @@
       <c r="F960" t="s">
         <v>98</v>
       </c>
+      <c r="N960" t="s">
+        <v>117</v>
+      </c>
+      <c r="O960" t="s">
+        <v>117</v>
+      </c>
+      <c r="P960" t="s">
+        <v>118</v>
+      </c>
       <c r="Q960">
         <v>525</v>
       </c>
@@ -13514,6 +15731,15 @@
       <c r="F964" t="s">
         <v>98</v>
       </c>
+      <c r="N964" t="s">
+        <v>108</v>
+      </c>
+      <c r="O964" t="s">
+        <v>109</v>
+      </c>
+      <c r="P964" t="s">
+        <v>108</v>
+      </c>
       <c r="Q964">
         <v>695</v>
       </c>
@@ -13567,6 +15793,15 @@
       <c r="F968" t="s">
         <v>98</v>
       </c>
+      <c r="N968" t="s">
+        <v>108</v>
+      </c>
+      <c r="O968" t="s">
+        <v>108</v>
+      </c>
+      <c r="P968" t="s">
+        <v>108</v>
+      </c>
       <c r="Q968">
         <v>620</v>
       </c>
@@ -13620,6 +15855,15 @@
       <c r="F972" t="s">
         <v>98</v>
       </c>
+      <c r="N972" t="s">
+        <v>117</v>
+      </c>
+      <c r="O972" t="s">
+        <v>119</v>
+      </c>
+      <c r="P972" t="s">
+        <v>117</v>
+      </c>
       <c r="Q972">
         <v>620</v>
       </c>
@@ -13673,6 +15917,15 @@
       <c r="F976" t="s">
         <v>98</v>
       </c>
+      <c r="N976" t="s">
+        <v>116</v>
+      </c>
+      <c r="O976" t="s">
+        <v>108</v>
+      </c>
+      <c r="P976" t="s">
+        <v>108</v>
+      </c>
       <c r="Q976">
         <v>620</v>
       </c>
@@ -13726,6 +15979,15 @@
       <c r="F980" t="s">
         <v>98</v>
       </c>
+      <c r="N980" t="s">
+        <v>109</v>
+      </c>
+      <c r="O980" t="s">
+        <v>113</v>
+      </c>
+      <c r="P980" t="s">
+        <v>109</v>
+      </c>
       <c r="Q980">
         <v>685</v>
       </c>
@@ -13779,6 +16041,15 @@
       <c r="F984" t="s">
         <v>98</v>
       </c>
+      <c r="N984" t="s">
+        <v>105</v>
+      </c>
+      <c r="O984" t="s">
+        <v>105</v>
+      </c>
+      <c r="P984" t="s">
+        <v>107</v>
+      </c>
       <c r="Q984">
         <v>1220</v>
       </c>
@@ -13832,6 +16103,15 @@
       <c r="F988" t="s">
         <v>98</v>
       </c>
+      <c r="N988" t="s">
+        <v>116</v>
+      </c>
+      <c r="O988" t="s">
+        <v>116</v>
+      </c>
+      <c r="P988" t="s">
+        <v>116</v>
+      </c>
       <c r="Q988">
         <v>540</v>
       </c>
@@ -13885,6 +16165,15 @@
       <c r="F992" t="s">
         <v>98</v>
       </c>
+      <c r="N992" t="s">
+        <v>119</v>
+      </c>
+      <c r="O992" t="s">
+        <v>119</v>
+      </c>
+      <c r="P992" t="s">
+        <v>117</v>
+      </c>
       <c r="Q992">
         <v>540</v>
       </c>
@@ -13938,6 +16227,15 @@
       <c r="F996" t="s">
         <v>98</v>
       </c>
+      <c r="N996" t="s">
+        <v>107</v>
+      </c>
+      <c r="O996" t="s">
+        <v>103</v>
+      </c>
+      <c r="P996" t="s">
+        <v>107</v>
+      </c>
       <c r="Q996">
         <v>1160</v>
       </c>
@@ -13991,6 +16289,15 @@
       <c r="F1000" t="s">
         <v>98</v>
       </c>
+      <c r="N1000" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1000" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1000" t="s">
+        <v>117</v>
+      </c>
       <c r="Q1000">
         <v>540</v>
       </c>
@@ -14044,6 +16351,15 @@
       <c r="F1004" t="s">
         <v>98</v>
       </c>
+      <c r="N1004" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1004" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1004" t="s">
+        <v>108</v>
+      </c>
       <c r="Q1004">
         <v>685</v>
       </c>
@@ -14097,6 +16413,15 @@
       <c r="F1008" t="s">
         <v>98</v>
       </c>
+      <c r="N1008" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1008" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1008" t="s">
+        <v>117</v>
+      </c>
       <c r="Q1008">
         <v>525</v>
       </c>
@@ -14150,6 +16475,15 @@
       <c r="F1012" t="s">
         <v>98</v>
       </c>
+      <c r="N1012" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1012" t="s">
+        <v>119</v>
+      </c>
+      <c r="P1012" t="s">
+        <v>117</v>
+      </c>
       <c r="Q1012">
         <v>695</v>
       </c>
@@ -14203,6 +16537,15 @@
       <c r="F1016" t="s">
         <v>98</v>
       </c>
+      <c r="N1016" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1016" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1016" t="s">
+        <v>113</v>
+      </c>
       <c r="Q1016">
         <v>1000</v>
       </c>
@@ -14256,6 +16599,15 @@
       <c r="F1020" t="s">
         <v>98</v>
       </c>
+      <c r="N1020" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1020" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1020" t="s">
+        <v>115</v>
+      </c>
       <c r="Q1020">
         <v>1000</v>
       </c>
@@ -14309,6 +16661,15 @@
       <c r="F1024" t="s">
         <v>98</v>
       </c>
+      <c r="N1024" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1024" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1024" t="s">
+        <v>116</v>
+      </c>
       <c r="Q1024">
         <v>695</v>
       </c>
@@ -14362,6 +16723,15 @@
       <c r="F1028" t="s">
         <v>98</v>
       </c>
+      <c r="N1028" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1028" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1028" t="s">
+        <v>108</v>
+      </c>
       <c r="Q1028">
         <v>685</v>
       </c>
@@ -14415,6 +16785,15 @@
       <c r="F1032" t="s">
         <v>98</v>
       </c>
+      <c r="N1032" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1032" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1032" t="s">
+        <v>117</v>
+      </c>
       <c r="Q1032">
         <v>525</v>
       </c>
@@ -14468,6 +16847,15 @@
       <c r="F1036" t="s">
         <v>98</v>
       </c>
+      <c r="N1036" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1036" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1036" t="s">
+        <v>108</v>
+      </c>
       <c r="Q1036">
         <v>695</v>
       </c>
@@ -14521,6 +16909,15 @@
       <c r="F1040" t="s">
         <v>98</v>
       </c>
+      <c r="N1040" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1040" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1040" t="s">
+        <v>108</v>
+      </c>
       <c r="Q1040">
         <v>620</v>
       </c>
@@ -14574,6 +16971,15 @@
       <c r="F1044" t="s">
         <v>98</v>
       </c>
+      <c r="N1044" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1044" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1044" t="s">
+        <v>108</v>
+      </c>
       <c r="Q1044">
         <v>620</v>
       </c>
@@ -14627,6 +17033,15 @@
       <c r="F1048" t="s">
         <v>98</v>
       </c>
+      <c r="N1048" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1048" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1048" t="s">
+        <v>108</v>
+      </c>
       <c r="Q1048">
         <v>620</v>
       </c>
@@ -14680,6 +17095,15 @@
       <c r="F1052" t="s">
         <v>98</v>
       </c>
+      <c r="N1052" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1052" t="s">
+        <v>113</v>
+      </c>
+      <c r="P1052" t="s">
+        <v>113</v>
+      </c>
       <c r="Q1052">
         <v>685</v>
       </c>
@@ -14733,6 +17157,15 @@
       <c r="F1056" t="s">
         <v>98</v>
       </c>
+      <c r="N1056" t="s">
+        <v>106</v>
+      </c>
+      <c r="O1056" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1056" t="s">
+        <v>103</v>
+      </c>
       <c r="Q1056">
         <v>1220</v>
       </c>
@@ -14786,6 +17219,15 @@
       <c r="F1060" t="s">
         <v>98</v>
       </c>
+      <c r="N1060" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1060" t="s">
+        <v>116</v>
+      </c>
+      <c r="P1060" t="s">
+        <v>116</v>
+      </c>
       <c r="Q1060">
         <v>540</v>
       </c>
@@ -14839,6 +17281,15 @@
       <c r="F1064" t="s">
         <v>98</v>
       </c>
+      <c r="N1064" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1064" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1064" t="s">
+        <v>117</v>
+      </c>
       <c r="Q1064">
         <v>540</v>
       </c>
@@ -14892,6 +17343,15 @@
       <c r="F1068" t="s">
         <v>98</v>
       </c>
+      <c r="N1068" t="s">
+        <v>111</v>
+      </c>
+      <c r="O1068" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1068" t="s">
+        <v>103</v>
+      </c>
       <c r="Q1068">
         <v>1160</v>
       </c>
@@ -14945,6 +17405,15 @@
       <c r="F1072" t="s">
         <v>98</v>
       </c>
+      <c r="N1072" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1072" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1072" t="s">
+        <v>117</v>
+      </c>
       <c r="Q1072">
         <v>540</v>
       </c>
@@ -14998,6 +17467,15 @@
       <c r="F1076" t="s">
         <v>98</v>
       </c>
+      <c r="N1076" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1076" t="s">
+        <v>116</v>
+      </c>
+      <c r="P1076" t="s">
+        <v>116</v>
+      </c>
       <c r="Q1076">
         <v>685</v>
       </c>
@@ -15051,6 +17529,15 @@
       <c r="F1080" t="s">
         <v>98</v>
       </c>
+      <c r="N1080" t="s">
+        <v>118</v>
+      </c>
+      <c r="O1080" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1080" t="s">
+        <v>117</v>
+      </c>
       <c r="Q1080">
         <v>525</v>
       </c>
@@ -15104,6 +17591,15 @@
       <c r="F1084" t="s">
         <v>98</v>
       </c>
+      <c r="N1084" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1084" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1084" t="s">
+        <v>108</v>
+      </c>
       <c r="Q1084">
         <v>695</v>
       </c>
@@ -15157,6 +17653,15 @@
       <c r="F1088" t="s">
         <v>98</v>
       </c>
+      <c r="N1088" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1088" t="s">
+        <v>112</v>
+      </c>
+      <c r="P1088" t="s">
+        <v>113</v>
+      </c>
       <c r="Q1088">
         <v>1000</v>
       </c>
@@ -15210,6 +17715,15 @@
       <c r="F1092" t="s">
         <v>98</v>
       </c>
+      <c r="N1092" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1092" t="s">
+        <v>112</v>
+      </c>
+      <c r="P1092" t="s">
+        <v>115</v>
+      </c>
       <c r="Q1092">
         <v>1000</v>
       </c>
@@ -15263,6 +17777,15 @@
       <c r="F1096" t="s">
         <v>98</v>
       </c>
+      <c r="N1096" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1096" t="s">
+        <v>109</v>
+      </c>
+      <c r="P1096" t="s">
+        <v>108</v>
+      </c>
       <c r="Q1096">
         <v>695</v>
       </c>
@@ -15316,6 +17839,15 @@
       <c r="F1100" t="s">
         <v>98</v>
       </c>
+      <c r="N1100" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1100" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1100" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1100">
         <v>390</v>
       </c>
@@ -15369,6 +17901,15 @@
       <c r="F1104" t="s">
         <v>98</v>
       </c>
+      <c r="N1104" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1104" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1104" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1104">
         <v>210</v>
       </c>
@@ -15422,6 +17963,15 @@
       <c r="F1108" t="s">
         <v>98</v>
       </c>
+      <c r="N1108" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1108" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1108" t="s">
+        <v>107</v>
+      </c>
       <c r="Q1108">
         <v>718</v>
       </c>
@@ -15475,6 +18025,15 @@
       <c r="F1112" t="s">
         <v>98</v>
       </c>
+      <c r="N1112" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1112" t="s">
+        <v>109</v>
+      </c>
+      <c r="P1112" t="s">
+        <v>109</v>
+      </c>
       <c r="Q1112">
         <v>685</v>
       </c>
@@ -15528,6 +18087,15 @@
       <c r="F1116" t="s">
         <v>98</v>
       </c>
+      <c r="N1116" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1116" t="s">
+        <v>113</v>
+      </c>
+      <c r="P1116" t="s">
+        <v>109</v>
+      </c>
       <c r="Q1116">
         <v>620</v>
       </c>
@@ -15581,6 +18149,15 @@
       <c r="F1120" t="s">
         <v>98</v>
       </c>
+      <c r="N1120" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1120" t="s">
+        <v>113</v>
+      </c>
+      <c r="P1120" t="s">
+        <v>113</v>
+      </c>
       <c r="Q1120">
         <v>620</v>
       </c>
@@ -15634,6 +18211,15 @@
       <c r="F1124" t="s">
         <v>98</v>
       </c>
+      <c r="N1124" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1124" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1124" t="s">
+        <v>105</v>
+      </c>
       <c r="Q1124">
         <v>525</v>
       </c>
@@ -15687,6 +18273,15 @@
       <c r="F1128" t="s">
         <v>98</v>
       </c>
+      <c r="N1128" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1128" t="s">
+        <v>109</v>
+      </c>
+      <c r="P1128" t="s">
+        <v>108</v>
+      </c>
       <c r="Q1128">
         <v>540</v>
       </c>
@@ -15740,6 +18335,15 @@
       <c r="F1132" t="s">
         <v>98</v>
       </c>
+      <c r="N1132" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1132" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1132" t="s">
+        <v>116</v>
+      </c>
       <c r="Q1132">
         <v>540</v>
       </c>
@@ -15793,6 +18397,15 @@
       <c r="F1136" t="s">
         <v>98</v>
       </c>
+      <c r="N1136" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1136" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1136" t="s">
+        <v>105</v>
+      </c>
       <c r="Q1136">
         <v>1160</v>
       </c>
@@ -15846,6 +18459,15 @@
       <c r="F1140" t="s">
         <v>98</v>
       </c>
+      <c r="N1140" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1140" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1140" t="s">
+        <v>108</v>
+      </c>
       <c r="Q1140">
         <v>540</v>
       </c>
@@ -15899,6 +18521,15 @@
       <c r="F1144" t="s">
         <v>98</v>
       </c>
+      <c r="N1144" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1144" t="s">
+        <v>110</v>
+      </c>
+      <c r="P1144" t="s">
+        <v>110</v>
+      </c>
       <c r="Q1144">
         <v>525</v>
       </c>
@@ -15952,6 +18583,15 @@
       <c r="F1148" t="s">
         <v>98</v>
       </c>
+      <c r="N1148" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1148" t="s">
+        <v>109</v>
+      </c>
+      <c r="P1148" t="s">
+        <v>108</v>
+      </c>
       <c r="Q1148">
         <v>695</v>
       </c>
@@ -16005,6 +18645,15 @@
       <c r="F1152" t="s">
         <v>98</v>
       </c>
+      <c r="N1152" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1152" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1152" t="s">
+        <v>103</v>
+      </c>
       <c r="Q1152">
         <v>1000</v>
       </c>
@@ -16058,6 +18707,15 @@
       <c r="F1156" t="s">
         <v>98</v>
       </c>
+      <c r="N1156" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1156" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1156" t="s">
+        <v>103</v>
+      </c>
       <c r="Q1156">
         <v>1000</v>
       </c>
@@ -16111,6 +18769,15 @@
       <c r="F1160" t="s">
         <v>98</v>
       </c>
+      <c r="N1160" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1160" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1160" t="s">
+        <v>115</v>
+      </c>
       <c r="Q1160">
         <v>260</v>
       </c>
@@ -16164,6 +18831,15 @@
       <c r="F1164" t="s">
         <v>98</v>
       </c>
+      <c r="N1164" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1164" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1164" t="s">
+        <v>105</v>
+      </c>
       <c r="Q1164">
         <v>685</v>
       </c>
@@ -16217,6 +18893,15 @@
       <c r="F1168" t="s">
         <v>98</v>
       </c>
+      <c r="N1168" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1168" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1168" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1168">
         <v>260</v>
       </c>
@@ -16270,6 +18955,15 @@
       <c r="F1172" t="s">
         <v>98</v>
       </c>
+      <c r="N1172" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1172" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1172" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1172">
         <v>685</v>
       </c>
@@ -16323,6 +19017,15 @@
       <c r="F1176" t="s">
         <v>98</v>
       </c>
+      <c r="N1176" t="s">
+        <v>111</v>
+      </c>
+      <c r="O1176" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1176" t="s">
+        <v>103</v>
+      </c>
       <c r="Q1176">
         <v>695</v>
       </c>
@@ -16376,6 +19079,15 @@
       <c r="F1180" t="s">
         <v>98</v>
       </c>
+      <c r="N1180" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1180" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1180" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1180">
         <v>695</v>
       </c>
@@ -16429,6 +19141,15 @@
       <c r="F1184" t="s">
         <v>98</v>
       </c>
+      <c r="N1184" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1184" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1184" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1184">
         <v>620</v>
       </c>
@@ -16482,6 +19203,15 @@
       <c r="F1188" t="s">
         <v>98</v>
       </c>
+      <c r="N1188" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1188" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1188" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1188">
         <v>620</v>
       </c>
@@ -16535,6 +19265,15 @@
       <c r="F1192" t="s">
         <v>98</v>
       </c>
+      <c r="N1192" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1192" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1192" t="s">
+        <v>104</v>
+      </c>
       <c r="Q1192">
         <v>620</v>
       </c>
@@ -16588,6 +19327,15 @@
       <c r="F1196" t="s">
         <v>98</v>
       </c>
+      <c r="N1196" t="s">
+        <v>106</v>
+      </c>
+      <c r="O1196" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1196" t="s">
+        <v>105</v>
+      </c>
       <c r="Q1196">
         <v>685</v>
       </c>
@@ -16641,6 +19389,15 @@
       <c r="F1200" t="s">
         <v>98</v>
       </c>
+      <c r="N1200" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1200" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1200" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1200">
         <v>685</v>
       </c>
@@ -16694,6 +19451,15 @@
       <c r="F1204" t="s">
         <v>98</v>
       </c>
+      <c r="N1204" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1204" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1204" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1204">
         <v>620</v>
       </c>
@@ -16747,6 +19513,15 @@
       <c r="F1208" t="s">
         <v>98</v>
       </c>
+      <c r="N1208" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1208" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1208" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1208">
         <v>226</v>
       </c>
@@ -16800,6 +19575,15 @@
       <c r="F1212" t="s">
         <v>98</v>
       </c>
+      <c r="N1212" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1212" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1212" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1212">
         <v>620</v>
       </c>
@@ -16853,6 +19637,15 @@
       <c r="F1216" t="s">
         <v>98</v>
       </c>
+      <c r="N1216" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1216" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1216" t="s">
+        <v>109</v>
+      </c>
       <c r="Q1216">
         <v>525</v>
       </c>
@@ -16906,6 +19699,15 @@
       <c r="F1220" t="s">
         <v>98</v>
       </c>
+      <c r="N1220" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1220" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1220" t="s">
+        <v>104</v>
+      </c>
       <c r="Q1220">
         <v>695</v>
       </c>
@@ -16959,6 +19761,15 @@
       <c r="F1224" t="s">
         <v>98</v>
       </c>
+      <c r="N1224" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1224" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1224" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1224">
         <v>540</v>
       </c>
@@ -17012,6 +19823,15 @@
       <c r="F1228" t="s">
         <v>98</v>
       </c>
+      <c r="N1228" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1228" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1228" t="s">
+        <v>107</v>
+      </c>
       <c r="Q1228">
         <v>540</v>
       </c>
@@ -17065,6 +19885,15 @@
       <c r="F1232" t="s">
         <v>98</v>
       </c>
+      <c r="N1232" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1232" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1232" t="s">
+        <v>105</v>
+      </c>
       <c r="Q1232">
         <v>540</v>
       </c>
@@ -17118,6 +19947,15 @@
       <c r="F1236" t="s">
         <v>98</v>
       </c>
+      <c r="N1236" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1236" t="s">
+        <v>114</v>
+      </c>
+      <c r="P1236" t="s">
+        <v>109</v>
+      </c>
       <c r="Q1236">
         <v>685</v>
       </c>
@@ -17171,6 +20009,15 @@
       <c r="F1240" t="s">
         <v>98</v>
       </c>
+      <c r="N1240" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1240" t="s">
+        <v>114</v>
+      </c>
+      <c r="P1240" t="s">
+        <v>112</v>
+      </c>
       <c r="Q1240">
         <v>525</v>
       </c>
@@ -17224,6 +20071,15 @@
       <c r="F1244" t="s">
         <v>98</v>
       </c>
+      <c r="N1244" t="s">
+        <v>106</v>
+      </c>
+      <c r="O1244" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1244" t="s">
+        <v>103</v>
+      </c>
       <c r="Q1244">
         <v>695</v>
       </c>
@@ -17277,6 +20133,15 @@
       <c r="F1248" t="s">
         <v>98</v>
       </c>
+      <c r="N1248" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1248" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1248" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1248">
         <v>540</v>
       </c>
@@ -17330,6 +20195,15 @@
       <c r="F1252" t="s">
         <v>98</v>
       </c>
+      <c r="N1252" t="s">
+        <v>111</v>
+      </c>
+      <c r="O1252" t="s">
+        <v>107</v>
+      </c>
+      <c r="P1252" t="s">
+        <v>103</v>
+      </c>
       <c r="Q1252">
         <v>540</v>
       </c>
@@ -17383,6 +20257,15 @@
       <c r="F1256" t="s">
         <v>98</v>
       </c>
+      <c r="N1256" t="s">
+        <v>106</v>
+      </c>
+      <c r="O1256" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1256" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1256">
         <v>1000</v>
       </c>
@@ -17436,6 +20319,15 @@
       <c r="F1260" t="s">
         <v>98</v>
       </c>
+      <c r="N1260" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1260" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1260" t="s">
+        <v>104</v>
+      </c>
       <c r="Q1260">
         <v>1000</v>
       </c>
@@ -17489,6 +20381,15 @@
       <c r="F1264" t="s">
         <v>98</v>
       </c>
+      <c r="N1264" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1264" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1264" t="s">
+        <v>106</v>
+      </c>
       <c r="Q1264">
         <v>695</v>
       </c>
@@ -17542,6 +20443,15 @@
       <c r="F1268" t="s">
         <v>98</v>
       </c>
+      <c r="N1268" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1268" t="s">
+        <v>107</v>
+      </c>
+      <c r="P1268" t="s">
+        <v>107</v>
+      </c>
       <c r="Q1268">
         <v>390</v>
       </c>
@@ -17595,6 +20505,15 @@
       <c r="F1272" t="s">
         <v>98</v>
       </c>
+      <c r="N1272" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1272" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1272" t="s">
+        <v>104</v>
+      </c>
       <c r="Q1272">
         <v>210</v>
       </c>
@@ -17648,6 +20567,15 @@
       <c r="F1276" t="s">
         <v>98</v>
       </c>
+      <c r="N1276" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1276" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1276" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1276">
         <v>718</v>
       </c>
@@ -17701,6 +20629,15 @@
       <c r="F1280" t="s">
         <v>98</v>
       </c>
+      <c r="N1280" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1280" t="s">
+        <v>107</v>
+      </c>
+      <c r="P1280" t="s">
+        <v>107</v>
+      </c>
       <c r="Q1280">
         <v>65</v>
       </c>
@@ -17754,6 +20691,15 @@
       <c r="F1284" t="s">
         <v>98</v>
       </c>
+      <c r="N1284" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1284" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1284" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1284">
         <v>245</v>
       </c>
@@ -17807,6 +20753,15 @@
       <c r="F1288" t="s">
         <v>98</v>
       </c>
+      <c r="N1288" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1288" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1288" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1288">
         <v>695</v>
       </c>
@@ -17860,6 +20815,15 @@
       <c r="F1292" t="s">
         <v>98</v>
       </c>
+      <c r="N1292" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1292" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1292" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1292">
         <v>260</v>
       </c>
@@ -17913,6 +20877,15 @@
       <c r="F1296" t="s">
         <v>98</v>
       </c>
+      <c r="N1296" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1296" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1296" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1296">
         <v>400</v>
       </c>
@@ -17966,6 +20939,15 @@
       <c r="F1300" t="s">
         <v>98</v>
       </c>
+      <c r="N1300" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1300" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1300" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1300">
         <v>125</v>
       </c>
@@ -18019,6 +21001,15 @@
       <c r="F1304" t="s">
         <v>98</v>
       </c>
+      <c r="N1304" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1304" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1304" t="s">
+        <v>104</v>
+      </c>
       <c r="Q1304">
         <v>400</v>
       </c>
@@ -18072,6 +21063,15 @@
       <c r="F1308" t="s">
         <v>98</v>
       </c>
+      <c r="N1308" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1308" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1308" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1308">
         <v>620</v>
       </c>
@@ -18125,6 +21125,15 @@
       <c r="F1312" t="s">
         <v>98</v>
       </c>
+      <c r="N1312" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1312" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1312" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1312">
         <v>620</v>
       </c>
@@ -18178,6 +21187,15 @@
       <c r="F1316" t="s">
         <v>98</v>
       </c>
+      <c r="N1316" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1316" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1316" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1316">
         <v>695</v>
       </c>
@@ -18231,6 +21249,15 @@
       <c r="F1320" t="s">
         <v>98</v>
       </c>
+      <c r="N1320" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1320" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1320" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1320">
         <v>695</v>
       </c>
@@ -18284,6 +21311,15 @@
       <c r="F1324" t="s">
         <v>98</v>
       </c>
+      <c r="N1324" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1324" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1324" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1324">
         <v>540</v>
       </c>
@@ -18337,6 +21373,15 @@
       <c r="F1328" t="s">
         <v>98</v>
       </c>
+      <c r="N1328" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1328" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1328" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1328">
         <v>226</v>
       </c>
@@ -18390,6 +21435,15 @@
       <c r="F1332" t="s">
         <v>98</v>
       </c>
+      <c r="N1332" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1332" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1332" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1332">
         <v>342</v>
       </c>
@@ -18443,6 +21497,15 @@
       <c r="F1336" t="s">
         <v>98</v>
       </c>
+      <c r="N1336" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1336" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1336" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1336">
         <v>307</v>
       </c>
@@ -18496,6 +21559,15 @@
       <c r="F1340" t="s">
         <v>98</v>
       </c>
+      <c r="N1340" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1340" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1340" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1340">
         <v>260</v>
       </c>
@@ -18549,6 +21621,15 @@
       <c r="F1344" t="s">
         <v>98</v>
       </c>
+      <c r="N1344" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1344" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1344" t="s">
+        <v>105</v>
+      </c>
       <c r="Q1344">
         <v>685</v>
       </c>
@@ -18602,6 +21683,15 @@
       <c r="F1348" t="s">
         <v>98</v>
       </c>
+      <c r="N1348" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1348" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1348" t="s">
+        <v>104</v>
+      </c>
       <c r="Q1348">
         <v>260</v>
       </c>
@@ -18655,6 +21745,15 @@
       <c r="F1352" t="s">
         <v>98</v>
       </c>
+      <c r="N1352" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1352" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1352" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1352">
         <v>685</v>
       </c>
@@ -18708,6 +21807,15 @@
       <c r="F1356" t="s">
         <v>98</v>
       </c>
+      <c r="N1356" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1356" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1356" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1356">
         <v>695</v>
       </c>
@@ -18761,6 +21869,15 @@
       <c r="F1360" t="s">
         <v>98</v>
       </c>
+      <c r="N1360" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1360" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1360" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1360">
         <v>620</v>
       </c>
@@ -18814,6 +21931,15 @@
       <c r="F1364" t="s">
         <v>98</v>
       </c>
+      <c r="N1364" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1364" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1364" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1364">
         <v>620</v>
       </c>
@@ -18867,6 +21993,15 @@
       <c r="F1368" t="s">
         <v>98</v>
       </c>
+      <c r="N1368" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1368" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1368" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1368">
         <v>620</v>
       </c>
@@ -18920,6 +22055,15 @@
       <c r="F1372" t="s">
         <v>98</v>
       </c>
+      <c r="N1372" t="s">
+        <v>106</v>
+      </c>
+      <c r="O1372" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1372" t="s">
+        <v>106</v>
+      </c>
       <c r="Q1372">
         <v>685</v>
       </c>
@@ -18973,6 +22117,15 @@
       <c r="F1376" t="s">
         <v>98</v>
       </c>
+      <c r="N1376" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1376" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1376" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1376">
         <v>620</v>
       </c>
@@ -19026,6 +22179,15 @@
       <c r="F1380" t="s">
         <v>98</v>
       </c>
+      <c r="N1380" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1380" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1380" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1380">
         <v>620</v>
       </c>
@@ -19079,6 +22241,15 @@
       <c r="F1384" t="s">
         <v>98</v>
       </c>
+      <c r="N1384" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1384" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1384" t="s">
+        <v>107</v>
+      </c>
       <c r="Q1384">
         <v>525</v>
       </c>
@@ -19132,6 +22303,15 @@
       <c r="F1388" t="s">
         <v>98</v>
       </c>
+      <c r="N1388" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1388" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1388" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1388">
         <v>695</v>
       </c>
@@ -19185,6 +22365,15 @@
       <c r="F1392" t="s">
         <v>98</v>
       </c>
+      <c r="N1392" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1392" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1392" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1392">
         <v>540</v>
       </c>
@@ -19238,6 +22427,15 @@
       <c r="F1396" t="s">
         <v>98</v>
       </c>
+      <c r="N1396" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1396" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1396" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1396">
         <v>540</v>
       </c>
@@ -19291,6 +22489,15 @@
       <c r="F1400" t="s">
         <v>98</v>
       </c>
+      <c r="N1400" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1400" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1400" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1400">
         <v>540</v>
       </c>
@@ -19344,6 +22551,15 @@
       <c r="F1404" t="s">
         <v>98</v>
       </c>
+      <c r="N1404" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1404" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1404" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1404">
         <v>685</v>
       </c>
@@ -19397,6 +22613,15 @@
       <c r="F1408" t="s">
         <v>98</v>
       </c>
+      <c r="N1408" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1408" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1408" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1408">
         <v>525</v>
       </c>
@@ -19450,6 +22675,15 @@
       <c r="F1412" t="s">
         <v>98</v>
       </c>
+      <c r="N1412" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1412" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1412" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1412">
         <v>695</v>
       </c>
@@ -19503,6 +22737,15 @@
       <c r="F1416" t="s">
         <v>98</v>
       </c>
+      <c r="N1416" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1416" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1416" t="s">
+        <v>103</v>
+      </c>
       <c r="Q1416">
         <v>540</v>
       </c>
@@ -19556,6 +22799,15 @@
       <c r="F1420" t="s">
         <v>98</v>
       </c>
+      <c r="N1420" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1420" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1420" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1420">
         <v>540</v>
       </c>
@@ -19609,6 +22861,15 @@
       <c r="F1424" t="s">
         <v>98</v>
       </c>
+      <c r="N1424" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1424" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1424" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1424">
         <v>1000</v>
       </c>
@@ -19662,6 +22923,15 @@
       <c r="F1428" t="s">
         <v>98</v>
       </c>
+      <c r="N1428" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1428" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1428" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1428">
         <v>1000</v>
       </c>
@@ -19715,6 +22985,15 @@
       <c r="F1432" t="s">
         <v>98</v>
       </c>
+      <c r="N1432" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1432" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1432" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1432">
         <v>695</v>
       </c>
@@ -19768,6 +23047,15 @@
       <c r="F1436" t="s">
         <v>98</v>
       </c>
+      <c r="N1436" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1436" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1436" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1436">
         <v>390</v>
       </c>
@@ -19821,6 +23109,15 @@
       <c r="F1440" t="s">
         <v>98</v>
       </c>
+      <c r="N1440" t="s">
+        <v>106</v>
+      </c>
+      <c r="O1440" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1440" t="s">
+        <v>106</v>
+      </c>
       <c r="Q1440">
         <v>210</v>
       </c>
@@ -19874,6 +23171,15 @@
       <c r="F1444" t="s">
         <v>98</v>
       </c>
+      <c r="N1444" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1444" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1444" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1444">
         <v>65</v>
       </c>
@@ -19927,6 +23233,15 @@
       <c r="F1448" t="s">
         <v>98</v>
       </c>
+      <c r="N1448" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1448" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1448" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1448">
         <v>245</v>
       </c>
@@ -19980,6 +23295,15 @@
       <c r="F1452" t="s">
         <v>98</v>
       </c>
+      <c r="N1452" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1452" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1452" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1452">
         <v>695</v>
       </c>
@@ -20033,6 +23357,15 @@
       <c r="F1456" t="s">
         <v>98</v>
       </c>
+      <c r="N1456" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1456" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1456" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1456">
         <v>260</v>
       </c>
@@ -20086,6 +23419,15 @@
       <c r="F1460" t="s">
         <v>98</v>
       </c>
+      <c r="N1460" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1460" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1460" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1460">
         <v>400</v>
       </c>
@@ -20139,6 +23481,15 @@
       <c r="F1464" t="s">
         <v>98</v>
       </c>
+      <c r="N1464" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1464" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1464" t="s">
+        <v>104</v>
+      </c>
       <c r="Q1464">
         <v>125</v>
       </c>
@@ -20192,6 +23543,15 @@
       <c r="F1468" t="s">
         <v>98</v>
       </c>
+      <c r="N1468" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1468" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1468" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1468">
         <v>400</v>
       </c>
@@ -20245,6 +23605,15 @@
       <c r="F1472" t="s">
         <v>98</v>
       </c>
+      <c r="N1472" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1472" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1472" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1472">
         <v>570</v>
       </c>
@@ -20298,6 +23667,15 @@
       <c r="F1476" t="s">
         <v>98</v>
       </c>
+      <c r="N1476" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1476" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1476" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1476">
         <v>226</v>
       </c>
@@ -20351,6 +23729,15 @@
       <c r="F1480" t="s">
         <v>98</v>
       </c>
+      <c r="N1480" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1480" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1480" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1480">
         <v>695</v>
       </c>
@@ -20404,6 +23791,15 @@
       <c r="F1484" t="s">
         <v>98</v>
       </c>
+      <c r="N1484" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1484" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1484" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1484">
         <v>295</v>
       </c>
@@ -20457,6 +23853,15 @@
       <c r="F1488" t="s">
         <v>98</v>
       </c>
+      <c r="N1488" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1488" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1488" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1488">
         <v>260</v>
       </c>
@@ -20510,6 +23915,15 @@
       <c r="F1492" t="s">
         <v>98</v>
       </c>
+      <c r="N1492" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1492" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1492" t="s">
+        <v>105</v>
+      </c>
       <c r="Q1492">
         <v>685</v>
       </c>
@@ -20563,6 +23977,15 @@
       <c r="F1496" t="s">
         <v>98</v>
       </c>
+      <c r="N1496" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1496" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1496" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1496">
         <v>260</v>
       </c>
@@ -20616,6 +24039,15 @@
       <c r="F1500" t="s">
         <v>98</v>
       </c>
+      <c r="N1500" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1500" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1500" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1500">
         <v>685</v>
       </c>
@@ -20669,6 +24101,15 @@
       <c r="F1504" t="s">
         <v>98</v>
       </c>
+      <c r="N1504" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1504" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1504" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1504">
         <v>695</v>
       </c>
@@ -20722,6 +24163,15 @@
       <c r="F1508" t="s">
         <v>98</v>
       </c>
+      <c r="N1508" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1508" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1508" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1508">
         <v>525</v>
       </c>
@@ -20775,6 +24225,15 @@
       <c r="F1512" t="s">
         <v>98</v>
       </c>
+      <c r="N1512" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1512" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1512" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1512">
         <v>620</v>
       </c>
@@ -20828,6 +24287,15 @@
       <c r="F1516" t="s">
         <v>98</v>
       </c>
+      <c r="N1516" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1516" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1516" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1516">
         <v>620</v>
       </c>
@@ -20881,6 +24349,15 @@
       <c r="F1520" t="s">
         <v>98</v>
       </c>
+      <c r="N1520" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1520" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1520" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1520">
         <v>620</v>
       </c>
@@ -20934,6 +24411,15 @@
       <c r="F1524" t="s">
         <v>98</v>
       </c>
+      <c r="N1524" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1524" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1524" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1524">
         <v>685</v>
       </c>
@@ -20987,6 +24473,15 @@
       <c r="F1528" t="s">
         <v>98</v>
       </c>
+      <c r="N1528" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1528" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1528" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1528">
         <v>620</v>
       </c>
@@ -21040,6 +24535,15 @@
       <c r="F1532" t="s">
         <v>98</v>
       </c>
+      <c r="N1532" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1532" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1532" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1532">
         <v>620</v>
       </c>
@@ -21093,6 +24597,15 @@
       <c r="F1536" t="s">
         <v>98</v>
       </c>
+      <c r="N1536" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1536" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1536" t="s">
+        <v>107</v>
+      </c>
       <c r="Q1536">
         <v>525</v>
       </c>
@@ -21146,6 +24659,15 @@
       <c r="F1540" t="s">
         <v>98</v>
       </c>
+      <c r="N1540" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1540" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1540" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1540">
         <v>540</v>
       </c>
@@ -21199,6 +24721,15 @@
       <c r="F1544" t="s">
         <v>98</v>
       </c>
+      <c r="N1544" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1544" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1544" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1544">
         <v>540</v>
       </c>
@@ -21252,6 +24783,15 @@
       <c r="F1548" t="s">
         <v>98</v>
       </c>
+      <c r="N1548" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1548" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1548" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1548">
         <v>540</v>
       </c>
@@ -21305,6 +24845,15 @@
       <c r="F1552" t="s">
         <v>98</v>
       </c>
+      <c r="N1552" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1552" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1552" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1552">
         <v>685</v>
       </c>
@@ -21358,6 +24907,15 @@
       <c r="F1556" t="s">
         <v>98</v>
       </c>
+      <c r="N1556" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1556" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1556" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1556">
         <v>525</v>
       </c>
@@ -21411,6 +24969,15 @@
       <c r="F1560" t="s">
         <v>98</v>
       </c>
+      <c r="N1560" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1560" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1560" t="s">
+        <v>105</v>
+      </c>
       <c r="Q1560">
         <v>540</v>
       </c>
@@ -21464,6 +25031,15 @@
       <c r="F1564" t="s">
         <v>98</v>
       </c>
+      <c r="N1564" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1564" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1564" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1564">
         <v>1000</v>
       </c>
@@ -21517,6 +25093,15 @@
       <c r="F1568" t="s">
         <v>98</v>
       </c>
+      <c r="N1568" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1568" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1568" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1568">
         <v>1000</v>
       </c>
@@ -21570,6 +25155,15 @@
       <c r="F1572" t="s">
         <v>98</v>
       </c>
+      <c r="N1572" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1572" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1572" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1572">
         <v>390</v>
       </c>
@@ -21623,6 +25217,15 @@
       <c r="F1576" t="s">
         <v>98</v>
       </c>
+      <c r="N1576" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1576" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1576" t="s">
+        <v>105</v>
+      </c>
       <c r="Q1576">
         <v>210</v>
       </c>
@@ -21676,6 +25279,15 @@
       <c r="F1580" t="s">
         <v>98</v>
       </c>
+      <c r="N1580" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1580" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1580" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1580">
         <v>65</v>
       </c>
@@ -21729,6 +25341,15 @@
       <c r="F1584" t="s">
         <v>98</v>
       </c>
+      <c r="N1584" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1584" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1584" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1584">
         <v>245</v>
       </c>
@@ -21782,6 +25403,15 @@
       <c r="F1588" t="s">
         <v>98</v>
       </c>
+      <c r="N1588" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1588" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1588" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1588">
         <v>695</v>
       </c>
@@ -21835,6 +25465,15 @@
       <c r="F1592" t="s">
         <v>98</v>
       </c>
+      <c r="N1592" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1592" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1592" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1592">
         <v>260</v>
       </c>
@@ -21888,6 +25527,15 @@
       <c r="F1596" t="s">
         <v>98</v>
       </c>
+      <c r="N1596" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1596" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1596" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1596">
         <v>400</v>
       </c>
@@ -21941,6 +25589,15 @@
       <c r="F1600" t="s">
         <v>98</v>
       </c>
+      <c r="N1600" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1600" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1600" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1600">
         <v>125</v>
       </c>
@@ -21994,6 +25651,15 @@
       <c r="F1604" t="s">
         <v>98</v>
       </c>
+      <c r="N1604" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1604" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1604" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1604">
         <v>400</v>
       </c>
@@ -22047,6 +25713,15 @@
       <c r="F1608" t="s">
         <v>98</v>
       </c>
+      <c r="N1608" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1608" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1608" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1608">
         <v>685</v>
       </c>
@@ -22100,6 +25775,15 @@
       <c r="F1612" t="s">
         <v>98</v>
       </c>
+      <c r="N1612" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1612" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1612" t="s">
+        <v>104</v>
+      </c>
       <c r="Q1612">
         <v>260</v>
       </c>
@@ -22153,6 +25837,15 @@
       <c r="F1616" t="s">
         <v>98</v>
       </c>
+      <c r="N1616" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1616" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1616" t="s">
+        <v>113</v>
+      </c>
       <c r="Q1616">
         <v>685</v>
       </c>
@@ -22206,6 +25899,15 @@
       <c r="F1620" t="s">
         <v>98</v>
       </c>
+      <c r="N1620" t="s">
+        <v>118</v>
+      </c>
+      <c r="O1620" t="s">
+        <v>118</v>
+      </c>
+      <c r="P1620" t="s">
+        <v>118</v>
+      </c>
       <c r="Q1620">
         <v>260</v>
       </c>
@@ -22259,6 +25961,15 @@
       <c r="F1624" t="s">
         <v>98</v>
       </c>
+      <c r="N1624" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1624" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1624" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1624">
         <v>685</v>
       </c>
@@ -22312,6 +26023,15 @@
       <c r="F1628" t="s">
         <v>98</v>
       </c>
+      <c r="N1628" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1628" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1628" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1628">
         <v>695</v>
       </c>
@@ -22365,6 +26085,15 @@
       <c r="F1632" t="s">
         <v>98</v>
       </c>
+      <c r="N1632" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1632" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1632" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1632">
         <v>620</v>
       </c>
@@ -22418,6 +26147,15 @@
       <c r="F1636" t="s">
         <v>98</v>
       </c>
+      <c r="N1636" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1636" t="s">
+        <v>113</v>
+      </c>
+      <c r="P1636" t="s">
+        <v>113</v>
+      </c>
       <c r="Q1636">
         <v>620</v>
       </c>
@@ -22471,6 +26209,15 @@
       <c r="F1640" t="s">
         <v>98</v>
       </c>
+      <c r="N1640" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1640" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1640" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1640">
         <v>620</v>
       </c>
@@ -22524,6 +26271,15 @@
       <c r="F1644" t="s">
         <v>98</v>
       </c>
+      <c r="N1644" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1644" t="s">
+        <v>109</v>
+      </c>
+      <c r="P1644" t="s">
+        <v>108</v>
+      </c>
       <c r="Q1644">
         <v>685</v>
       </c>
@@ -22577,6 +26333,15 @@
       <c r="F1648" t="s">
         <v>98</v>
       </c>
+      <c r="N1648" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1648" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1648" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1648">
         <v>620</v>
       </c>
@@ -22630,6 +26395,15 @@
       <c r="F1652" t="s">
         <v>98</v>
       </c>
+      <c r="N1652" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1652" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1652" t="s">
+        <v>115</v>
+      </c>
       <c r="Q1652">
         <v>620</v>
       </c>
@@ -22683,6 +26457,15 @@
       <c r="F1656" t="s">
         <v>98</v>
       </c>
+      <c r="N1656" t="s">
+        <v>118</v>
+      </c>
+      <c r="O1656" t="s">
+        <v>120</v>
+      </c>
+      <c r="P1656" t="s">
+        <v>120</v>
+      </c>
       <c r="Q1656">
         <v>525</v>
       </c>
@@ -22736,6 +26519,15 @@
       <c r="F1660" t="s">
         <v>98</v>
       </c>
+      <c r="N1660" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1660" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1660" t="s">
+        <v>105</v>
+      </c>
       <c r="Q1660">
         <v>695</v>
       </c>
@@ -22789,6 +26581,15 @@
       <c r="F1664" t="s">
         <v>98</v>
       </c>
+      <c r="N1664" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1664" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1664" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1664">
         <v>540</v>
       </c>
@@ -22842,6 +26643,15 @@
       <c r="F1668" t="s">
         <v>98</v>
       </c>
+      <c r="N1668" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1668" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1668" t="s">
+        <v>115</v>
+      </c>
       <c r="Q1668">
         <v>540</v>
       </c>
@@ -22895,6 +26705,15 @@
       <c r="F1672" t="s">
         <v>98</v>
       </c>
+      <c r="N1672" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1672" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1672" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1672">
         <v>540</v>
       </c>
@@ -22948,6 +26767,15 @@
       <c r="F1676" t="s">
         <v>98</v>
       </c>
+      <c r="N1676" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1676" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1676" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1676">
         <v>685</v>
       </c>
@@ -23001,6 +26829,15 @@
       <c r="F1680" t="s">
         <v>98</v>
       </c>
+      <c r="N1680" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1680" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1680" t="s">
+        <v>105</v>
+      </c>
       <c r="Q1680">
         <v>525</v>
       </c>
@@ -23054,6 +26891,15 @@
       <c r="F1684" t="s">
         <v>98</v>
       </c>
+      <c r="N1684" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1684" t="s">
+        <v>114</v>
+      </c>
+      <c r="P1684" t="s">
+        <v>114</v>
+      </c>
       <c r="Q1684">
         <v>695</v>
       </c>
@@ -23107,6 +26953,15 @@
       <c r="F1688" t="s">
         <v>98</v>
       </c>
+      <c r="N1688" t="s">
+        <v>120</v>
+      </c>
+      <c r="O1688" t="s">
+        <v>120</v>
+      </c>
+      <c r="P1688" t="s">
+        <v>118</v>
+      </c>
       <c r="Q1688">
         <v>540</v>
       </c>
@@ -23160,6 +27015,15 @@
       <c r="F1692" t="s">
         <v>98</v>
       </c>
+      <c r="N1692" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1692" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1692" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1692">
         <v>1000</v>
       </c>
@@ -23213,6 +27077,15 @@
       <c r="F1696" t="s">
         <v>98</v>
       </c>
+      <c r="N1696" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1696" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1696" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1696">
         <v>1000</v>
       </c>
@@ -23266,6 +27139,15 @@
       <c r="F1700" t="s">
         <v>98</v>
       </c>
+      <c r="N1700" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1700" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1700" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1700">
         <v>695</v>
       </c>
@@ -23319,6 +27201,15 @@
       <c r="F1704" t="s">
         <v>98</v>
       </c>
+      <c r="N1704" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1704" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1704" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1704">
         <v>390</v>
       </c>
@@ -23372,6 +27263,15 @@
       <c r="F1708" t="s">
         <v>98</v>
       </c>
+      <c r="N1708" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1708" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1708" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1708">
         <v>210</v>
       </c>
@@ -23425,6 +27325,15 @@
       <c r="F1712" t="s">
         <v>98</v>
       </c>
+      <c r="N1712" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1712" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1712" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1712">
         <v>695</v>
       </c>
@@ -23478,6 +27387,15 @@
       <c r="F1716" t="s">
         <v>98</v>
       </c>
+      <c r="N1716" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1716" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1716" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1716">
         <v>65</v>
       </c>
@@ -23531,6 +27449,15 @@
       <c r="F1720" t="s">
         <v>98</v>
       </c>
+      <c r="N1720" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1720" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1720" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1720">
         <v>695</v>
       </c>
@@ -23584,6 +27511,15 @@
       <c r="F1724" t="s">
         <v>98</v>
       </c>
+      <c r="N1724" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1724" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1724" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1724">
         <v>245</v>
       </c>
@@ -23637,6 +27573,15 @@
       <c r="F1728" t="s">
         <v>98</v>
       </c>
+      <c r="N1728" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1728" t="s">
+        <v>107</v>
+      </c>
+      <c r="P1728" t="s">
+        <v>107</v>
+      </c>
       <c r="Q1728">
         <v>260</v>
       </c>
@@ -23690,6 +27635,15 @@
       <c r="F1732" t="s">
         <v>98</v>
       </c>
+      <c r="N1732" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1732" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1732" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1732">
         <v>400</v>
       </c>
@@ -23743,6 +27697,15 @@
       <c r="F1736" t="s">
         <v>98</v>
       </c>
+      <c r="N1736" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1736" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1736" t="s">
+        <v>102</v>
+      </c>
       <c r="Q1736">
         <v>125</v>
       </c>
@@ -23796,6 +27759,15 @@
       <c r="F1740" t="s">
         <v>98</v>
       </c>
+      <c r="N1740" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1740" t="s">
+        <v>114</v>
+      </c>
+      <c r="P1740" t="s">
+        <v>108</v>
+      </c>
       <c r="Q1740">
         <v>400</v>
       </c>
@@ -23849,6 +27821,15 @@
       <c r="F1744" t="s">
         <v>98</v>
       </c>
+      <c r="N1744" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1744" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1744" t="s">
+        <v>104</v>
+      </c>
       <c r="Q1744">
         <v>620</v>
       </c>
@@ -23901,6 +27882,15 @@
       </c>
       <c r="F1748" t="s">
         <v>98</v>
+      </c>
+      <c r="N1748" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1748" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1748" t="s">
+        <v>102</v>
       </c>
       <c r="Q1748">
         <v>525</v>
